--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\src\SBTi\examples\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ITR\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
     <sheet name="target_data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="189">
   <si>
     <t>company_name</t>
   </si>
@@ -580,13 +580,25 @@
   </si>
   <si>
     <t>Company AW</t>
+  </si>
+  <si>
+    <t>cumulative_budget</t>
+  </si>
+  <si>
+    <t>cumulative_trajectory</t>
+  </si>
+  <si>
+    <t>cumulative_target</t>
+  </si>
+  <si>
+    <t>target_probability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,9 +675,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q51" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:Q51"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U51" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:U51"/>
+  <tableColumns count="21">
     <tableColumn id="1" name="company_name"/>
     <tableColumn id="2" name="company_id"/>
     <tableColumn id="3" name="isic"/>
@@ -685,6 +697,10 @@
       <calculatedColumnFormula>Table1[[#This Row],[company_market_cap]]*Q2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="company_cash_equivalents"/>
+    <tableColumn id="14" name="cumulative_budget"/>
+    <tableColumn id="15" name="cumulative_trajectory"/>
+    <tableColumn id="16" name="cumulative_target"/>
+    <tableColumn id="17" name="target_probability"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -978,13 +994,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -997,7 +1013,7 @@
     <col min="17" max="17" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,8 +1065,20 @@
       <c r="Q1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -1087,8 +1115,20 @@
       <c r="Q2">
         <v>4528467714.7267609</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>151.28060920540031</v>
+      </c>
+      <c r="S2">
+        <v>335.65335174323133</v>
+      </c>
+      <c r="T2">
+        <v>339.66835709230492</v>
+      </c>
+      <c r="U2">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -1125,8 +1165,20 @@
       <c r="Q3">
         <v>69006940.998092517</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>210.28756399048262</v>
+      </c>
+      <c r="S3">
+        <v>578.79482682229639</v>
+      </c>
+      <c r="T3">
+        <v>472.39883641437115</v>
+      </c>
+      <c r="U3">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -1163,8 +1215,20 @@
       <c r="Q4">
         <v>1163119848.4230556</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>149.1775358970259</v>
+      </c>
+      <c r="S4">
+        <v>519.92594644303142</v>
+      </c>
+      <c r="T4">
+        <v>290.78546460143502</v>
+      </c>
+      <c r="U4">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -1201,8 +1265,20 @@
       <c r="Q5">
         <v>117630751.45422383</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>155.81429053755497</v>
+      </c>
+      <c r="S5">
+        <v>586.48563776765798</v>
+      </c>
+      <c r="T5">
+        <v>354.60573060795997</v>
+      </c>
+      <c r="U5">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -1239,8 +1315,20 @@
       <c r="Q6">
         <v>28933197273.168182</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>27.360951439513979</v>
+      </c>
+      <c r="S6">
+        <v>98.757798057827145</v>
+      </c>
+      <c r="T6">
+        <v>105.66095996243746</v>
+      </c>
+      <c r="U6">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -1277,8 +1365,20 @@
       <c r="Q7">
         <v>51876930016.314178</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>320.70129835595458</v>
+      </c>
+      <c r="S7">
+        <v>1016.5298043530278</v>
+      </c>
+      <c r="T7">
+        <v>536.4169776190605</v>
+      </c>
+      <c r="U7">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -1315,8 +1415,20 @@
       <c r="Q8">
         <v>2214490.9702577037</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>49.517672755188094</v>
+      </c>
+      <c r="S8">
+        <v>161.56415575761997</v>
+      </c>
+      <c r="T8">
+        <v>146.41151115367325</v>
+      </c>
+      <c r="U8">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -1353,8 +1465,20 @@
       <c r="Q9">
         <v>203940251.11854151</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>239.18762466646331</v>
+      </c>
+      <c r="S9">
+        <v>697.85352071183479</v>
+      </c>
+      <c r="T9">
+        <v>577.39433075329839</v>
+      </c>
+      <c r="U9">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -1391,8 +1515,20 @@
       <c r="Q10">
         <v>42950453116.50563</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>216.75177095667976</v>
+      </c>
+      <c r="S10">
+        <v>430.01617112648546</v>
+      </c>
+      <c r="T10">
+        <v>660.35504275524261</v>
+      </c>
+      <c r="U10">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -1429,8 +1565,20 @@
       <c r="Q11">
         <v>5520000408.4878492</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>70.355367219718616</v>
+      </c>
+      <c r="S11">
+        <v>169.8397691123094</v>
+      </c>
+      <c r="T11">
+        <v>143.59484790913928</v>
+      </c>
+      <c r="U11">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -1467,8 +1615,20 @@
       <c r="Q12">
         <v>505519258.45795137</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>155.81902748156233</v>
+      </c>
+      <c r="S12">
+        <v>325.58375119093438</v>
+      </c>
+      <c r="T12">
+        <v>360.04845851784324</v>
+      </c>
+      <c r="U12">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -1505,8 +1665,20 @@
       <c r="Q13">
         <v>462245314.11453331</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>216.59619091019709</v>
+      </c>
+      <c r="S13">
+        <v>561.43098201762746</v>
+      </c>
+      <c r="T13">
+        <v>500.74276659923345</v>
+      </c>
+      <c r="U13">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -1543,8 +1715,20 @@
       <c r="Q14">
         <v>1853875026.0311818</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>153.65286197393669</v>
+      </c>
+      <c r="S14">
+        <v>504.32816804974044</v>
+      </c>
+      <c r="T14">
+        <v>308.23259247752117</v>
+      </c>
+      <c r="U14">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -1581,8 +1765,20 @@
       <c r="Q15">
         <v>3272481697.8285317</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>160.48871925368161</v>
+      </c>
+      <c r="S15">
+        <v>568.89106863462825</v>
+      </c>
+      <c r="T15">
+        <v>375.88207444443759</v>
+      </c>
+      <c r="U15">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -1619,8 +1815,20 @@
       <c r="Q16">
         <v>518880676.89759755</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>28.1817799826994</v>
+      </c>
+      <c r="S16">
+        <v>95.795064116092334</v>
+      </c>
+      <c r="T16">
+        <v>112.00061756018371</v>
+      </c>
+      <c r="U16">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -1657,8 +1865,20 @@
       <c r="Q17">
         <v>990719858.47337103</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>330.32233730663324</v>
+      </c>
+      <c r="S17">
+        <v>986.03391022243693</v>
+      </c>
+      <c r="T17">
+        <v>568.6019962762042</v>
+      </c>
+      <c r="U17">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -1695,8 +1915,20 @@
       <c r="Q18">
         <v>470283632.88013947</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>51.003202937843739</v>
+      </c>
+      <c r="S18">
+        <v>156.71723108489138</v>
+      </c>
+      <c r="T18">
+        <v>155.19620182289364</v>
+      </c>
+      <c r="U18">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1733,8 +1965,20 @@
       <c r="Q19">
         <v>963039844.50366735</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>246.3632534064572</v>
+      </c>
+      <c r="S19">
+        <v>676.91791509047971</v>
+      </c>
+      <c r="T19">
+        <v>612.03799059849632</v>
+      </c>
+      <c r="U19">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1771,8 +2015,20 @@
       <c r="Q20">
         <v>23467516.32994597</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>223.25432408538018</v>
+      </c>
+      <c r="S20">
+        <v>417.11568599269089</v>
+      </c>
+      <c r="T20">
+        <v>699.97634532055724</v>
+      </c>
+      <c r="U20">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1809,8 +2065,20 @@
       <c r="Q21">
         <v>457926390.7271148</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>72.46602823631018</v>
+      </c>
+      <c r="S21">
+        <v>164.74457603894012</v>
+      </c>
+      <c r="T21">
+        <v>152.21053878368764</v>
+      </c>
+      <c r="U21">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1847,8 +2115,20 @@
       <c r="Q22">
         <v>469617764.24836379</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>160.4935983060092</v>
+      </c>
+      <c r="S22">
+        <v>315.81623865520635</v>
+      </c>
+      <c r="T22">
+        <v>381.65136602891386</v>
+      </c>
+      <c r="U22">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1885,8 +2165,20 @@
       <c r="Q23">
         <v>209706066.63280141</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>223.09407663750301</v>
+      </c>
+      <c r="S23">
+        <v>544.58805255709865</v>
+      </c>
+      <c r="T23">
+        <v>530.78733259518754</v>
+      </c>
+      <c r="U23">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1923,8 +2215,20 @@
       <c r="Q24">
         <v>80140338.552216381</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>158.26244783315479</v>
+      </c>
+      <c r="S24">
+        <v>489.19832300824822</v>
+      </c>
+      <c r="T24">
+        <v>326.72654802617245</v>
+      </c>
+      <c r="U24">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1961,8 +2265,20 @@
       <c r="Q25">
         <v>1863069356.1369269</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>165.30338083129206</v>
+      </c>
+      <c r="S25">
+        <v>551.82433657558943</v>
+      </c>
+      <c r="T25">
+        <v>398.43499891110389</v>
+      </c>
+      <c r="U25">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1999,8 +2315,20 @@
       <c r="Q26">
         <v>802015633.4125073</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>29.027233382180384</v>
+      </c>
+      <c r="S26">
+        <v>92.921212192609559</v>
+      </c>
+      <c r="T26">
+        <v>118.72065461379474</v>
+      </c>
+      <c r="U26">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2037,8 +2365,20 @@
       <c r="Q27">
         <v>1090445581.1975896</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>340.23200742583225</v>
+      </c>
+      <c r="S27">
+        <v>956.45289291576375</v>
+      </c>
+      <c r="T27">
+        <v>602.71811605277651</v>
+      </c>
+      <c r="U27">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2075,8 +2415,20 @@
       <c r="Q28">
         <v>408632883.32140654</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>52.533299025979055</v>
+      </c>
+      <c r="S28">
+        <v>152.01571415234463</v>
+      </c>
+      <c r="T28">
+        <v>164.50797393226728</v>
+      </c>
+      <c r="U28">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2113,8 +2465,20 @@
       <c r="Q29">
         <v>223357269.54921383</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>253.75415100865092</v>
+      </c>
+      <c r="S29">
+        <v>656.61037763776528</v>
+      </c>
+      <c r="T29">
+        <v>648.76027003440618</v>
+      </c>
+      <c r="U29">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2151,8 +2515,20 @@
       <c r="Q30">
         <v>1279584288.1275206</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>229.95195380794158</v>
+      </c>
+      <c r="S30">
+        <v>404.60221541291014</v>
+      </c>
+      <c r="T30">
+        <v>741.97492603979072</v>
+      </c>
+      <c r="U30">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2189,8 +2565,20 @@
       <c r="Q31">
         <v>259739897.26190066</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>74.640009083399491</v>
+      </c>
+      <c r="S31">
+        <v>159.8022387577719</v>
+      </c>
+      <c r="T31">
+        <v>161.34317111070891</v>
+      </c>
+      <c r="U31">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2227,8 +2615,20 @@
       <c r="Q32">
         <v>2957267010.5849843</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>165.30840625518948</v>
+      </c>
+      <c r="S32">
+        <v>306.34175149555017</v>
+      </c>
+      <c r="T32">
+        <v>404.55044799064871</v>
+      </c>
+      <c r="U32">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2265,8 +2665,20 @@
       <c r="Q33">
         <v>3249873922.9934068</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>229.78689893662809</v>
+      </c>
+      <c r="S33">
+        <v>528.25041098038571</v>
+      </c>
+      <c r="T33">
+        <v>562.63457255089884</v>
+      </c>
+      <c r="U33">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2303,8 +2715,20 @@
       <c r="Q34">
         <v>1054147392.1400725</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>163.01032126814945</v>
+      </c>
+      <c r="S34">
+        <v>474.52237331800075</v>
+      </c>
+      <c r="T34">
+        <v>346.33014090774282</v>
+      </c>
+      <c r="U34">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2341,8 +2765,20 @@
       <c r="Q35">
         <v>16164035.009301951</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>170.26248225623084</v>
+      </c>
+      <c r="S35">
+        <v>535.26960647832175</v>
+      </c>
+      <c r="T35">
+        <v>422.34109884577015</v>
+      </c>
+      <c r="U35">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2379,8 +2815,20 @@
       <c r="Q36">
         <v>76375335.415532187</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>29.898050383645796</v>
+      </c>
+      <c r="S36">
+        <v>90.133575826831276</v>
+      </c>
+      <c r="T36">
+        <v>125.84389389062243</v>
+      </c>
+      <c r="U36">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2417,8 +2865,20 @@
       <c r="Q37">
         <v>403556882.32980388</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>350.43896764860722</v>
+      </c>
+      <c r="S37">
+        <v>927.75930612829086</v>
+      </c>
+      <c r="T37">
+        <v>638.88120301594313</v>
+      </c>
+      <c r="U37">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -2455,8 +2915,20 @@
       <c r="Q38">
         <v>359922992.06079412</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>54.109297996758428</v>
+      </c>
+      <c r="S38">
+        <v>147.45524272777428</v>
+      </c>
+      <c r="T38">
+        <v>174.37845236820331</v>
+      </c>
+      <c r="U38">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2493,8 +2965,20 @@
       <c r="Q39">
         <v>188775849.06628573</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>261.36677553891047</v>
+      </c>
+      <c r="S39">
+        <v>636.91206630863235</v>
+      </c>
+      <c r="T39">
+        <v>687.68588623647054</v>
+      </c>
+      <c r="U39">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2531,8 +3015,20 @@
       <c r="Q40">
         <v>3126017043.1166129</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>236.85051242217983</v>
+      </c>
+      <c r="S40">
+        <v>392.46414895052283</v>
+      </c>
+      <c r="T40">
+        <v>786.49342160217816</v>
+      </c>
+      <c r="U40">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2569,8 +3065,20 @@
       <c r="Q41">
         <v>25963862784.153816</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>76.87920935590148</v>
+      </c>
+      <c r="S41">
+        <v>155.00817159503873</v>
+      </c>
+      <c r="T41">
+        <v>171.02376137735146</v>
+      </c>
+      <c r="U41">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -2607,8 +3115,20 @@
       <c r="Q42">
         <v>216444951.50947747</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>170.26765844284517</v>
+      </c>
+      <c r="S42">
+        <v>297.15149895068367</v>
+      </c>
+      <c r="T42">
+        <v>428.82347487008764</v>
+      </c>
+      <c r="U42">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -2645,8 +3165,20 @@
       <c r="Q43">
         <v>463981837.16979945</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>236.68050590472694</v>
+      </c>
+      <c r="S43">
+        <v>512.40289865097418</v>
+      </c>
+      <c r="T43">
+        <v>596.39264690395282</v>
+      </c>
+      <c r="U43">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -2683,8 +3215,20 @@
       <c r="Q44">
         <v>630827983.47226107</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>167.90063090619395</v>
+      </c>
+      <c r="S44">
+        <v>460.28670211846071</v>
+      </c>
+      <c r="T44">
+        <v>367.10994936220743</v>
+      </c>
+      <c r="U44">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -2721,8 +3265,20 @@
       <c r="Q45">
         <v>1089931685.5934117</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>175.37035672391778</v>
+      </c>
+      <c r="S45">
+        <v>519.21151828397205</v>
+      </c>
+      <c r="T45">
+        <v>447.68156477651638</v>
+      </c>
+      <c r="U45">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -2759,8 +3315,20 @@
       <c r="Q46">
         <v>1580248549.8247914</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>30.794991895155171</v>
+      </c>
+      <c r="S46">
+        <v>87.429568552026339</v>
+      </c>
+      <c r="T46">
+        <v>133.39452752405978</v>
+      </c>
+      <c r="U46">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -2797,8 +3365,20 @@
       <c r="Q47">
         <v>360167278.93933254</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>360.95213667806547</v>
+      </c>
+      <c r="S47">
+        <v>899.92652694444212</v>
+      </c>
+      <c r="T47">
+        <v>677.21407519689978</v>
+      </c>
+      <c r="U47">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -2835,8 +3415,20 @@
       <c r="Q48">
         <v>23659060554.326973</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>55.732576936661182</v>
+      </c>
+      <c r="S48">
+        <v>143.03158544594103</v>
+      </c>
+      <c r="T48">
+        <v>184.84115951029551</v>
+      </c>
+      <c r="U48">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -2873,8 +3465,20 @@
       <c r="Q49">
         <v>94976895574.746582</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>269.20777880507779</v>
+      </c>
+      <c r="S49">
+        <v>617.8047043193734</v>
+      </c>
+      <c r="T49">
+        <v>728.94703941065882</v>
+      </c>
+      <c r="U49">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -2911,8 +3515,20 @@
       <c r="Q50">
         <v>408452279.29417968</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>243.95602779484523</v>
+      </c>
+      <c r="S50">
+        <v>380.69022448200712</v>
+      </c>
+      <c r="T50">
+        <v>833.68302689830887</v>
+      </c>
+      <c r="U50">
+        <v>0.42857142857142849</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>183</v>
       </c>
@@ -2948,6 +3564,18 @@
       </c>
       <c r="Q51">
         <v>95987554.945462793</v>
+      </c>
+      <c r="R51">
+        <v>79.185585636578523</v>
+      </c>
+      <c r="S51">
+        <v>150.35792644718757</v>
+      </c>
+      <c r="T51">
+        <v>181.28518705999255</v>
+      </c>
+      <c r="U51">
+        <v>1.4285714285714299</v>
       </c>
     </row>
   </sheetData>
@@ -2963,9 +3591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -2979,7 +3607,7 @@
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3029,7 +3657,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3070,7 +3698,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -3115,7 +3743,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -3156,7 +3784,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -3203,7 +3831,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -3250,7 +3878,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -3294,7 +3922,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -3332,7 +3960,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -3376,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -3420,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -3464,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -3505,7 +4133,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -3546,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -3587,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -3628,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -3669,7 +4297,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -3710,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -3748,7 +4376,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -3786,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3824,7 +4452,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3862,7 +4490,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -3900,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -3938,7 +4566,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3979,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -4020,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -4061,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -4105,7 +4733,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -4140,7 +4768,7 @@
         <v>0.49600000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -4181,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -4222,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4263,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4304,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -4342,7 +4970,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -4383,7 +5011,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -4418,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4459,7 +5087,7 @@
         <v>6.1699999999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -4500,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4541,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4579,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -4617,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4661,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4705,7 +5333,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -4746,7 +5374,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -4787,7 +5415,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -4828,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -4872,7 +5500,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -4916,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>171</v>
       </c>
@@ -4957,7 +5585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -5001,7 +5629,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>173</v>
       </c>
@@ -5048,7 +5676,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>174</v>
       </c>
@@ -5089,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -5130,7 +5758,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -5174,7 +5802,7 @@
         <v>5.4000000000000006E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>177</v>
       </c>
@@ -5215,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -5256,7 +5884,7 @@
         <v>0.30809999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -5297,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -5338,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>181</v>
       </c>
@@ -5379,7 +6007,7 @@
         <v>0.41000000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>182</v>
       </c>
@@ -5423,7 +6051,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -5467,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -5511,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -5552,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -5593,7 +6221,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -5634,7 +6262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -5678,7 +6306,7 @@
         <v>0.47789999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -5722,7 +6350,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -5763,7 +6391,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -5807,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -5845,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -5886,7 +6514,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -5930,7 +6558,7 @@
         <v>6.4100000000000004E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -5971,7 +6599,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -6012,7 +6640,7 @@
         <v>0.11220000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -6056,7 +6684,7 @@
         <v>0.22870000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -6097,7 +6725,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -6141,7 +6769,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -6185,7 +6813,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -6229,7 +6857,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -6267,7 +6895,7 @@
         <v>0.84400000000000008</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>168</v>
       </c>
@@ -6314,7 +6942,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -6358,7 +6986,7 @@
         <v>0.55670000000000008</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
         <v>170</v>
       </c>
@@ -6399,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
         <v>171</v>
       </c>
@@ -6440,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -6481,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -6522,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
         <v>174</v>
       </c>
@@ -6560,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
         <v>175</v>
       </c>
@@ -6604,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
         <v>176</v>
       </c>
@@ -6642,7 +7270,7 @@
         <v>0.36700000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>178</v>
       </c>
@@ -6683,7 +7311,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
         <v>180</v>
       </c>
@@ -6721,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -6759,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -6797,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -6835,7 +7463,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -6876,7 +7504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -6917,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
         <v>168</v>
       </c>
@@ -6961,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
         <v>169</v>
       </c>
@@ -7005,7 +7633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -7043,7 +7671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
         <v>170</v>
       </c>
@@ -7081,7 +7709,7 @@
         <v>0.82000000000000006</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
         <v>172</v>
       </c>
@@ -7125,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
         <v>173</v>
       </c>
@@ -7163,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
         <v>174</v>
       </c>
@@ -7204,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
         <v>175</v>
       </c>
@@ -7248,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
         <v>176</v>
       </c>
@@ -7292,7 +7920,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
         <v>177</v>
       </c>
@@ -7333,7 +7961,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
         <v>178</v>
       </c>
@@ -7377,7 +8005,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
         <v>179</v>
       </c>
@@ -7418,7 +8046,7 @@
         <v>0.69000000000000006</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
         <v>180</v>
       </c>
@@ -7459,7 +8087,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
         <v>181</v>
       </c>
@@ -7503,7 +8131,7 @@
         <v>0.57020000000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
         <v>182</v>
       </c>
@@ -7544,7 +8172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -7585,7 +8213,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -7626,7 +8254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -7667,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -7708,7 +8336,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -7749,7 +8377,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
         <v>81</v>
       </c>
@@ -7790,7 +8418,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
         <v>83</v>
       </c>
@@ -7834,7 +8462,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -7878,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
         <v>83</v>
       </c>
@@ -7919,7 +8547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
         <v>83</v>
       </c>

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -726,7 +726,11 @@
       <sheetName val="BM Steel"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="K2">
@@ -14302,8 +14306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -18583,184 +18587,179 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV81"/>
+  <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:C81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.7265625" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1">
+    <row r="1" spans="1:46" s="1" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1" t="s">
+      <c r="B1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="E1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2010</v>
+      </c>
       <c r="G1" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="H1" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="I1" s="1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="J1" s="1">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="K1" s="1">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="L1" s="1">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="M1" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="N1" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="O1" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="P1" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Q1" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="R1" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="S1" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="T1" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="U1" s="1">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="V1" s="1">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="W1" s="1">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="X1" s="1">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="Y1" s="1">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="Z1" s="1">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="AA1" s="1">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="AB1" s="1">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="AC1" s="1">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="AD1" s="1">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="AE1" s="1">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="AF1" s="1">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="AG1" s="1">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="AH1" s="1">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="AI1" s="1">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="AJ1" s="1">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="AK1" s="1">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="AL1" s="1">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="AM1" s="1">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="AN1" s="1">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="AO1" s="1">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="AP1" s="1">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="AQ1" s="1">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="AR1" s="1">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="AS1" s="1">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="AT1" s="1">
-        <v>2048</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>2049</v>
-      </c>
-      <c r="AV1" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:46">
       <c r="A2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" t="str">
-        <f>A2</f>
-        <v>Company AG</v>
-      </c>
-      <c r="C2" t="str">
-        <f>D2</f>
-        <v>US0079031078</v>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
         <v>194</v>
@@ -18771,1433 +18770,1369 @@
       <c r="I2" t="s">
         <v>194</v>
       </c>
-      <c r="J2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" t="s">
-        <v>194</v>
+      <c r="J2">
+        <v>467435849.83603901</v>
+      </c>
+      <c r="K2">
+        <v>319287605.83603901</v>
       </c>
       <c r="L2">
-        <v>467435849.83603901</v>
+        <v>375523565.83603901</v>
       </c>
       <c r="M2">
-        <v>319287605.83603901</v>
+        <v>241767187.63603899</v>
       </c>
       <c r="N2">
-        <v>375523565.83603901</v>
+        <v>108010809.436039</v>
       </c>
       <c r="O2">
-        <v>241767187.63603899</v>
+        <v>104827858.636039</v>
       </c>
       <c r="P2">
-        <v>108010809.436039</v>
+        <f>O2*(1+'[1]BM Power Utils'!C$26)</f>
+        <v>96880847.843031019</v>
       </c>
       <c r="Q2">
-        <v>104827858.636039</v>
+        <f>P2*(1+'[1]BM Power Utils'!D$26)</f>
+        <v>98800366.551096827</v>
       </c>
       <c r="R2">
-        <f>Q2*(1+'[1]BM Power Utils'!C$26)</f>
-        <v>96880847.843031019</v>
+        <f>Q2*(1+'[1]BM Power Utils'!E$26)</f>
+        <v>100757917.04927026</v>
       </c>
       <c r="S2">
-        <f>R2*(1+'[1]BM Power Utils'!D$26)</f>
-        <v>98800366.551096827</v>
+        <f>R2*(1+'[1]BM Power Utils'!F$26)</f>
+        <v>102754252.86865924</v>
       </c>
       <c r="T2">
-        <f>S2*(1+'[1]BM Power Utils'!E$26)</f>
-        <v>100757917.04927026</v>
+        <f>S2*(1+'[1]BM Power Utils'!G$26)</f>
+        <v>104790142.47022723</v>
       </c>
       <c r="U2">
-        <f>T2*(1+'[1]BM Power Utils'!F$26)</f>
-        <v>102754252.86865924</v>
+        <f>T2*(1+'[1]BM Power Utils'!H$26)</f>
+        <v>106866369.54060121</v>
       </c>
       <c r="V2">
-        <f>U2*(1+'[1]BM Power Utils'!G$26)</f>
-        <v>104790142.47022723</v>
+        <f>U2*(1+'[1]BM Power Utils'!I$26)</f>
+        <v>110273028.01906781</v>
       </c>
       <c r="W2">
-        <f>V2*(1+'[1]BM Power Utils'!H$26)</f>
-        <v>106866369.54060121</v>
+        <f>V2*(1+'[1]BM Power Utils'!J$26)</f>
+        <v>113788283.07509942</v>
       </c>
       <c r="X2">
-        <f>W2*(1+'[1]BM Power Utils'!I$26)</f>
-        <v>110273028.01906781</v>
+        <f>W2*(1+'[1]BM Power Utils'!K$26)</f>
+        <v>117415596.52229828</v>
       </c>
       <c r="Y2">
-        <f>X2*(1+'[1]BM Power Utils'!J$26)</f>
-        <v>113788283.07509942</v>
+        <f>X2*(1+'[1]BM Power Utils'!L$26)</f>
+        <v>121158540.52906489</v>
       </c>
       <c r="Z2">
-        <f>Y2*(1+'[1]BM Power Utils'!K$26)</f>
-        <v>117415596.52229828</v>
+        <f>Y2*(1+'[1]BM Power Utils'!M$26)</f>
+        <v>125020801.13645986</v>
       </c>
       <c r="AA2">
-        <f>Z2*(1+'[1]BM Power Utils'!L$26)</f>
-        <v>121158540.52906489</v>
+        <f>Z2*(1+'[1]BM Power Utils'!N$26)</f>
+        <v>127708032.76926421</v>
       </c>
       <c r="AB2">
-        <f>AA2*(1+'[1]BM Power Utils'!M$26)</f>
-        <v>125020801.13645986</v>
+        <f>AA2*(1+'[1]BM Power Utils'!O$26)</f>
+        <v>130453024.5010497</v>
       </c>
       <c r="AC2">
-        <f>AB2*(1+'[1]BM Power Utils'!N$26)</f>
-        <v>127708032.76926421</v>
+        <f>AB2*(1+'[1]BM Power Utils'!P$26)</f>
+        <v>133257017.8433383</v>
       </c>
       <c r="AD2">
-        <f>AC2*(1+'[1]BM Power Utils'!O$26)</f>
-        <v>130453024.5010497</v>
+        <f>AC2*(1+'[1]BM Power Utils'!Q$26)</f>
+        <v>136121280.99304354</v>
       </c>
       <c r="AE2">
-        <f>AD2*(1+'[1]BM Power Utils'!P$26)</f>
-        <v>133257017.8433383</v>
+        <f>AD2*(1+'[1]BM Power Utils'!R$26)</f>
+        <v>139047109.40605375</v>
       </c>
       <c r="AF2">
-        <f>AE2*(1+'[1]BM Power Utils'!Q$26)</f>
-        <v>136121280.99304354</v>
+        <f>AE2*(1+'[1]BM Power Utils'!S$26)</f>
+        <v>143803518.1276373</v>
       </c>
       <c r="AG2">
-        <f>AF2*(1+'[1]BM Power Utils'!R$26)</f>
-        <v>139047109.40605375</v>
+        <f>AF2*(1+'[1]BM Power Utils'!T$26)</f>
+        <v>148722630.15188849</v>
       </c>
       <c r="AH2">
-        <f>AG2*(1+'[1]BM Power Utils'!S$26)</f>
-        <v>143803518.1276373</v>
+        <f>AG2*(1+'[1]BM Power Utils'!U$26)</f>
+        <v>153810011.09905753</v>
       </c>
       <c r="AI2">
-        <f>AH2*(1+'[1]BM Power Utils'!T$26)</f>
-        <v>148722630.15188849</v>
+        <f>AH2*(1+'[1]BM Power Utils'!V$26)</f>
+        <v>159071416.97353712</v>
       </c>
       <c r="AJ2">
-        <f>AI2*(1+'[1]BM Power Utils'!U$26)</f>
-        <v>153810011.09905753</v>
+        <f>AI2*(1+'[1]BM Power Utils'!W$26)</f>
+        <v>164512800.67636612</v>
       </c>
       <c r="AK2">
-        <f>AJ2*(1+'[1]BM Power Utils'!V$26)</f>
-        <v>159071416.97353712</v>
+        <f>AJ2*(1+'[1]BM Power Utils'!X$26)</f>
+        <v>166864178.74843603</v>
       </c>
       <c r="AL2">
-        <f>AK2*(1+'[1]BM Power Utils'!W$26)</f>
-        <v>164512800.67636612</v>
+        <f>AK2*(1+'[1]BM Power Utils'!Y$26)</f>
+        <v>169249165.01886547</v>
       </c>
       <c r="AM2">
-        <f>AL2*(1+'[1]BM Power Utils'!X$26)</f>
-        <v>166864178.74843603</v>
+        <f>AL2*(1+'[1]BM Power Utils'!Z$26)</f>
+        <v>171668239.84894145</v>
       </c>
       <c r="AN2">
-        <f>AM2*(1+'[1]BM Power Utils'!Y$26)</f>
-        <v>169249165.01886547</v>
+        <f>AM2*(1+'[1]BM Power Utils'!AA$26)</f>
+        <v>174121890.46574494</v>
       </c>
       <c r="AO2">
-        <f>AN2*(1+'[1]BM Power Utils'!Z$26)</f>
-        <v>171668239.84894145</v>
+        <f>AN2*(1+'[1]BM Power Utils'!AB$26)</f>
+        <v>176610611.06028363</v>
       </c>
       <c r="AP2">
-        <f>AO2*(1+'[1]BM Power Utils'!AA$26)</f>
-        <v>174121890.46574494</v>
+        <f>AO2*(1+'[1]BM Power Utils'!AC$26)</f>
+        <v>177180531.38617307</v>
       </c>
       <c r="AQ2">
-        <f>AP2*(1+'[1]BM Power Utils'!AB$26)</f>
-        <v>176610611.06028363</v>
+        <f>AP2*(1+'[1]BM Power Utils'!AD$26)</f>
+        <v>177752290.83812582</v>
       </c>
       <c r="AR2">
-        <f>AQ2*(1+'[1]BM Power Utils'!AC$26)</f>
-        <v>177180531.38617307</v>
+        <f>AQ2*(1+'[1]BM Power Utils'!AE$26)</f>
+        <v>178325895.35097969</v>
       </c>
       <c r="AS2">
-        <f>AR2*(1+'[1]BM Power Utils'!AD$26)</f>
-        <v>177752290.83812582</v>
+        <f>AR2*(1+'[1]BM Power Utils'!AF$26)</f>
+        <v>178901350.87872407</v>
       </c>
       <c r="AT2">
-        <f>AS2*(1+'[1]BM Power Utils'!AE$26)</f>
-        <v>178325895.35097969</v>
-      </c>
-      <c r="AU2">
-        <f>AT2*(1+'[1]BM Power Utils'!AF$26)</f>
-        <v>178901350.87872407</v>
-      </c>
-      <c r="AV2">
-        <f>AU2*(1+'[1]BM Power Utils'!AG$26)</f>
+        <f>AS2*(1+'[1]BM Power Utils'!AG$26)</f>
         <v>179478663.39456186</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:46">
       <c r="A3" t="s">
         <v>168</v>
       </c>
-      <c r="B3" t="str">
-        <f>A2</f>
-        <v>Company AG</v>
-      </c>
-      <c r="C3" t="str">
-        <f>D2</f>
-        <v>US0079031078</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
+        <v>194</v>
+      </c>
+      <c r="F3">
+        <v>595461601.49205899</v>
+      </c>
+      <c r="G3">
+        <v>587480044.19205904</v>
       </c>
       <c r="H3">
-        <v>595461601.49205899</v>
+        <v>579498486.89205897</v>
       </c>
       <c r="I3">
-        <v>587480044.19205904</v>
+        <v>571516929.59205902</v>
       </c>
       <c r="J3">
-        <v>579498486.89205897</v>
+        <v>563535372.29205894</v>
       </c>
       <c r="K3">
-        <v>571516929.59205902</v>
+        <v>523856381.09205902</v>
       </c>
       <c r="L3">
-        <v>563535372.29205894</v>
+        <v>461561937.89205903</v>
       </c>
       <c r="M3">
-        <v>523856381.09205902</v>
+        <v>691152099.89205897</v>
       </c>
       <c r="N3">
-        <v>461561937.89205903</v>
+        <v>682667227.49205899</v>
       </c>
       <c r="O3">
-        <v>691152099.89205897</v>
+        <v>598937001.89205897</v>
       </c>
       <c r="P3">
-        <v>682667227.49205899</v>
+        <f>O3*(1+'[1]BM Power Utils'!C$26)</f>
+        <v>553531525.90219009</v>
       </c>
       <c r="Q3">
-        <v>598937001.89205897</v>
+        <f>P3*(1+'[1]BM Power Utils'!D$26)</f>
+        <v>564498751.55235147</v>
       </c>
       <c r="R3">
-        <f>Q3*(1+'[1]BM Power Utils'!C$26)</f>
-        <v>553531525.90219009</v>
+        <f>Q3*(1+'[1]BM Power Utils'!E$26)</f>
+        <v>575683272.93515515</v>
       </c>
       <c r="S3">
-        <f>R3*(1+'[1]BM Power Utils'!D$26)</f>
-        <v>564498751.55235147</v>
+        <f>R3*(1+'[1]BM Power Utils'!F$26)</f>
+        <v>587089395.37237823</v>
       </c>
       <c r="T3">
-        <f>S3*(1+'[1]BM Power Utils'!E$26)</f>
-        <v>575683272.93515515</v>
+        <f>S3*(1+'[1]BM Power Utils'!G$26)</f>
+        <v>598721509.48795867</v>
       </c>
       <c r="U3">
-        <f>T3*(1+'[1]BM Power Utils'!F$26)</f>
-        <v>587089395.37237823</v>
+        <f>T3*(1+'[1]BM Power Utils'!H$26)</f>
+        <v>610584092.89810383</v>
       </c>
       <c r="V3">
-        <f>U3*(1+'[1]BM Power Utils'!G$26)</f>
-        <v>598721509.48795867</v>
+        <f>U3*(1+'[1]BM Power Utils'!I$26)</f>
+        <v>630048134.63387084</v>
       </c>
       <c r="W3">
-        <f>V3*(1+'[1]BM Power Utils'!H$26)</f>
-        <v>610584092.89810383</v>
+        <f>V3*(1+'[1]BM Power Utils'!J$26)</f>
+        <v>650132646.05612028</v>
       </c>
       <c r="X3">
-        <f>W3*(1+'[1]BM Power Utils'!I$26)</f>
-        <v>630048134.63387084</v>
+        <f>W3*(1+'[1]BM Power Utils'!K$26)</f>
+        <v>670857406.33698261</v>
       </c>
       <c r="Y3">
-        <f>X3*(1+'[1]BM Power Utils'!J$26)</f>
-        <v>650132646.05612028</v>
+        <f>X3*(1+'[1]BM Power Utils'!L$26)</f>
+        <v>692242825.16391969</v>
       </c>
       <c r="Z3">
-        <f>Y3*(1+'[1]BM Power Utils'!K$26)</f>
-        <v>670857406.33698261</v>
+        <f>Y3*(1+'[1]BM Power Utils'!M$26)</f>
+        <v>714309962.83912992</v>
       </c>
       <c r="AA3">
-        <f>Z3*(1+'[1]BM Power Utils'!L$26)</f>
-        <v>692242825.16391969</v>
+        <f>Z3*(1+'[1]BM Power Utils'!N$26)</f>
+        <v>729663538.48670125</v>
       </c>
       <c r="AB3">
-        <f>AA3*(1+'[1]BM Power Utils'!M$26)</f>
-        <v>714309962.83912992</v>
+        <f>AA3*(1+'[1]BM Power Utils'!O$26)</f>
+        <v>745347128.13019776</v>
       </c>
       <c r="AC3">
-        <f>AB3*(1+'[1]BM Power Utils'!N$26)</f>
-        <v>729663538.48670125</v>
+        <f>AB3*(1+'[1]BM Power Utils'!P$26)</f>
+        <v>761367825.18160415</v>
       </c>
       <c r="AD3">
-        <f>AC3*(1+'[1]BM Power Utils'!O$26)</f>
-        <v>745347128.13019776</v>
+        <f>AC3*(1+'[1]BM Power Utils'!Q$26)</f>
+        <v>777732875.52066159</v>
       </c>
       <c r="AE3">
-        <f>AD3*(1+'[1]BM Power Utils'!P$26)</f>
-        <v>761367825.18160415</v>
+        <f>AD3*(1+'[1]BM Power Utils'!R$26)</f>
+        <v>794449680.77205193</v>
       </c>
       <c r="AF3">
-        <f>AE3*(1+'[1]BM Power Utils'!Q$26)</f>
-        <v>777732875.52066159</v>
+        <f>AE3*(1+'[1]BM Power Utils'!S$26)</f>
+        <v>821625559.55604434</v>
       </c>
       <c r="AG3">
-        <f>AF3*(1+'[1]BM Power Utils'!R$26)</f>
-        <v>794449680.77205193</v>
+        <f>AF3*(1+'[1]BM Power Utils'!T$26)</f>
+        <v>849731048.36513555</v>
       </c>
       <c r="AH3">
-        <f>AG3*(1+'[1]BM Power Utils'!S$26)</f>
-        <v>821625559.55604434</v>
+        <f>AG3*(1+'[1]BM Power Utils'!U$26)</f>
+        <v>878797946.53158021</v>
       </c>
       <c r="AI3">
-        <f>AH3*(1+'[1]BM Power Utils'!T$26)</f>
-        <v>849731048.36513555</v>
+        <f>AH3*(1+'[1]BM Power Utils'!V$26)</f>
+        <v>908859141.15293729</v>
       </c>
       <c r="AJ3">
-        <f>AI3*(1+'[1]BM Power Utils'!U$26)</f>
-        <v>878797946.53158021</v>
+        <f>AI3*(1+'[1]BM Power Utils'!W$26)</f>
+        <v>939948644.30144751</v>
       </c>
       <c r="AK3">
-        <f>AJ3*(1+'[1]BM Power Utils'!V$26)</f>
-        <v>908859141.15293729</v>
+        <f>AJ3*(1+'[1]BM Power Utils'!X$26)</f>
+        <v>953383310.917027</v>
       </c>
       <c r="AL3">
-        <f>AK3*(1+'[1]BM Power Utils'!W$26)</f>
-        <v>939948644.30144751</v>
+        <f>AK3*(1+'[1]BM Power Utils'!Y$26)</f>
+        <v>967009998.94586778</v>
       </c>
       <c r="AM3">
-        <f>AL3*(1+'[1]BM Power Utils'!X$26)</f>
-        <v>953383310.917027</v>
+        <f>AL3*(1+'[1]BM Power Utils'!Z$26)</f>
+        <v>980831452.94607496</v>
       </c>
       <c r="AN3">
-        <f>AM3*(1+'[1]BM Power Utils'!Y$26)</f>
-        <v>967009998.94586778</v>
+        <f>AM3*(1+'[1]BM Power Utils'!AA$26)</f>
+        <v>994850456.70366645</v>
       </c>
       <c r="AO3">
-        <f>AN3*(1+'[1]BM Power Utils'!Z$26)</f>
-        <v>980831452.94607496</v>
+        <f>AN3*(1+'[1]BM Power Utils'!AB$26)</f>
+        <v>1009069833.793256</v>
       </c>
       <c r="AP3">
-        <f>AO3*(1+'[1]BM Power Utils'!AA$26)</f>
-        <v>994850456.70366645</v>
+        <f>AO3*(1+'[1]BM Power Utils'!AC$26)</f>
+        <v>1012326090.0570676</v>
       </c>
       <c r="AQ3">
-        <f>AP3*(1+'[1]BM Power Utils'!AB$26)</f>
-        <v>1009069833.793256</v>
+        <f>AP3*(1+'[1]BM Power Utils'!AD$26)</f>
+        <v>1015592854.2208288</v>
       </c>
       <c r="AR3">
-        <f>AQ3*(1+'[1]BM Power Utils'!AC$26)</f>
-        <v>1012326090.0570676</v>
+        <f>AQ3*(1+'[1]BM Power Utils'!AE$26)</f>
+        <v>1018870160.1934067</v>
       </c>
       <c r="AS3">
-        <f>AR3*(1+'[1]BM Power Utils'!AD$26)</f>
-        <v>1015592854.2208288</v>
+        <f>AR3*(1+'[1]BM Power Utils'!AF$26)</f>
+        <v>1022158041.9930922</v>
       </c>
       <c r="AT3">
-        <f>AS3*(1+'[1]BM Power Utils'!AE$26)</f>
-        <v>1018870160.1934067</v>
-      </c>
-      <c r="AU3">
-        <f>AT3*(1+'[1]BM Power Utils'!AF$26)</f>
-        <v>1022158041.9930922</v>
-      </c>
-      <c r="AV3">
-        <f>AU3*(1+'[1]BM Power Utils'!AG$26)</f>
+        <f>AS3*(1+'[1]BM Power Utils'!AG$26)</f>
         <v>1025456533.7479526</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:46">
       <c r="A4" t="s">
         <v>169</v>
       </c>
-      <c r="B4" t="str">
-        <f>A3</f>
-        <v>Company AH</v>
-      </c>
-      <c r="C4" t="str">
-        <f>D3</f>
-        <v>US00724F1012</v>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" t="s">
-        <v>194</v>
+        <v>194</v>
+      </c>
+      <c r="F4">
+        <v>991800002.66109598</v>
+      </c>
+      <c r="G4">
+        <v>976320002.66109598</v>
       </c>
       <c r="H4">
-        <v>991800002.66109598</v>
+        <v>947520002.66109598</v>
       </c>
       <c r="I4">
-        <v>976320002.66109598</v>
+        <v>987840002.66109598</v>
       </c>
       <c r="J4">
-        <v>947520002.66109598</v>
+        <v>870120002.66109598</v>
       </c>
       <c r="K4">
-        <v>987840002.66109598</v>
+        <v>163080002.66109601</v>
       </c>
       <c r="L4">
-        <v>870120002.66109598</v>
+        <v>152928002.66109601</v>
       </c>
       <c r="M4">
-        <v>163080002.66109601</v>
+        <v>142776002.66109601</v>
       </c>
       <c r="N4">
-        <v>152928002.66109601</v>
+        <v>132624002.66109601</v>
       </c>
       <c r="O4">
-        <v>142776002.66109601</v>
+        <v>122472002.66109601</v>
       </c>
       <c r="P4">
-        <v>132624002.66109601</v>
+        <v>112320002.66109601</v>
       </c>
       <c r="Q4">
-        <v>122472002.66109601</v>
+        <f>P4*(1+'[1]BM Power Utils'!D$25)</f>
+        <v>115218007.84781621</v>
       </c>
       <c r="R4">
-        <v>112320002.66109601</v>
+        <f>Q4*(1+'[1]BM Power Utils'!E$25)</f>
+        <v>118190785.41579783</v>
       </c>
       <c r="S4">
-        <f>R4*(1+'[1]BM Power Utils'!D$25)</f>
-        <v>115218007.84781621</v>
+        <f>R4*(1+'[1]BM Power Utils'!F$25)</f>
+        <v>121240264.59174655</v>
       </c>
       <c r="T4">
-        <f>S4*(1+'[1]BM Power Utils'!E$25)</f>
-        <v>118190785.41579783</v>
+        <f>S4*(1+'[1]BM Power Utils'!G$25)</f>
+        <v>124368424.37897837</v>
       </c>
       <c r="U4">
-        <f>T4*(1+'[1]BM Power Utils'!F$25)</f>
-        <v>121240264.59174655</v>
+        <f>T4*(1+'[1]BM Power Utils'!H$25)</f>
+        <v>127577294.84172221</v>
       </c>
       <c r="V4">
-        <f>U4*(1+'[1]BM Power Utils'!G$25)</f>
-        <v>124368424.37897837</v>
+        <f>U4*(1+'[1]BM Power Utils'!I$25)</f>
+        <v>132683100.69004841</v>
       </c>
       <c r="W4">
-        <f>V4*(1+'[1]BM Power Utils'!H$25)</f>
-        <v>127577294.84172221</v>
+        <f>V4*(1+'[1]BM Power Utils'!J$25)</f>
+        <v>137993247.39223224</v>
       </c>
       <c r="X4">
-        <f>W4*(1+'[1]BM Power Utils'!I$25)</f>
-        <v>132683100.69004841</v>
+        <f>W4*(1+'[1]BM Power Utils'!K$25)</f>
+        <v>143515912.92953572</v>
       </c>
       <c r="Y4">
-        <f>X4*(1+'[1]BM Power Utils'!J$25)</f>
-        <v>137993247.39223224</v>
+        <f>X4*(1+'[1]BM Power Utils'!L$25)</f>
+        <v>149259602.57644817</v>
       </c>
       <c r="Z4">
-        <f>Y4*(1+'[1]BM Power Utils'!K$25)</f>
-        <v>143515912.92953572</v>
+        <f>Y4*(1+'[1]BM Power Utils'!M$25)</f>
+        <v>155233161.99937806</v>
       </c>
       <c r="AA4">
-        <f>Z4*(1+'[1]BM Power Utils'!L$25)</f>
-        <v>149259602.57644817</v>
+        <f>Z4*(1+'[1]BM Power Utils'!N$25)</f>
+        <v>160967208.59143803</v>
       </c>
       <c r="AB4">
-        <f>AA4*(1+'[1]BM Power Utils'!M$25)</f>
-        <v>155233161.99937806</v>
+        <f>AA4*(1+'[1]BM Power Utils'!O$25)</f>
+        <v>166913061.02379936</v>
       </c>
       <c r="AC4">
-        <f>AB4*(1+'[1]BM Power Utils'!N$25)</f>
-        <v>160967208.59143803</v>
+        <f>AB4*(1+'[1]BM Power Utils'!P$25)</f>
+        <v>173078543.04070017</v>
       </c>
       <c r="AD4">
-        <f>AC4*(1+'[1]BM Power Utils'!O$25)</f>
-        <v>166913061.02379936</v>
+        <f>AC4*(1+'[1]BM Power Utils'!Q$25)</f>
+        <v>179471767.38206357</v>
       </c>
       <c r="AE4">
-        <f>AD4*(1+'[1]BM Power Utils'!P$25)</f>
-        <v>173078543.04070017</v>
+        <f>AD4*(1+'[1]BM Power Utils'!R$25)</f>
+        <v>186101146.45850232</v>
       </c>
       <c r="AF4">
-        <f>AE4*(1+'[1]BM Power Utils'!Q$25)</f>
-        <v>179471767.38206357</v>
+        <f>AE4*(1+'[1]BM Power Utils'!S$25)</f>
+        <v>189581602.05887806</v>
       </c>
       <c r="AG4">
-        <f>AF4*(1+'[1]BM Power Utils'!R$25)</f>
-        <v>186101146.45850232</v>
+        <f>AF4*(1+'[1]BM Power Utils'!T$25)</f>
+        <v>193127148.98951539</v>
       </c>
       <c r="AH4">
-        <f>AG4*(1+'[1]BM Power Utils'!S$25)</f>
-        <v>189581602.05887806</v>
+        <f>AG4*(1+'[1]BM Power Utils'!U$25)</f>
+        <v>196739004.58566049</v>
       </c>
       <c r="AI4">
-        <f>AH4*(1+'[1]BM Power Utils'!T$25)</f>
-        <v>193127148.98951539</v>
+        <f>AH4*(1+'[1]BM Power Utils'!V$25)</f>
+        <v>200418408.94911078</v>
       </c>
       <c r="AJ4">
-        <f>AI4*(1+'[1]BM Power Utils'!U$25)</f>
-        <v>196739004.58566049</v>
+        <f>AI4*(1+'[1]BM Power Utils'!W$25)</f>
+        <v>204166625.37399387</v>
       </c>
       <c r="AK4">
-        <f>AJ4*(1+'[1]BM Power Utils'!V$25)</f>
-        <v>200418408.94911078</v>
+        <f>AJ4*(1+'[1]BM Power Utils'!X$25)</f>
+        <v>206625925.48677221</v>
       </c>
       <c r="AL4">
-        <f>AK4*(1+'[1]BM Power Utils'!W$25)</f>
-        <v>204166625.37399387</v>
+        <f>AK4*(1+'[1]BM Power Utils'!Y$25)</f>
+        <v>209114849.23188335</v>
       </c>
       <c r="AM4">
-        <f>AL4*(1+'[1]BM Power Utils'!X$25)</f>
-        <v>206625925.48677221</v>
+        <f>AL4*(1+'[1]BM Power Utils'!Z$25)</f>
+        <v>211633753.4423905</v>
       </c>
       <c r="AN4">
-        <f>AM4*(1+'[1]BM Power Utils'!Y$25)</f>
-        <v>209114849.23188335</v>
+        <f>AM4*(1+'[1]BM Power Utils'!AA$25)</f>
+        <v>214182999.24960884</v>
       </c>
       <c r="AO4">
-        <f>AN4*(1+'[1]BM Power Utils'!Z$25)</f>
-        <v>211633753.4423905</v>
+        <f>AN4*(1+'[1]BM Power Utils'!AB$25)</f>
+        <v>216762952.13488024</v>
       </c>
       <c r="AP4">
-        <f>AO4*(1+'[1]BM Power Utils'!AA$25)</f>
-        <v>214182999.24960884</v>
+        <f>AO4*(1+'[1]BM Power Utils'!AC$25)</f>
+        <v>218141586.7964727</v>
       </c>
       <c r="AQ4">
-        <f>AP4*(1+'[1]BM Power Utils'!AB$25)</f>
-        <v>216762952.13488024</v>
+        <f>AP4*(1+'[1]BM Power Utils'!AD$25)</f>
+        <v>219528989.7162542</v>
       </c>
       <c r="AR4">
-        <f>AQ4*(1+'[1]BM Power Utils'!AC$25)</f>
-        <v>218141586.7964727</v>
+        <f>AQ4*(1+'[1]BM Power Utils'!AE$25)</f>
+        <v>220925216.66124836</v>
       </c>
       <c r="AS4">
-        <f>AR4*(1+'[1]BM Power Utils'!AD$25)</f>
-        <v>219528989.7162542</v>
+        <f>AR4*(1+'[1]BM Power Utils'!AF$25)</f>
+        <v>222330323.75316274</v>
       </c>
       <c r="AT4">
-        <f>AS4*(1+'[1]BM Power Utils'!AE$25)</f>
-        <v>220925216.66124836</v>
-      </c>
-      <c r="AU4">
-        <f>AT4*(1+'[1]BM Power Utils'!AF$25)</f>
-        <v>222330323.75316274</v>
-      </c>
-      <c r="AV4">
-        <f>AU4*(1+'[1]BM Power Utils'!AG$25)</f>
+        <f>AS4*(1+'[1]BM Power Utils'!AG$25)</f>
         <v>223744367.47064474</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:46">
       <c r="A5" t="s">
         <v>170</v>
       </c>
-      <c r="B5" t="str">
-        <f>A3</f>
-        <v>Company AH</v>
-      </c>
-      <c r="C5" t="str">
-        <f>D3</f>
-        <v>US00724F1012</v>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" t="s">
         <v>193</v>
       </c>
+      <c r="E5">
+        <v>2226600009.40172</v>
+      </c>
+      <c r="F5">
+        <v>2269440009.40172</v>
+      </c>
       <c r="G5">
-        <v>2226600009.40172</v>
+        <v>2261520009.40172</v>
       </c>
       <c r="H5">
-        <v>2269440009.40172</v>
+        <v>2313360009.40172</v>
       </c>
       <c r="I5">
-        <v>2261520009.40172</v>
+        <v>2354040009.40172</v>
       </c>
       <c r="J5">
-        <v>2313360009.40172</v>
+        <v>2244600009.40172</v>
       </c>
       <c r="K5">
-        <v>2354040009.40172</v>
+        <v>2229480009.40172</v>
       </c>
       <c r="L5">
-        <v>2244600009.40172</v>
+        <v>101160009.40172499</v>
       </c>
       <c r="M5">
-        <v>2229480009.40172</v>
+        <v>105840009.40172499</v>
       </c>
       <c r="N5">
-        <v>101160009.40172499</v>
+        <v>106560009.40172499</v>
       </c>
       <c r="O5">
-        <v>105840009.40172499</v>
+        <v>100080009.40172499</v>
       </c>
       <c r="P5">
-        <v>106560009.40172499</v>
+        <f>O5*(1+'[1]BM Power Utils'!C$25)</f>
+        <v>92429383.293770283</v>
       </c>
       <c r="Q5">
-        <v>100080009.40172499</v>
+        <f>P5*(1+'[1]BM Power Utils'!D$25)</f>
+        <v>94814184.093668014</v>
       </c>
       <c r="R5">
-        <f>Q5*(1+'[1]BM Power Utils'!C$25)</f>
-        <v>92429383.293770283</v>
+        <f>Q5*(1+'[1]BM Power Utils'!E$25)</f>
+        <v>97260515.920307711</v>
       </c>
       <c r="S5">
-        <f>R5*(1+'[1]BM Power Utils'!D$25)</f>
-        <v>94814184.093668014</v>
+        <f>R5*(1+'[1]BM Power Utils'!F$25)</f>
+        <v>99769966.355869025</v>
       </c>
       <c r="T5">
-        <f>S5*(1+'[1]BM Power Utils'!E$25)</f>
-        <v>97260515.920307711</v>
+        <f>S5*(1+'[1]BM Power Utils'!G$25)</f>
+        <v>102344163.94425954</v>
       </c>
       <c r="U5">
-        <f>T5*(1+'[1]BM Power Utils'!F$25)</f>
-        <v>99769966.355869025</v>
+        <f>T5*(1+'[1]BM Power Utils'!H$25)</f>
+        <v>104984779.24798173</v>
       </c>
       <c r="V5">
-        <f>U5*(1+'[1]BM Power Utils'!G$25)</f>
-        <v>102344163.94425954</v>
+        <f>U5*(1+'[1]BM Power Utils'!I$25)</f>
+        <v>109186403.84375799</v>
       </c>
       <c r="W5">
-        <f>V5*(1+'[1]BM Power Utils'!H$25)</f>
-        <v>104984779.24798173</v>
+        <f>V5*(1+'[1]BM Power Utils'!J$25)</f>
+        <v>113556182.80791305</v>
       </c>
       <c r="X5">
-        <f>W5*(1+'[1]BM Power Utils'!I$25)</f>
-        <v>109186403.84375799</v>
+        <f>W5*(1+'[1]BM Power Utils'!K$25)</f>
+        <v>118100845.89246553</v>
       </c>
       <c r="Y5">
-        <f>X5*(1+'[1]BM Power Utils'!J$25)</f>
-        <v>113556182.80791305</v>
+        <f>X5*(1+'[1]BM Power Utils'!L$25)</f>
+        <v>122827392.18268222</v>
       </c>
       <c r="Z5">
-        <f>Y5*(1+'[1]BM Power Utils'!K$25)</f>
-        <v>118100845.89246553</v>
+        <f>Y5*(1+'[1]BM Power Utils'!M$25)</f>
+        <v>127743100.87613776</v>
       </c>
       <c r="AA5">
-        <f>Z5*(1+'[1]BM Power Utils'!L$25)</f>
-        <v>122827392.18268222</v>
+        <f>Z5*(1+'[1]BM Power Utils'!N$25)</f>
+        <v>132461711.7889331</v>
       </c>
       <c r="AB5">
-        <f>AA5*(1+'[1]BM Power Utils'!M$25)</f>
-        <v>127743100.87613776</v>
+        <f>AA5*(1+'[1]BM Power Utils'!O$25)</f>
+        <v>137354620.09073529</v>
       </c>
       <c r="AC5">
-        <f>AB5*(1+'[1]BM Power Utils'!N$25)</f>
-        <v>132461711.7889331</v>
+        <f>AB5*(1+'[1]BM Power Utils'!P$25)</f>
+        <v>142428264.02796391</v>
       </c>
       <c r="AD5">
-        <f>AC5*(1+'[1]BM Power Utils'!O$25)</f>
-        <v>137354620.09073529</v>
+        <f>AC5*(1+'[1]BM Power Utils'!Q$25)</f>
+        <v>147689319.66481191</v>
       </c>
       <c r="AE5">
-        <f>AD5*(1+'[1]BM Power Utils'!P$25)</f>
-        <v>142428264.02796391</v>
+        <f>AD5*(1+'[1]BM Power Utils'!R$25)</f>
+        <v>153144709.667826</v>
       </c>
       <c r="AF5">
-        <f>AE5*(1+'[1]BM Power Utils'!Q$25)</f>
-        <v>147689319.66481191</v>
+        <f>AE5*(1+'[1]BM Power Utils'!S$25)</f>
+        <v>156008815.41125923</v>
       </c>
       <c r="AG5">
-        <f>AF5*(1+'[1]BM Power Utils'!R$25)</f>
-        <v>153144709.667826</v>
+        <f>AF5*(1+'[1]BM Power Utils'!T$25)</f>
+        <v>158926485.53655952</v>
       </c>
       <c r="AH5">
-        <f>AG5*(1+'[1]BM Power Utils'!S$25)</f>
-        <v>156008815.41125923</v>
+        <f>AG5*(1+'[1]BM Power Utils'!U$25)</f>
+        <v>161898721.80248225</v>
       </c>
       <c r="AI5">
-        <f>AH5*(1+'[1]BM Power Utils'!T$25)</f>
-        <v>158926485.53655952</v>
+        <f>AH5*(1+'[1]BM Power Utils'!V$25)</f>
+        <v>164926544.70263174</v>
       </c>
       <c r="AJ5">
-        <f>AI5*(1+'[1]BM Power Utils'!U$25)</f>
-        <v>161898721.80248225</v>
+        <f>AI5*(1+'[1]BM Power Utils'!W$25)</f>
+        <v>168010993.81583962</v>
       </c>
       <c r="AK5">
-        <f>AJ5*(1+'[1]BM Power Utils'!V$25)</f>
-        <v>164926544.70263174</v>
+        <f>AJ5*(1+'[1]BM Power Utils'!X$25)</f>
+        <v>170034779.31595457</v>
       </c>
       <c r="AL5">
-        <f>AK5*(1+'[1]BM Power Utils'!W$25)</f>
-        <v>168010993.81583962</v>
+        <f>AK5*(1+'[1]BM Power Utils'!Y$25)</f>
+        <v>172082942.43361381</v>
       </c>
       <c r="AM5">
-        <f>AL5*(1+'[1]BM Power Utils'!X$25)</f>
-        <v>170034779.31595457</v>
+        <f>AL5*(1+'[1]BM Power Utils'!Z$25)</f>
+        <v>174155776.81072605</v>
       </c>
       <c r="AN5">
-        <f>AM5*(1+'[1]BM Power Utils'!Y$25)</f>
-        <v>172082942.43361381</v>
+        <f>AM5*(1+'[1]BM Power Utils'!AA$25)</f>
+        <v>176253579.6262795</v>
       </c>
       <c r="AO5">
-        <f>AN5*(1+'[1]BM Power Utils'!Z$25)</f>
-        <v>174155776.81072605</v>
+        <f>AN5*(1+'[1]BM Power Utils'!AB$25)</f>
+        <v>178376651.63894796</v>
       </c>
       <c r="AP5">
-        <f>AO5*(1+'[1]BM Power Utils'!AA$25)</f>
-        <v>176253579.6262795</v>
+        <f>AO5*(1+'[1]BM Power Utils'!AC$25)</f>
+        <v>179511145.48278174</v>
       </c>
       <c r="AQ5">
-        <f>AP5*(1+'[1]BM Power Utils'!AB$25)</f>
-        <v>178376651.63894796</v>
+        <f>AP5*(1+'[1]BM Power Utils'!AD$25)</f>
+        <v>180652854.82410282</v>
       </c>
       <c r="AR5">
-        <f>AQ5*(1+'[1]BM Power Utils'!AC$25)</f>
-        <v>179511145.48278174</v>
+        <f>AQ5*(1+'[1]BM Power Utils'!AE$25)</f>
+        <v>181801825.55421707</v>
       </c>
       <c r="AS5">
-        <f>AR5*(1+'[1]BM Power Utils'!AD$25)</f>
-        <v>180652854.82410282</v>
+        <f>AR5*(1+'[1]BM Power Utils'!AF$25)</f>
+        <v>182958103.85630381</v>
       </c>
       <c r="AT5">
-        <f>AS5*(1+'[1]BM Power Utils'!AE$25)</f>
-        <v>181801825.55421707</v>
-      </c>
-      <c r="AU5">
-        <f>AT5*(1+'[1]BM Power Utils'!AF$25)</f>
-        <v>182958103.85630381</v>
-      </c>
-      <c r="AV5">
-        <f>AU5*(1+'[1]BM Power Utils'!AG$25)</f>
+        <f>AS5*(1+'[1]BM Power Utils'!AG$25)</f>
         <v>184121736.20727208</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:46">
       <c r="A6" t="s">
         <v>171</v>
       </c>
-      <c r="B6" t="str">
-        <f>A4</f>
-        <v>Company AI</v>
-      </c>
-      <c r="C6" t="str">
-        <f>D4</f>
-        <v>FR0000125338</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G6" t="s">
-        <v>194</v>
+        <v>194</v>
+      </c>
+      <c r="F6">
+        <v>1044720006.47247</v>
+      </c>
+      <c r="G6">
+        <v>1058040006.47247</v>
       </c>
       <c r="H6">
-        <v>1044720006.47247</v>
+        <v>1064880006.47247</v>
       </c>
       <c r="I6">
-        <v>1058040006.47247</v>
+        <v>1030125606.47247</v>
       </c>
       <c r="J6">
-        <v>1064880006.47247</v>
+        <v>1019163606.47247</v>
       </c>
       <c r="K6">
-        <v>1030125606.47247</v>
+        <v>1022443206.47247</v>
       </c>
       <c r="L6">
-        <v>1019163606.47247</v>
+        <v>942523206.472471</v>
       </c>
       <c r="M6">
-        <v>1022443206.47247</v>
+        <v>899553606.472471</v>
       </c>
       <c r="N6">
-        <v>942523206.472471</v>
+        <v>901220406.472471</v>
       </c>
       <c r="O6">
-        <v>899553606.472471</v>
+        <v>824864406.472471</v>
       </c>
       <c r="P6">
-        <v>901220406.472471</v>
+        <v>745588806.472471</v>
       </c>
       <c r="Q6">
-        <v>824864406.472471</v>
+        <f>P6*(1+'[1]BM Power Utils'!D$25)</f>
+        <v>764825987.53662491</v>
       </c>
       <c r="R6">
-        <v>745588806.472471</v>
+        <f>Q6*(1+'[1]BM Power Utils'!E$25)</f>
+        <v>784559513.41186297</v>
       </c>
       <c r="S6">
-        <f>R6*(1+'[1]BM Power Utils'!D$25)</f>
-        <v>764825987.53662491</v>
+        <f>R6*(1+'[1]BM Power Utils'!F$25)</f>
+        <v>804802190.45326746</v>
       </c>
       <c r="T6">
-        <f>S6*(1+'[1]BM Power Utils'!E$25)</f>
-        <v>784559513.41186297</v>
+        <f>S6*(1+'[1]BM Power Utils'!G$25)</f>
+        <v>825567155.43688381</v>
       </c>
       <c r="U6">
-        <f>T6*(1+'[1]BM Power Utils'!F$25)</f>
-        <v>804802190.45326746</v>
+        <f>T6*(1+'[1]BM Power Utils'!H$25)</f>
+        <v>846867884.08501995</v>
       </c>
       <c r="V6">
-        <f>U6*(1+'[1]BM Power Utils'!G$25)</f>
-        <v>825567155.43688381</v>
+        <f>U6*(1+'[1]BM Power Utils'!I$25)</f>
+        <v>880760615.55173898</v>
       </c>
       <c r="W6">
-        <f>V6*(1+'[1]BM Power Utils'!H$25)</f>
-        <v>846867884.08501995</v>
+        <f>V6*(1+'[1]BM Power Utils'!J$25)</f>
+        <v>916009777.30453062</v>
       </c>
       <c r="X6">
-        <f>W6*(1+'[1]BM Power Utils'!I$25)</f>
-        <v>880760615.55173898</v>
+        <f>W6*(1+'[1]BM Power Utils'!K$25)</f>
+        <v>952669655.41127288</v>
       </c>
       <c r="Y6">
-        <f>X6*(1+'[1]BM Power Utils'!J$25)</f>
-        <v>916009777.30453062</v>
+        <f>X6*(1+'[1]BM Power Utils'!L$25)</f>
+        <v>990796708.53743029</v>
       </c>
       <c r="Z6">
-        <f>Y6*(1+'[1]BM Power Utils'!K$25)</f>
-        <v>952669655.41127288</v>
+        <f>Y6*(1+'[1]BM Power Utils'!M$25)</f>
+        <v>1030449654.8961766</v>
       </c>
       <c r="AA6">
-        <f>Z6*(1+'[1]BM Power Utils'!L$25)</f>
-        <v>990796708.53743029</v>
+        <f>Z6*(1+'[1]BM Power Utils'!N$25)</f>
+        <v>1068512696.6834106</v>
       </c>
       <c r="AB6">
-        <f>AA6*(1+'[1]BM Power Utils'!M$25)</f>
-        <v>1030449654.8961766</v>
+        <f>AA6*(1+'[1]BM Power Utils'!O$25)</f>
+        <v>1107981721.9102168</v>
       </c>
       <c r="AC6">
-        <f>AB6*(1+'[1]BM Power Utils'!N$25)</f>
-        <v>1068512696.6834106</v>
+        <f>AB6*(1+'[1]BM Power Utils'!P$25)</f>
+        <v>1148908665.1918945</v>
       </c>
       <c r="AD6">
-        <f>AC6*(1+'[1]BM Power Utils'!O$25)</f>
-        <v>1107981721.9102168</v>
+        <f>AC6*(1+'[1]BM Power Utils'!Q$25)</f>
+        <v>1191347379.5193019</v>
       </c>
       <c r="AE6">
-        <f>AD6*(1+'[1]BM Power Utils'!P$25)</f>
-        <v>1148908665.1918945</v>
+        <f>AD6*(1+'[1]BM Power Utils'!R$25)</f>
+        <v>1235353707.1203566</v>
       </c>
       <c r="AF6">
-        <f>AE6*(1+'[1]BM Power Utils'!Q$25)</f>
-        <v>1191347379.5193019</v>
+        <f>AE6*(1+'[1]BM Power Utils'!S$25)</f>
+        <v>1258457238.7761958</v>
       </c>
       <c r="AG6">
-        <f>AF6*(1+'[1]BM Power Utils'!R$25)</f>
-        <v>1235353707.1203566</v>
+        <f>AF6*(1+'[1]BM Power Utils'!T$25)</f>
+        <v>1281992851.6828508</v>
       </c>
       <c r="AH6">
-        <f>AG6*(1+'[1]BM Power Utils'!S$25)</f>
-        <v>1258457238.7761958</v>
+        <f>AG6*(1+'[1]BM Power Utils'!U$25)</f>
+        <v>1305968626.6052058</v>
       </c>
       <c r="AI6">
-        <f>AH6*(1+'[1]BM Power Utils'!T$25)</f>
-        <v>1281992851.6828508</v>
+        <f>AH6*(1+'[1]BM Power Utils'!V$25)</f>
+        <v>1330392795.4342606</v>
       </c>
       <c r="AJ6">
-        <f>AI6*(1+'[1]BM Power Utils'!U$25)</f>
-        <v>1305968626.6052058</v>
+        <f>AI6*(1+'[1]BM Power Utils'!W$25)</f>
+        <v>1355273744.0134852</v>
       </c>
       <c r="AK6">
-        <f>AJ6*(1+'[1]BM Power Utils'!V$25)</f>
-        <v>1330392795.4342606</v>
+        <f>AJ6*(1+'[1]BM Power Utils'!X$25)</f>
+        <v>1371598767.0939834</v>
       </c>
       <c r="AL6">
-        <f>AK6*(1+'[1]BM Power Utils'!W$25)</f>
-        <v>1355273744.0134852</v>
+        <f>AK6*(1+'[1]BM Power Utils'!Y$25)</f>
+        <v>1388120434.121696</v>
       </c>
       <c r="AM6">
-        <f>AL6*(1+'[1]BM Power Utils'!X$25)</f>
-        <v>1371598767.0939834</v>
+        <f>AL6*(1+'[1]BM Power Utils'!Z$25)</f>
+        <v>1404841113.7819095</v>
       </c>
       <c r="AN6">
-        <f>AM6*(1+'[1]BM Power Utils'!Y$25)</f>
-        <v>1388120434.121696</v>
+        <f>AM6*(1+'[1]BM Power Utils'!AA$25)</f>
+        <v>1421763203.2920372</v>
       </c>
       <c r="AO6">
-        <f>AN6*(1+'[1]BM Power Utils'!Z$25)</f>
-        <v>1404841113.7819095</v>
+        <f>AN6*(1+'[1]BM Power Utils'!AB$25)</f>
+        <v>1438889128.7453046</v>
       </c>
       <c r="AP6">
-        <f>AO6*(1+'[1]BM Power Utils'!AA$25)</f>
-        <v>1421763203.2920372</v>
+        <f>AO6*(1+'[1]BM Power Utils'!AC$25)</f>
+        <v>1448040611.5404017</v>
       </c>
       <c r="AQ6">
-        <f>AP6*(1+'[1]BM Power Utils'!AB$25)</f>
-        <v>1438889128.7453046</v>
+        <f>AP6*(1+'[1]BM Power Utils'!AD$25)</f>
+        <v>1457250298.7069657</v>
       </c>
       <c r="AR6">
-        <f>AQ6*(1+'[1]BM Power Utils'!AC$25)</f>
-        <v>1448040611.5404017</v>
+        <f>AQ6*(1+'[1]BM Power Utils'!AE$25)</f>
+        <v>1466518560.430783</v>
       </c>
       <c r="AS6">
-        <f>AR6*(1+'[1]BM Power Utils'!AD$25)</f>
-        <v>1457250298.7069657</v>
+        <f>AR6*(1+'[1]BM Power Utils'!AF$25)</f>
+        <v>1475845769.2520602</v>
       </c>
       <c r="AT6">
-        <f>AS6*(1+'[1]BM Power Utils'!AE$25)</f>
-        <v>1466518560.430783</v>
-      </c>
-      <c r="AU6">
-        <f>AT6*(1+'[1]BM Power Utils'!AF$25)</f>
-        <v>1475845769.2520602</v>
-      </c>
-      <c r="AV6">
-        <f>AU6*(1+'[1]BM Power Utils'!AG$25)</f>
+        <f>AS6*(1+'[1]BM Power Utils'!AG$25)</f>
         <v>1485232300.0803974</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:46">
       <c r="A7" t="s">
         <v>172</v>
       </c>
-      <c r="B7" t="str">
-        <f>A4</f>
-        <v>Company AI</v>
-      </c>
-      <c r="C7" t="str">
-        <f>D4</f>
-        <v>FR0000125338</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" t="s">
-        <v>194</v>
+        <v>194</v>
+      </c>
+      <c r="F7">
+        <v>1206000000.3763299</v>
+      </c>
+      <c r="G7">
+        <v>1674000000.3763299</v>
       </c>
       <c r="H7">
-        <v>1206000000.3763299</v>
+        <v>1677600000.3763299</v>
       </c>
       <c r="I7">
-        <v>1674000000.3763299</v>
+        <v>1724400000.3763299</v>
       </c>
       <c r="J7">
-        <v>1677600000.3763299</v>
+        <v>1692000000.3763299</v>
       </c>
       <c r="K7">
-        <v>1724400000.3763299</v>
+        <v>1767600000.3763299</v>
       </c>
       <c r="L7">
-        <v>1692000000.3763299</v>
+        <v>989973000.37633395</v>
       </c>
       <c r="M7">
-        <v>1767600000.3763299</v>
+        <v>212346000.37633401</v>
       </c>
       <c r="N7">
-        <v>989973000.37633395</v>
+        <v>205448400.37633401</v>
       </c>
       <c r="O7">
-        <v>212346000.37633401</v>
+        <v>221601600.37633401</v>
       </c>
       <c r="P7">
-        <v>205448400.37633401</v>
+        <v>199591200.37633401</v>
       </c>
       <c r="Q7">
-        <v>221601600.37633401</v>
+        <f>P7*(1+'[1]BM Power Utils'!D$25)</f>
+        <v>204740918.32692549</v>
       </c>
       <c r="R7">
-        <v>199591200.37633401</v>
+        <f>Q7*(1+'[1]BM Power Utils'!E$25)</f>
+        <v>210023505.83750078</v>
       </c>
       <c r="S7">
-        <f>R7*(1+'[1]BM Power Utils'!D$25)</f>
-        <v>204740918.32692549</v>
+        <f>R7*(1+'[1]BM Power Utils'!F$25)</f>
+        <v>215442391.11910748</v>
       </c>
       <c r="T7">
-        <f>S7*(1+'[1]BM Power Utils'!E$25)</f>
-        <v>210023505.83750078</v>
+        <f>S7*(1+'[1]BM Power Utils'!G$25)</f>
+        <v>221001090.83518961</v>
       </c>
       <c r="U7">
-        <f>T7*(1+'[1]BM Power Utils'!F$25)</f>
-        <v>215442391.11910748</v>
+        <f>T7*(1+'[1]BM Power Utils'!H$25)</f>
+        <v>226703212.38377678</v>
       </c>
       <c r="V7">
-        <f>U7*(1+'[1]BM Power Utils'!G$25)</f>
-        <v>221001090.83518961</v>
+        <f>U7*(1+'[1]BM Power Utils'!I$25)</f>
+        <v>235776163.71935317</v>
       </c>
       <c r="W7">
-        <f>V7*(1+'[1]BM Power Utils'!H$25)</f>
-        <v>226703212.38377678</v>
+        <f>V7*(1+'[1]BM Power Utils'!J$25)</f>
+        <v>245212226.12456179</v>
       </c>
       <c r="X7">
-        <f>W7*(1+'[1]BM Power Utils'!I$25)</f>
-        <v>235776163.71935317</v>
+        <f>W7*(1+'[1]BM Power Utils'!K$25)</f>
+        <v>255025931.7669425</v>
       </c>
       <c r="Y7">
-        <f>X7*(1+'[1]BM Power Utils'!J$25)</f>
-        <v>245212226.12456179</v>
+        <f>X7*(1+'[1]BM Power Utils'!L$25)</f>
+        <v>265232394.40989125</v>
       </c>
       <c r="Z7">
-        <f>Y7*(1+'[1]BM Power Utils'!K$25)</f>
-        <v>255025931.7669425</v>
+        <f>Y7*(1+'[1]BM Power Utils'!M$25)</f>
+        <v>275847332.68886709</v>
       </c>
       <c r="AA7">
-        <f>Z7*(1+'[1]BM Power Utils'!L$25)</f>
-        <v>265232394.40989125</v>
+        <f>Z7*(1+'[1]BM Power Utils'!N$25)</f>
+        <v>286036659.74734557</v>
       </c>
       <c r="AB7">
-        <f>AA7*(1+'[1]BM Power Utils'!M$25)</f>
-        <v>275847332.68886709</v>
+        <f>AA7*(1+'[1]BM Power Utils'!O$25)</f>
+        <v>296602363.06037259</v>
       </c>
       <c r="AC7">
-        <f>AB7*(1+'[1]BM Power Utils'!N$25)</f>
-        <v>286036659.74734557</v>
+        <f>AB7*(1+'[1]BM Power Utils'!P$25)</f>
+        <v>307558345.32085168</v>
       </c>
       <c r="AD7">
-        <f>AC7*(1+'[1]BM Power Utils'!O$25)</f>
-        <v>296602363.06037259</v>
+        <f>AC7*(1+'[1]BM Power Utils'!Q$25)</f>
+        <v>318919022.76330245</v>
       </c>
       <c r="AE7">
-        <f>AD7*(1+'[1]BM Power Utils'!P$25)</f>
-        <v>307558345.32085168</v>
+        <f>AD7*(1+'[1]BM Power Utils'!R$25)</f>
+        <v>330699344.13320625</v>
       </c>
       <c r="AF7">
-        <f>AE7*(1+'[1]BM Power Utils'!Q$25)</f>
-        <v>318919022.76330245</v>
+        <f>AE7*(1+'[1]BM Power Utils'!S$25)</f>
+        <v>336884068.97898066</v>
       </c>
       <c r="AG7">
-        <f>AF7*(1+'[1]BM Power Utils'!R$25)</f>
-        <v>330699344.13320625</v>
+        <f>AF7*(1+'[1]BM Power Utils'!T$25)</f>
+        <v>343184460.2816034</v>
       </c>
       <c r="AH7">
-        <f>AG7*(1+'[1]BM Power Utils'!S$25)</f>
-        <v>336884068.97898066</v>
+        <f>AG7*(1+'[1]BM Power Utils'!U$25)</f>
+        <v>349602681.2301529</v>
       </c>
       <c r="AI7">
-        <f>AH7*(1+'[1]BM Power Utils'!T$25)</f>
-        <v>343184460.2816034</v>
+        <f>AH7*(1+'[1]BM Power Utils'!V$25)</f>
+        <v>356140935.46957636</v>
       </c>
       <c r="AJ7">
-        <f>AI7*(1+'[1]BM Power Utils'!U$25)</f>
-        <v>349602681.2301529</v>
+        <f>AI7*(1+'[1]BM Power Utils'!W$25)</f>
+        <v>362801467.85729349</v>
       </c>
       <c r="AK7">
-        <f>AJ7*(1+'[1]BM Power Utils'!V$25)</f>
-        <v>356140935.46957636</v>
+        <f>AJ7*(1+'[1]BM Power Utils'!X$25)</f>
+        <v>367171612.5329141</v>
       </c>
       <c r="AL7">
-        <f>AK7*(1+'[1]BM Power Utils'!W$25)</f>
-        <v>362801467.85729349</v>
+        <f>AK7*(1+'[1]BM Power Utils'!Y$25)</f>
+        <v>371594398.02225202</v>
       </c>
       <c r="AM7">
-        <f>AL7*(1+'[1]BM Power Utils'!X$25)</f>
-        <v>367171612.5329141</v>
+        <f>AL7*(1+'[1]BM Power Utils'!Z$25)</f>
+        <v>376070458.41307199</v>
       </c>
       <c r="AN7">
-        <f>AM7*(1+'[1]BM Power Utils'!Y$25)</f>
-        <v>371594398.02225202</v>
+        <f>AM7*(1+'[1]BM Power Utils'!AA$25)</f>
+        <v>380600435.43107718</v>
       </c>
       <c r="AO7">
-        <f>AN7*(1+'[1]BM Power Utils'!Z$25)</f>
-        <v>376070458.41307199</v>
+        <f>AN7*(1+'[1]BM Power Utils'!AB$25)</f>
+        <v>385184978.53191227</v>
       </c>
       <c r="AP7">
-        <f>AO7*(1+'[1]BM Power Utils'!AA$25)</f>
-        <v>380600435.43107718</v>
+        <f>AO7*(1+'[1]BM Power Utils'!AC$25)</f>
+        <v>387634794.59733659</v>
       </c>
       <c r="AQ7">
-        <f>AP7*(1+'[1]BM Power Utils'!AB$25)</f>
-        <v>385184978.53191227</v>
+        <f>AP7*(1+'[1]BM Power Utils'!AD$25)</f>
+        <v>390100191.74480957</v>
       </c>
       <c r="AR7">
-        <f>AQ7*(1+'[1]BM Power Utils'!AC$25)</f>
-        <v>387634794.59733659</v>
+        <f>AQ7*(1+'[1]BM Power Utils'!AE$25)</f>
+        <v>392581269.07161498</v>
       </c>
       <c r="AS7">
-        <f>AR7*(1+'[1]BM Power Utils'!AD$25)</f>
-        <v>390100191.74480957</v>
+        <f>AR7*(1+'[1]BM Power Utils'!AF$25)</f>
+        <v>395078126.30530548</v>
       </c>
       <c r="AT7">
-        <f>AS7*(1+'[1]BM Power Utils'!AE$25)</f>
-        <v>392581269.07161498</v>
-      </c>
-      <c r="AU7">
-        <f>AT7*(1+'[1]BM Power Utils'!AF$25)</f>
-        <v>395078126.30530548</v>
-      </c>
-      <c r="AV7">
-        <f>AU7*(1+'[1]BM Power Utils'!AG$25)</f>
+        <f>AS7*(1+'[1]BM Power Utils'!AG$25)</f>
         <v>397590863.80771118</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:46">
       <c r="A8" t="s">
         <v>173</v>
       </c>
-      <c r="B8" t="str">
-        <f>A5</f>
-        <v>Company AJ</v>
-      </c>
-      <c r="C8" t="str">
-        <f>D5</f>
-        <v>US17275R1023</v>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" t="s">
-        <v>194</v>
+        <v>194</v>
+      </c>
+      <c r="F8">
+        <v>552913202.58593798</v>
+      </c>
+      <c r="G8">
+        <v>522525602.58593798</v>
       </c>
       <c r="H8">
-        <v>552913202.58593798</v>
+        <v>485128802.58593798</v>
       </c>
       <c r="I8">
-        <v>522525602.58593798</v>
+        <v>491166002.58593798</v>
       </c>
       <c r="J8">
-        <v>485128802.58593798</v>
+        <v>500011202.58593798</v>
       </c>
       <c r="K8">
-        <v>491166002.58593798</v>
+        <v>483746402.58593798</v>
       </c>
       <c r="L8">
-        <v>500011202.58593798</v>
+        <v>512877602.58593798</v>
       </c>
       <c r="M8">
-        <v>483746402.58593798</v>
+        <v>495176402.58593798</v>
       </c>
       <c r="N8">
-        <v>512877602.58593798</v>
+        <v>414482402.58593798</v>
       </c>
       <c r="O8">
-        <v>495176402.58593798</v>
+        <v>411300002.58593798</v>
       </c>
       <c r="P8">
-        <v>414482402.58593798</v>
+        <v>444466802.58593798</v>
       </c>
       <c r="Q8">
-        <v>411300002.58593798</v>
+        <f>P8*(1+'[1]BM Power Utils'!D$25)</f>
+        <v>455934636.17480898</v>
       </c>
       <c r="R8">
-        <v>444466802.58593798</v>
+        <f>Q8*(1+'[1]BM Power Utils'!E$25)</f>
+        <v>467698355.0951758</v>
       </c>
       <c r="S8">
-        <f>R8*(1+'[1]BM Power Utils'!D$25)</f>
-        <v>455934636.17480898</v>
+        <f>R8*(1+'[1]BM Power Utils'!F$25)</f>
+        <v>479765593.58141375</v>
       </c>
       <c r="T8">
-        <f>S8*(1+'[1]BM Power Utils'!E$25)</f>
-        <v>467698355.0951758</v>
+        <f>S8*(1+'[1]BM Power Utils'!G$25)</f>
+        <v>492144182.8412804</v>
       </c>
       <c r="U8">
-        <f>T8*(1+'[1]BM Power Utils'!F$25)</f>
-        <v>479765593.58141375</v>
+        <f>T8*(1+'[1]BM Power Utils'!H$25)</f>
+        <v>504842156.13809025</v>
       </c>
       <c r="V8">
-        <f>U8*(1+'[1]BM Power Utils'!G$25)</f>
-        <v>492144182.8412804</v>
+        <f>U8*(1+'[1]BM Power Utils'!I$25)</f>
+        <v>525046582.29785001</v>
       </c>
       <c r="W8">
-        <f>V8*(1+'[1]BM Power Utils'!H$25)</f>
-        <v>504842156.13809025</v>
+        <f>V8*(1+'[1]BM Power Utils'!J$25)</f>
+        <v>546059615.3290484</v>
       </c>
       <c r="X8">
-        <f>W8*(1+'[1]BM Power Utils'!I$25)</f>
-        <v>525046582.29785001</v>
+        <f>W8*(1+'[1]BM Power Utils'!K$25)</f>
+        <v>567913616.70868897</v>
       </c>
       <c r="Y8">
-        <f>X8*(1+'[1]BM Power Utils'!J$25)</f>
-        <v>546059615.3290484</v>
+        <f>X8*(1+'[1]BM Power Utils'!L$25)</f>
+        <v>590642243.06130719</v>
       </c>
       <c r="Z8">
-        <f>Y8*(1+'[1]BM Power Utils'!K$25)</f>
-        <v>567913616.70868897</v>
+        <f>Y8*(1+'[1]BM Power Utils'!M$25)</f>
+        <v>614280497.99242437</v>
       </c>
       <c r="AA8">
-        <f>Z8*(1+'[1]BM Power Utils'!L$25)</f>
-        <v>590642243.06130719</v>
+        <f>Z8*(1+'[1]BM Power Utils'!N$25)</f>
+        <v>636970965.35594094</v>
       </c>
       <c r="AB8">
-        <f>AA8*(1+'[1]BM Power Utils'!M$25)</f>
-        <v>614280497.99242437</v>
+        <f>AA8*(1+'[1]BM Power Utils'!O$25)</f>
+        <v>660499579.64233303</v>
       </c>
       <c r="AC8">
-        <f>AB8*(1+'[1]BM Power Utils'!N$25)</f>
-        <v>636970965.35594094</v>
+        <f>AB8*(1+'[1]BM Power Utils'!P$25)</f>
+        <v>684897300.56049836</v>
       </c>
       <c r="AD8">
-        <f>AC8*(1+'[1]BM Power Utils'!O$25)</f>
-        <v>660499579.64233303</v>
+        <f>AC8*(1+'[1]BM Power Utils'!Q$25)</f>
+        <v>710196231.41784787</v>
       </c>
       <c r="AE8">
-        <f>AD8*(1+'[1]BM Power Utils'!P$25)</f>
-        <v>684897300.56049836</v>
+        <f>AD8*(1+'[1]BM Power Utils'!R$25)</f>
+        <v>736429661.3628726</v>
       </c>
       <c r="AF8">
-        <f>AE8*(1+'[1]BM Power Utils'!Q$25)</f>
-        <v>710196231.41784787</v>
+        <f>AE8*(1+'[1]BM Power Utils'!S$25)</f>
+        <v>750202337.07148123</v>
       </c>
       <c r="AG8">
-        <f>AF8*(1+'[1]BM Power Utils'!R$25)</f>
-        <v>736429661.3628726</v>
+        <f>AF8*(1+'[1]BM Power Utils'!T$25)</f>
+        <v>764232588.76612961</v>
       </c>
       <c r="AH8">
-        <f>AG8*(1+'[1]BM Power Utils'!S$25)</f>
-        <v>750202337.07148123</v>
+        <f>AG8*(1+'[1]BM Power Utils'!U$25)</f>
+        <v>778525233.62177992</v>
       </c>
       <c r="AI8">
-        <f>AH8*(1+'[1]BM Power Utils'!T$25)</f>
-        <v>764232588.76612961</v>
+        <f>AH8*(1+'[1]BM Power Utils'!V$25)</f>
+        <v>793085178.90399218</v>
       </c>
       <c r="AJ8">
-        <f>AI8*(1+'[1]BM Power Utils'!U$25)</f>
-        <v>778525233.62177992</v>
+        <f>AI8*(1+'[1]BM Power Utils'!W$25)</f>
+        <v>807917423.653795</v>
       </c>
       <c r="AK8">
-        <f>AJ8*(1+'[1]BM Power Utils'!V$25)</f>
-        <v>793085178.90399218</v>
+        <f>AJ8*(1+'[1]BM Power Utils'!X$25)</f>
+        <v>817649236.61523128</v>
       </c>
       <c r="AL8">
-        <f>AK8*(1+'[1]BM Power Utils'!W$25)</f>
-        <v>807917423.653795</v>
+        <f>AK8*(1+'[1]BM Power Utils'!Y$25)</f>
+        <v>827498274.65530014</v>
       </c>
       <c r="AM8">
-        <f>AL8*(1+'[1]BM Power Utils'!X$25)</f>
-        <v>817649236.61523128</v>
+        <f>AL8*(1+'[1]BM Power Utils'!Z$25)</f>
+        <v>837465949.81501734</v>
       </c>
       <c r="AN8">
-        <f>AM8*(1+'[1]BM Power Utils'!Y$25)</f>
-        <v>827498274.65530014</v>
+        <f>AM8*(1+'[1]BM Power Utils'!AA$25)</f>
+        <v>847553691.14421511</v>
       </c>
       <c r="AO8">
-        <f>AN8*(1+'[1]BM Power Utils'!Z$25)</f>
-        <v>837465949.81501734</v>
+        <f>AN8*(1+'[1]BM Power Utils'!AB$25)</f>
+        <v>857762944.90642262</v>
       </c>
       <c r="AP8">
-        <f>AO8*(1+'[1]BM Power Utils'!AA$25)</f>
-        <v>847553691.14421511</v>
+        <f>AO8*(1+'[1]BM Power Utils'!AC$25)</f>
+        <v>863218405.42507148</v>
       </c>
       <c r="AQ8">
-        <f>AP8*(1+'[1]BM Power Utils'!AB$25)</f>
-        <v>857762944.90642262</v>
+        <f>AP8*(1+'[1]BM Power Utils'!AD$25)</f>
+        <v>868708563.23351026</v>
       </c>
       <c r="AR8">
-        <f>AQ8*(1+'[1]BM Power Utils'!AC$25)</f>
-        <v>863218405.42507148</v>
+        <f>AQ8*(1+'[1]BM Power Utils'!AE$25)</f>
+        <v>874233639.01006949</v>
       </c>
       <c r="AS8">
-        <f>AR8*(1+'[1]BM Power Utils'!AD$25)</f>
-        <v>868708563.23351026</v>
+        <f>AR8*(1+'[1]BM Power Utils'!AF$25)</f>
+        <v>879793854.8366164</v>
       </c>
       <c r="AT8">
-        <f>AS8*(1+'[1]BM Power Utils'!AE$25)</f>
-        <v>874233639.01006949</v>
-      </c>
-      <c r="AU8">
-        <f>AT8*(1+'[1]BM Power Utils'!AF$25)</f>
-        <v>879793854.8366164</v>
-      </c>
-      <c r="AV8">
-        <f>AU8*(1+'[1]BM Power Utils'!AG$25)</f>
+        <f>AS8*(1+'[1]BM Power Utils'!AG$25)</f>
         <v>885389434.20748162</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:46">
       <c r="A9" t="s">
         <v>174</v>
       </c>
-      <c r="B9" t="str">
-        <f>A5</f>
-        <v>Company AJ</v>
-      </c>
-      <c r="C9" t="str">
-        <f>D5</f>
-        <v>US17275R1023</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" t="s">
         <v>193</v>
       </c>
+      <c r="E9">
+        <v>1464408000.85954</v>
+      </c>
+      <c r="F9">
+        <v>1567382400.85954</v>
+      </c>
       <c r="G9">
-        <v>1464408000.85954</v>
+        <v>1596272400.85954</v>
       </c>
       <c r="H9">
-        <v>1567382400.85954</v>
+        <v>1613368800.85954</v>
       </c>
       <c r="I9">
-        <v>1596272400.85954</v>
+        <v>1617562800.85954</v>
       </c>
       <c r="J9">
-        <v>1613368800.85954</v>
+        <v>1594490400.85954</v>
       </c>
       <c r="K9">
-        <v>1617562800.85954</v>
+        <v>1558512000.85954</v>
       </c>
       <c r="L9">
-        <v>1594490400.85954</v>
+        <v>1570716000.85954</v>
       </c>
       <c r="M9">
-        <v>1558512000.85954</v>
+        <v>1535342400.85954</v>
       </c>
       <c r="N9">
-        <v>1570716000.85954</v>
+        <v>1505977200.85954</v>
       </c>
       <c r="O9">
-        <v>1535342400.85954</v>
+        <v>1472652000.85954</v>
       </c>
       <c r="P9">
-        <v>1505977200.85954</v>
+        <f>O9*(1+'[1]BM Power Utils'!C$24)</f>
+        <v>1360143531.0659223</v>
       </c>
       <c r="Q9">
-        <v>1472652000.85954</v>
+        <f>P9*(1+'[1]BM Power Utils'!D$24)</f>
+        <v>1441695506.0230432</v>
       </c>
       <c r="R9">
-        <f>Q9*(1+'[1]BM Power Utils'!C$24)</f>
-        <v>1360143531.0659223</v>
+        <f>Q9*(1+'[1]BM Power Utils'!E$24)</f>
+        <v>1528137203.6215641</v>
       </c>
       <c r="S9">
-        <f>R9*(1+'[1]BM Power Utils'!D$24)</f>
-        <v>1441695506.0230432</v>
+        <f>R9*(1+'[1]BM Power Utils'!F$24)</f>
+        <v>1619761803.6100123</v>
       </c>
       <c r="T9">
-        <f>S9*(1+'[1]BM Power Utils'!E$24)</f>
-        <v>1528137203.6215641</v>
+        <f>S9*(1+'[1]BM Power Utils'!G$24)</f>
+        <v>1716880064.3137074</v>
       </c>
       <c r="U9">
-        <f>T9*(1+'[1]BM Power Utils'!F$24)</f>
-        <v>1619761803.6100123</v>
+        <f>T9*(1+'[1]BM Power Utils'!H$24)</f>
+        <v>1819821376.6173906</v>
       </c>
       <c r="V9">
-        <f>U9*(1+'[1]BM Power Utils'!G$24)</f>
-        <v>1716880064.3137074</v>
+        <f>U9*(1+'[1]BM Power Utils'!I$24)</f>
+        <v>1908246774.0193563</v>
       </c>
       <c r="W9">
-        <f>V9*(1+'[1]BM Power Utils'!H$24)</f>
-        <v>1819821376.6173906</v>
+        <f>V9*(1+'[1]BM Power Utils'!J$24)</f>
+        <v>2000968774.9265676</v>
       </c>
       <c r="X9">
-        <f>W9*(1+'[1]BM Power Utils'!I$24)</f>
-        <v>1908246774.0193563</v>
+        <f>W9*(1+'[1]BM Power Utils'!K$24)</f>
+        <v>2098196151.9566627</v>
       </c>
       <c r="Y9">
-        <f>X9*(1+'[1]BM Power Utils'!J$24)</f>
-        <v>2000968774.9265676</v>
+        <f>X9*(1+'[1]BM Power Utils'!L$24)</f>
+        <v>2200147822.0205154</v>
       </c>
       <c r="Z9">
-        <f>Y9*(1+'[1]BM Power Utils'!K$24)</f>
-        <v>2098196151.9566627</v>
+        <f>Y9*(1+'[1]BM Power Utils'!M$24)</f>
+        <v>2307053339.2349868</v>
       </c>
       <c r="AA9">
-        <f>Z9*(1+'[1]BM Power Utils'!L$24)</f>
-        <v>2200147822.0205154</v>
+        <f>Z9*(1+'[1]BM Power Utils'!N$24)</f>
+        <v>2413508401.4000015</v>
       </c>
       <c r="AB9">
-        <f>AA9*(1+'[1]BM Power Utils'!M$24)</f>
-        <v>2307053339.2349868</v>
+        <f>AA9*(1+'[1]BM Power Utils'!O$24)</f>
+        <v>2524875651.7957034</v>
       </c>
       <c r="AC9">
-        <f>AB9*(1+'[1]BM Power Utils'!N$24)</f>
-        <v>2413508401.4000015</v>
+        <f>AB9*(1+'[1]BM Power Utils'!P$24)</f>
+        <v>2641381755.0139203</v>
       </c>
       <c r="AD9">
-        <f>AC9*(1+'[1]BM Power Utils'!O$24)</f>
-        <v>2524875651.7957034</v>
+        <f>AC9*(1+'[1]BM Power Utils'!Q$24)</f>
+        <v>2763263834.6995091</v>
       </c>
       <c r="AE9">
-        <f>AD9*(1+'[1]BM Power Utils'!P$24)</f>
-        <v>2641381755.0139203</v>
+        <f>AD9*(1+'[1]BM Power Utils'!R$24)</f>
+        <v>2890769956.1656113</v>
       </c>
       <c r="AF9">
-        <f>AE9*(1+'[1]BM Power Utils'!Q$24)</f>
-        <v>2763263834.6995091</v>
+        <f>AE9*(1+'[1]BM Power Utils'!S$24)</f>
+        <v>3006667731.970757</v>
       </c>
       <c r="AG9">
-        <f>AF9*(1+'[1]BM Power Utils'!R$24)</f>
-        <v>2890769956.1656113</v>
+        <f>AF9*(1+'[1]BM Power Utils'!T$24)</f>
+        <v>3127212122.5672083</v>
       </c>
       <c r="AH9">
-        <f>AG9*(1+'[1]BM Power Utils'!S$24)</f>
-        <v>3006667731.970757</v>
+        <f>AG9*(1+'[1]BM Power Utils'!U$24)</f>
+        <v>3252589421.6855283</v>
       </c>
       <c r="AI9">
-        <f>AH9*(1+'[1]BM Power Utils'!T$24)</f>
-        <v>3127212122.5672083</v>
+        <f>AH9*(1+'[1]BM Power Utils'!V$24)</f>
+        <v>3382993392.0106931</v>
       </c>
       <c r="AJ9">
-        <f>AI9*(1+'[1]BM Power Utils'!U$24)</f>
-        <v>3252589421.6855283</v>
+        <f>AI9*(1+'[1]BM Power Utils'!W$24)</f>
+        <v>3518625564.630064</v>
       </c>
       <c r="AK9">
-        <f>AJ9*(1+'[1]BM Power Utils'!V$24)</f>
-        <v>3382993392.0106931</v>
+        <f>AJ9*(1+'[1]BM Power Utils'!X$24)</f>
+        <v>3609574595.9030199</v>
       </c>
       <c r="AL9">
-        <f>AK9*(1+'[1]BM Power Utils'!W$24)</f>
-        <v>3518625564.630064</v>
+        <f>AK9*(1+'[1]BM Power Utils'!Y$24)</f>
+        <v>3702874467.3371563</v>
       </c>
       <c r="AM9">
-        <f>AL9*(1+'[1]BM Power Utils'!X$24)</f>
-        <v>3609574595.9030199</v>
+        <f>AL9*(1+'[1]BM Power Utils'!Z$24)</f>
+        <v>3798585943.1801634</v>
       </c>
       <c r="AN9">
-        <f>AM9*(1+'[1]BM Power Utils'!Y$24)</f>
-        <v>3702874467.3371563</v>
+        <f>AM9*(1+'[1]BM Power Utils'!AA$24)</f>
+        <v>3896771358.3070569</v>
       </c>
       <c r="AO9">
-        <f>AN9*(1+'[1]BM Power Utils'!Z$24)</f>
-        <v>3798585943.1801634</v>
+        <f>AN9*(1+'[1]BM Power Utils'!AB$24)</f>
+        <v>3997494658.8175755</v>
       </c>
       <c r="AP9">
-        <f>AO9*(1+'[1]BM Power Utils'!AA$24)</f>
-        <v>3896771358.3070569</v>
+        <f>AO9*(1+'[1]BM Power Utils'!AC$24)</f>
+        <v>4045115847.0667028</v>
       </c>
       <c r="AQ9">
-        <f>AP9*(1+'[1]BM Power Utils'!AB$24)</f>
-        <v>3997494658.8175755</v>
+        <f>AP9*(1+'[1]BM Power Utils'!AD$24)</f>
+        <v>4093304335.0282278</v>
       </c>
       <c r="AR9">
-        <f>AQ9*(1+'[1]BM Power Utils'!AC$24)</f>
-        <v>4045115847.0667028</v>
+        <f>AQ9*(1+'[1]BM Power Utils'!AE$24)</f>
+        <v>4142066880.8065896</v>
       </c>
       <c r="AS9">
-        <f>AR9*(1+'[1]BM Power Utils'!AD$24)</f>
-        <v>4093304335.0282278</v>
+        <f>AR9*(1+'[1]BM Power Utils'!AF$24)</f>
+        <v>4191410323.0138922</v>
       </c>
       <c r="AT9">
-        <f>AS9*(1+'[1]BM Power Utils'!AE$24)</f>
-        <v>4142066880.8065896</v>
-      </c>
-      <c r="AU9">
-        <f>AT9*(1+'[1]BM Power Utils'!AF$24)</f>
-        <v>4191410323.0138922</v>
-      </c>
-      <c r="AV9">
-        <f>AU9*(1+'[1]BM Power Utils'!AG$24)</f>
+        <f>AS9*(1+'[1]BM Power Utils'!AG$24)</f>
         <v>4241341581.7289743</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:46">
       <c r="A10" t="s">
         <v>175</v>
       </c>
-      <c r="B10" t="str">
-        <f>A6</f>
-        <v>Company AK</v>
-      </c>
-      <c r="C10" t="str">
-        <f>D6</f>
-        <v>CH0198251305</v>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G10" t="s">
         <v>194</v>
       </c>
-      <c r="H10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10" t="s">
-        <v>194</v>
+      <c r="H10">
+        <v>21142801.5077199</v>
+      </c>
+      <c r="I10">
+        <v>21142801.5077199</v>
       </c>
       <c r="J10">
         <v>21142801.5077199</v>
@@ -20218,1226 +20153,1170 @@
         <v>21142801.5077199</v>
       </c>
       <c r="P10">
-        <v>21142801.5077199</v>
+        <f>O10*(1+'[1]BM Power Utils'!C$25)</f>
+        <v>19526537.978397347</v>
       </c>
       <c r="Q10">
-        <v>21142801.5077199</v>
+        <f>P10*(1+'[1]BM Power Utils'!D$25)</f>
+        <v>20030348.582024451</v>
       </c>
       <c r="R10">
-        <f>Q10*(1+'[1]BM Power Utils'!C$25)</f>
-        <v>19526537.978397347</v>
+        <f>Q10*(1+'[1]BM Power Utils'!E$25)</f>
+        <v>20547158.16809319</v>
       </c>
       <c r="S10">
-        <f>R10*(1+'[1]BM Power Utils'!D$25)</f>
-        <v>20030348.582024451</v>
+        <f>R10*(1+'[1]BM Power Utils'!F$25)</f>
+        <v>21077302.12760824</v>
       </c>
       <c r="T10">
-        <f>S10*(1+'[1]BM Power Utils'!E$25)</f>
-        <v>20547158.16809319</v>
+        <f>S10*(1+'[1]BM Power Utils'!G$25)</f>
+        <v>21621124.505107474</v>
       </c>
       <c r="U10">
-        <f>T10*(1+'[1]BM Power Utils'!F$25)</f>
-        <v>21077302.12760824</v>
+        <f>T10*(1+'[1]BM Power Utils'!H$25)</f>
+        <v>22178978.221934598</v>
       </c>
       <c r="V10">
-        <f>U10*(1+'[1]BM Power Utils'!G$25)</f>
-        <v>21621124.505107474</v>
+        <f>U10*(1+'[1]BM Power Utils'!I$25)</f>
+        <v>23066609.182098359</v>
       </c>
       <c r="W10">
-        <f>V10*(1+'[1]BM Power Utils'!H$25)</f>
-        <v>22178978.221934598</v>
+        <f>V10*(1+'[1]BM Power Utils'!J$25)</f>
+        <v>23989764.263957772</v>
       </c>
       <c r="X10">
-        <f>W10*(1+'[1]BM Power Utils'!I$25)</f>
-        <v>23066609.182098359</v>
+        <f>W10*(1+'[1]BM Power Utils'!K$25)</f>
+        <v>24949865.18811395</v>
       </c>
       <c r="Y10">
-        <f>X10*(1+'[1]BM Power Utils'!J$25)</f>
-        <v>23989764.263957772</v>
+        <f>X10*(1+'[1]BM Power Utils'!L$25)</f>
+        <v>25948390.574237451</v>
       </c>
       <c r="Z10">
-        <f>Y10*(1+'[1]BM Power Utils'!K$25)</f>
-        <v>24949865.18811395</v>
+        <f>Y10*(1+'[1]BM Power Utils'!M$25)</f>
+        <v>26986878.218241531</v>
       </c>
       <c r="AA10">
-        <f>Z10*(1+'[1]BM Power Utils'!L$25)</f>
-        <v>25948390.574237451</v>
+        <f>Z10*(1+'[1]BM Power Utils'!N$25)</f>
+        <v>27983727.184561405</v>
       </c>
       <c r="AB10">
-        <f>AA10*(1+'[1]BM Power Utils'!M$25)</f>
-        <v>26986878.218241531</v>
+        <f>AA10*(1+'[1]BM Power Utils'!O$25)</f>
+        <v>29017398.040898234</v>
       </c>
       <c r="AC10">
-        <f>AB10*(1+'[1]BM Power Utils'!N$25)</f>
-        <v>27983727.184561405</v>
+        <f>AB10*(1+'[1]BM Power Utils'!P$25)</f>
+        <v>30089250.924675263</v>
       </c>
       <c r="AD10">
-        <f>AC10*(1+'[1]BM Power Utils'!O$25)</f>
-        <v>29017398.040898234</v>
+        <f>AC10*(1+'[1]BM Power Utils'!Q$25)</f>
+        <v>31200696.214457888</v>
       </c>
       <c r="AE10">
-        <f>AD10*(1+'[1]BM Power Utils'!P$25)</f>
-        <v>30089250.924675263</v>
+        <f>AD10*(1+'[1]BM Power Utils'!R$25)</f>
+        <v>32353196.385775197</v>
       </c>
       <c r="AF10">
-        <f>AE10*(1+'[1]BM Power Utils'!Q$25)</f>
-        <v>31200696.214457888</v>
+        <f>AE10*(1+'[1]BM Power Utils'!S$25)</f>
+        <v>32958264.466728888</v>
       </c>
       <c r="AG10">
-        <f>AF10*(1+'[1]BM Power Utils'!R$25)</f>
-        <v>32353196.385775197</v>
+        <f>AF10*(1+'[1]BM Power Utils'!T$25)</f>
+        <v>33574648.504789986</v>
       </c>
       <c r="AH10">
-        <f>AG10*(1+'[1]BM Power Utils'!S$25)</f>
-        <v>32958264.466728888</v>
+        <f>AG10*(1+'[1]BM Power Utils'!U$25)</f>
+        <v>34202560.1304994</v>
       </c>
       <c r="AI10">
-        <f>AH10*(1+'[1]BM Power Utils'!T$25)</f>
-        <v>33574648.504789986</v>
+        <f>AH10*(1+'[1]BM Power Utils'!V$25)</f>
+        <v>34842214.932303265</v>
       </c>
       <c r="AJ10">
-        <f>AI10*(1+'[1]BM Power Utils'!U$25)</f>
-        <v>34202560.1304994</v>
+        <f>AI10*(1+'[1]BM Power Utils'!W$25)</f>
+        <v>35493832.530573525</v>
       </c>
       <c r="AK10">
-        <f>AJ10*(1+'[1]BM Power Utils'!V$25)</f>
-        <v>34842214.932303265</v>
+        <f>AJ10*(1+'[1]BM Power Utils'!X$25)</f>
+        <v>35921375.407307051</v>
       </c>
       <c r="AL10">
-        <f>AK10*(1+'[1]BM Power Utils'!W$25)</f>
-        <v>35493832.530573525</v>
+        <f>AK10*(1+'[1]BM Power Utils'!Y$25)</f>
+        <v>36354068.274853438</v>
       </c>
       <c r="AM10">
-        <f>AL10*(1+'[1]BM Power Utils'!X$25)</f>
-        <v>35921375.407307051</v>
+        <f>AL10*(1+'[1]BM Power Utils'!Z$25)</f>
+        <v>36791973.167705163</v>
       </c>
       <c r="AN10">
-        <f>AM10*(1+'[1]BM Power Utils'!Y$25)</f>
-        <v>36354068.274853438</v>
+        <f>AM10*(1+'[1]BM Power Utils'!AA$25)</f>
+        <v>37235152.867594548</v>
       </c>
       <c r="AO10">
-        <f>AN10*(1+'[1]BM Power Utils'!Z$25)</f>
-        <v>36791973.167705163</v>
+        <f>AN10*(1+'[1]BM Power Utils'!AB$25)</f>
+        <v>37683670.912494637</v>
       </c>
       <c r="AP10">
-        <f>AO10*(1+'[1]BM Power Utils'!AA$25)</f>
-        <v>37235152.867594548</v>
+        <f>AO10*(1+'[1]BM Power Utils'!AC$25)</f>
+        <v>37923342.933863312</v>
       </c>
       <c r="AQ10">
-        <f>AP10*(1+'[1]BM Power Utils'!AB$25)</f>
-        <v>37683670.912494637</v>
+        <f>AP10*(1+'[1]BM Power Utils'!AD$25)</f>
+        <v>38164539.293929256</v>
       </c>
       <c r="AR10">
-        <f>AQ10*(1+'[1]BM Power Utils'!AC$25)</f>
-        <v>37923342.933863312</v>
+        <f>AQ10*(1+'[1]BM Power Utils'!AE$25)</f>
+        <v>38407269.687643297</v>
       </c>
       <c r="AS10">
-        <f>AR10*(1+'[1]BM Power Utils'!AD$25)</f>
-        <v>38164539.293929256</v>
+        <f>AR10*(1+'[1]BM Power Utils'!AF$25)</f>
+        <v>38651543.871617161</v>
       </c>
       <c r="AT10">
-        <f>AS10*(1+'[1]BM Power Utils'!AE$25)</f>
-        <v>38407269.687643297</v>
-      </c>
-      <c r="AU10">
-        <f>AT10*(1+'[1]BM Power Utils'!AF$25)</f>
-        <v>38651543.871617161</v>
-      </c>
-      <c r="AV10">
-        <f>AU10*(1+'[1]BM Power Utils'!AG$25)</f>
+        <f>AS10*(1+'[1]BM Power Utils'!AG$25)</f>
         <v>38897371.664515622</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:46">
       <c r="A11" t="s">
         <v>176</v>
       </c>
-      <c r="B11" t="str">
-        <f>A6</f>
-        <v>Company AK</v>
-      </c>
-      <c r="C11" t="str">
-        <f>D6</f>
-        <v>CH0198251305</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" t="s">
-        <v>194</v>
+        <v>194</v>
+      </c>
+      <c r="F11">
+        <v>787824000.90192997</v>
+      </c>
+      <c r="G11">
+        <v>793944000.90192997</v>
       </c>
       <c r="H11">
-        <v>787824000.90192997</v>
+        <v>799452000.90192997</v>
       </c>
       <c r="I11">
-        <v>793944000.90192997</v>
+        <v>835300800.90192997</v>
       </c>
       <c r="J11">
-        <v>799452000.90192997</v>
+        <v>839822400.90192997</v>
       </c>
       <c r="K11">
-        <v>835300800.90192997</v>
+        <v>868536000.90192997</v>
       </c>
       <c r="L11">
-        <v>839822400.90192997</v>
+        <v>871128000.90192997</v>
       </c>
       <c r="M11">
-        <v>868536000.90192997</v>
+        <v>901116000.90192997</v>
       </c>
       <c r="N11">
-        <v>871128000.90192997</v>
+        <v>956880000.90192997</v>
       </c>
       <c r="O11">
-        <v>901116000.90192997</v>
+        <v>988020000.90192997</v>
       </c>
       <c r="P11">
-        <v>956880000.90192997</v>
+        <v>934632000.90192997</v>
       </c>
       <c r="Q11">
-        <v>988020000.90192997</v>
+        <f>P11*(1+'[1]BM Power Utils'!D$24)</f>
+        <v>990671002.51519704</v>
       </c>
       <c r="R11">
-        <v>934632000.90192997</v>
+        <f>Q11*(1+'[1]BM Power Utils'!E$24)</f>
+        <v>1050070010.7393882</v>
       </c>
       <c r="S11">
-        <f>R11*(1+'[1]BM Power Utils'!D$24)</f>
-        <v>990671002.51519704</v>
+        <f>R11*(1+'[1]BM Power Utils'!F$24)</f>
+        <v>1113030486.0591741</v>
       </c>
       <c r="T11">
-        <f>S11*(1+'[1]BM Power Utils'!E$24)</f>
-        <v>1050070010.7393882</v>
+        <f>S11*(1+'[1]BM Power Utils'!G$24)</f>
+        <v>1179765968.1994119</v>
       </c>
       <c r="U11">
-        <f>T11*(1+'[1]BM Power Utils'!F$24)</f>
-        <v>1113030486.0591741</v>
+        <f>T11*(1+'[1]BM Power Utils'!H$24)</f>
+        <v>1250502800.3765733</v>
       </c>
       <c r="V11">
-        <f>U11*(1+'[1]BM Power Utils'!G$24)</f>
-        <v>1179765968.1994119</v>
+        <f>U11*(1+'[1]BM Power Utils'!I$24)</f>
+        <v>1311264921.5915158</v>
       </c>
       <c r="W11">
-        <f>V11*(1+'[1]BM Power Utils'!H$24)</f>
-        <v>1250502800.3765733</v>
+        <f>V11*(1+'[1]BM Power Utils'!J$24)</f>
+        <v>1374979483.5154495</v>
       </c>
       <c r="X11">
-        <f>W11*(1+'[1]BM Power Utils'!I$24)</f>
-        <v>1311264921.5915158</v>
+        <f>W11*(1+'[1]BM Power Utils'!K$24)</f>
+        <v>1441789945.6913564</v>
       </c>
       <c r="Y11">
-        <f>X11*(1+'[1]BM Power Utils'!J$24)</f>
-        <v>1374979483.5154495</v>
+        <f>X11*(1+'[1]BM Power Utils'!L$24)</f>
+        <v>1511846738.3832257</v>
       </c>
       <c r="Z11">
-        <f>Y11*(1+'[1]BM Power Utils'!K$24)</f>
-        <v>1441789945.6913564</v>
+        <f>Y11*(1+'[1]BM Power Utils'!M$24)</f>
+        <v>1585307601.2844472</v>
       </c>
       <c r="AA11">
-        <f>Z11*(1+'[1]BM Power Utils'!L$24)</f>
-        <v>1511846738.3832257</v>
+        <f>Z11*(1+'[1]BM Power Utils'!N$24)</f>
+        <v>1658458930.8940902</v>
       </c>
       <c r="AB11">
-        <f>AA11*(1+'[1]BM Power Utils'!M$24)</f>
-        <v>1585307601.2844472</v>
+        <f>AA11*(1+'[1]BM Power Utils'!O$24)</f>
+        <v>1734985704.4991591</v>
       </c>
       <c r="AC11">
-        <f>AB11*(1+'[1]BM Power Utils'!N$24)</f>
-        <v>1658458930.8940902</v>
+        <f>AB11*(1+'[1]BM Power Utils'!P$24)</f>
+        <v>1815043676.2360046</v>
       </c>
       <c r="AD11">
-        <f>AC11*(1+'[1]BM Power Utils'!O$24)</f>
-        <v>1734985704.4991591</v>
+        <f>AC11*(1+'[1]BM Power Utils'!Q$24)</f>
+        <v>1898795787.2513452</v>
       </c>
       <c r="AE11">
-        <f>AD11*(1+'[1]BM Power Utils'!P$24)</f>
-        <v>1815043676.2360046</v>
+        <f>AD11*(1+'[1]BM Power Utils'!R$24)</f>
+        <v>1986412497.3346665</v>
       </c>
       <c r="AF11">
-        <f>AE11*(1+'[1]BM Power Utils'!Q$24)</f>
-        <v>1898795787.2513452</v>
+        <f>AE11*(1+'[1]BM Power Utils'!S$24)</f>
+        <v>2066052452.6972868</v>
       </c>
       <c r="AG11">
-        <f>AF11*(1+'[1]BM Power Utils'!R$24)</f>
-        <v>1986412497.3346665</v>
+        <f>AF11*(1+'[1]BM Power Utils'!T$24)</f>
+        <v>2148885361.4362431</v>
       </c>
       <c r="AH11">
-        <f>AG11*(1+'[1]BM Power Utils'!S$24)</f>
-        <v>2066052452.6972868</v>
+        <f>AG11*(1+'[1]BM Power Utils'!U$24)</f>
+        <v>2235039236.5723486</v>
       </c>
       <c r="AI11">
-        <f>AH11*(1+'[1]BM Power Utils'!T$24)</f>
-        <v>2148885361.4362431</v>
+        <f>AH11*(1+'[1]BM Power Utils'!V$24)</f>
+        <v>2324647223.4699149</v>
       </c>
       <c r="AJ11">
-        <f>AI11*(1+'[1]BM Power Utils'!U$24)</f>
-        <v>2235039236.5723486</v>
+        <f>AI11*(1+'[1]BM Power Utils'!W$24)</f>
+        <v>2417847805.6044884</v>
       </c>
       <c r="AK11">
-        <f>AJ11*(1+'[1]BM Power Utils'!V$24)</f>
-        <v>2324647223.4699149</v>
+        <f>AJ11*(1+'[1]BM Power Utils'!X$24)</f>
+        <v>2480344059.2256918</v>
       </c>
       <c r="AL11">
-        <f>AK11*(1+'[1]BM Power Utils'!W$24)</f>
-        <v>2417847805.6044884</v>
+        <f>AK11*(1+'[1]BM Power Utils'!Y$24)</f>
+        <v>2544455708.8646398</v>
       </c>
       <c r="AM11">
-        <f>AL11*(1+'[1]BM Power Utils'!X$24)</f>
-        <v>2480344059.2256918</v>
+        <f>AL11*(1+'[1]BM Power Utils'!Z$24)</f>
+        <v>2610224509.0928936</v>
       </c>
       <c r="AN11">
-        <f>AM11*(1+'[1]BM Power Utils'!Y$24)</f>
-        <v>2544455708.8646398</v>
+        <f>AM11*(1+'[1]BM Power Utils'!AA$24)</f>
+        <v>2677693293.7494063</v>
       </c>
       <c r="AO11">
-        <f>AN11*(1+'[1]BM Power Utils'!Z$24)</f>
-        <v>2610224509.0928936</v>
+        <f>AN11*(1+'[1]BM Power Utils'!AB$24)</f>
+        <v>2746906003.8373022</v>
       </c>
       <c r="AP11">
-        <f>AO11*(1+'[1]BM Power Utils'!AA$24)</f>
-        <v>2677693293.7494063</v>
+        <f>AO11*(1+'[1]BM Power Utils'!AC$24)</f>
+        <v>2779629231.5276394</v>
       </c>
       <c r="AQ11">
-        <f>AP11*(1+'[1]BM Power Utils'!AB$24)</f>
-        <v>2746906003.8373022</v>
+        <f>AP11*(1+'[1]BM Power Utils'!AD$24)</f>
+        <v>2812742283.1249385</v>
       </c>
       <c r="AR11">
-        <f>AQ11*(1+'[1]BM Power Utils'!AC$24)</f>
-        <v>2779629231.5276394</v>
+        <f>AQ11*(1+'[1]BM Power Utils'!AE$24)</f>
+        <v>2846249802.5072389</v>
       </c>
       <c r="AS11">
-        <f>AR11*(1+'[1]BM Power Utils'!AD$24)</f>
-        <v>2812742283.1249385</v>
+        <f>AR11*(1+'[1]BM Power Utils'!AF$24)</f>
+        <v>2880156488.8739772</v>
       </c>
       <c r="AT11">
-        <f>AS11*(1+'[1]BM Power Utils'!AE$24)</f>
-        <v>2846249802.5072389</v>
-      </c>
-      <c r="AU11">
-        <f>AT11*(1+'[1]BM Power Utils'!AF$24)</f>
-        <v>2880156488.8739772</v>
-      </c>
-      <c r="AV11">
-        <f>AU11*(1+'[1]BM Power Utils'!AG$24)</f>
+        <f>AS11*(1+'[1]BM Power Utils'!AG$24)</f>
         <v>2914467097.4050174</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:46">
       <c r="A12" t="s">
         <v>177</v>
       </c>
-      <c r="B12" t="str">
-        <f>A7</f>
-        <v>Company AL</v>
-      </c>
-      <c r="C12" t="str">
-        <f>D7</f>
-        <v>US1266501006</v>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" t="s">
-        <v>194</v>
+        <v>194</v>
+      </c>
+      <c r="F12">
+        <v>34887601.154934399</v>
+      </c>
+      <c r="G12">
+        <v>35434801.154934399</v>
       </c>
       <c r="H12">
-        <v>34887601.154934399</v>
+        <v>38350801.154934399</v>
       </c>
       <c r="I12">
-        <v>35434801.154934399</v>
+        <v>56516401.154934399</v>
       </c>
       <c r="J12">
-        <v>38350801.154934399</v>
+        <v>61902001.154934399</v>
       </c>
       <c r="K12">
-        <v>56516401.154934399</v>
+        <v>71791201.154934406</v>
       </c>
       <c r="L12">
-        <v>61902001.154934399</v>
+        <v>72248401.154934406</v>
       </c>
       <c r="M12">
-        <v>71791201.154934406</v>
+        <v>73062001.154934406</v>
       </c>
       <c r="N12">
-        <v>72248401.154934406</v>
+        <v>77691601.154934406</v>
       </c>
       <c r="O12">
-        <v>73062001.154934406</v>
+        <v>73011601.154934406</v>
       </c>
       <c r="P12">
-        <v>77691601.154934406</v>
+        <v>65804401.154934399</v>
       </c>
       <c r="Q12">
-        <v>73011601.154934406</v>
+        <f>P12*(1+'[1]BM Power Utils'!D$24)</f>
+        <v>69749925.103314996</v>
       </c>
       <c r="R12">
-        <v>65804401.154934399</v>
+        <f>Q12*(1+'[1]BM Power Utils'!E$24)</f>
+        <v>73932016.195443213</v>
       </c>
       <c r="S12">
-        <f>R12*(1+'[1]BM Power Utils'!D$24)</f>
-        <v>69749925.103314996</v>
+        <f>R12*(1+'[1]BM Power Utils'!F$24)</f>
+        <v>78364858.609195814</v>
       </c>
       <c r="T12">
-        <f>S12*(1+'[1]BM Power Utils'!E$24)</f>
-        <v>73932016.195443213</v>
+        <f>S12*(1+'[1]BM Power Utils'!G$24)</f>
+        <v>83063486.982487485</v>
       </c>
       <c r="U12">
-        <f>T12*(1+'[1]BM Power Utils'!F$24)</f>
-        <v>78364858.609195814</v>
+        <f>T12*(1+'[1]BM Power Utils'!H$24)</f>
+        <v>88043837.405459598</v>
       </c>
       <c r="V12">
-        <f>U12*(1+'[1]BM Power Utils'!G$24)</f>
-        <v>83063486.982487485</v>
+        <f>U12*(1+'[1]BM Power Utils'!I$24)</f>
+        <v>92321900.85245724</v>
       </c>
       <c r="W12">
-        <f>V12*(1+'[1]BM Power Utils'!H$24)</f>
-        <v>88043837.405459598</v>
+        <f>V12*(1+'[1]BM Power Utils'!J$24)</f>
+        <v>96807836.052843526</v>
       </c>
       <c r="X12">
-        <f>W12*(1+'[1]BM Power Utils'!I$24)</f>
-        <v>92321900.85245724</v>
+        <f>W12*(1+'[1]BM Power Utils'!K$24)</f>
+        <v>101511743.52672346</v>
       </c>
       <c r="Y12">
-        <f>X12*(1+'[1]BM Power Utils'!J$24)</f>
-        <v>96807836.052843526</v>
+        <f>X12*(1+'[1]BM Power Utils'!L$24)</f>
+        <v>106444214.58000977</v>
       </c>
       <c r="Z12">
-        <f>Y12*(1+'[1]BM Power Utils'!K$24)</f>
-        <v>101511743.52672346</v>
+        <f>Y12*(1+'[1]BM Power Utils'!M$24)</f>
+        <v>111616355.15177995</v>
       </c>
       <c r="AA12">
-        <f>Z12*(1+'[1]BM Power Utils'!L$24)</f>
-        <v>106444214.58000977</v>
+        <f>Z12*(1+'[1]BM Power Utils'!N$24)</f>
+        <v>116766702.49063046</v>
       </c>
       <c r="AB12">
-        <f>AA12*(1+'[1]BM Power Utils'!M$24)</f>
-        <v>111616355.15177995</v>
+        <f>AA12*(1+'[1]BM Power Utils'!O$24)</f>
+        <v>122154703.86929201</v>
       </c>
       <c r="AC12">
-        <f>AB12*(1+'[1]BM Power Utils'!N$24)</f>
-        <v>116766702.49063046</v>
+        <f>AB12*(1+'[1]BM Power Utils'!P$24)</f>
+        <v>127791325.43022503</v>
       </c>
       <c r="AD12">
-        <f>AC12*(1+'[1]BM Power Utils'!O$24)</f>
-        <v>122154703.86929201</v>
+        <f>AC12*(1+'[1]BM Power Utils'!Q$24)</f>
+        <v>133688039.32992849</v>
       </c>
       <c r="AE12">
-        <f>AD12*(1+'[1]BM Power Utils'!P$24)</f>
-        <v>127791325.43022503</v>
+        <f>AD12*(1+'[1]BM Power Utils'!R$24)</f>
+        <v>139856847.08809921</v>
       </c>
       <c r="AF12">
-        <f>AE12*(1+'[1]BM Power Utils'!Q$24)</f>
-        <v>133688039.32992849</v>
+        <f>AE12*(1+'[1]BM Power Utils'!S$24)</f>
+        <v>145464037.4748885</v>
       </c>
       <c r="AG12">
-        <f>AF12*(1+'[1]BM Power Utils'!R$24)</f>
-        <v>139856847.08809921</v>
+        <f>AF12*(1+'[1]BM Power Utils'!T$24)</f>
+        <v>151296033.33018586</v>
       </c>
       <c r="AH12">
-        <f>AG12*(1+'[1]BM Power Utils'!S$24)</f>
-        <v>145464037.4748885</v>
+        <f>AG12*(1+'[1]BM Power Utils'!U$24)</f>
+        <v>157361847.63467947</v>
       </c>
       <c r="AI12">
-        <f>AH12*(1+'[1]BM Power Utils'!T$24)</f>
-        <v>151296033.33018586</v>
+        <f>AH12*(1+'[1]BM Power Utils'!V$24)</f>
+        <v>163670854.72068045</v>
       </c>
       <c r="AJ12">
-        <f>AI12*(1+'[1]BM Power Utils'!U$24)</f>
-        <v>157361847.63467947</v>
+        <f>AI12*(1+'[1]BM Power Utils'!W$24)</f>
+        <v>170232804.75956044</v>
       </c>
       <c r="AK12">
-        <f>AJ12*(1+'[1]BM Power Utils'!V$24)</f>
-        <v>163670854.72068045</v>
+        <f>AJ12*(1+'[1]BM Power Utils'!X$24)</f>
+        <v>174632962.83247209</v>
       </c>
       <c r="AL12">
-        <f>AK12*(1+'[1]BM Power Utils'!W$24)</f>
-        <v>170232804.75956044</v>
+        <f>AK12*(1+'[1]BM Power Utils'!Y$24)</f>
+        <v>179146855.68813583</v>
       </c>
       <c r="AM12">
-        <f>AL12*(1+'[1]BM Power Utils'!X$24)</f>
-        <v>174632962.83247209</v>
+        <f>AL12*(1+'[1]BM Power Utils'!Z$24)</f>
+        <v>183777423.13021174</v>
       </c>
       <c r="AN12">
-        <f>AM12*(1+'[1]BM Power Utils'!Y$24)</f>
-        <v>179146855.68813583</v>
+        <f>AM12*(1+'[1]BM Power Utils'!AA$24)</f>
+        <v>188527680.9500688</v>
       </c>
       <c r="AO12">
-        <f>AN12*(1+'[1]BM Power Utils'!Z$24)</f>
-        <v>183777423.13021174</v>
+        <f>AN12*(1+'[1]BM Power Utils'!AB$24)</f>
+        <v>193400722.89090639</v>
       </c>
       <c r="AP12">
-        <f>AO12*(1+'[1]BM Power Utils'!AA$24)</f>
-        <v>188527680.9500688</v>
+        <f>AO12*(1+'[1]BM Power Utils'!AC$24)</f>
+        <v>195704658.98547754</v>
       </c>
       <c r="AQ12">
-        <f>AP12*(1+'[1]BM Power Utils'!AB$24)</f>
-        <v>193400722.89090639</v>
+        <f>AP12*(1+'[1]BM Power Utils'!AD$24)</f>
+        <v>198036041.31421223</v>
       </c>
       <c r="AR12">
-        <f>AQ12*(1+'[1]BM Power Utils'!AC$24)</f>
-        <v>195704658.98547754</v>
+        <f>AQ12*(1+'[1]BM Power Utils'!AE$24)</f>
+        <v>200395196.8374683</v>
       </c>
       <c r="AS12">
-        <f>AR12*(1+'[1]BM Power Utils'!AD$24)</f>
-        <v>198036041.31421223</v>
+        <f>AR12*(1+'[1]BM Power Utils'!AF$24)</f>
+        <v>202782456.41060323</v>
       </c>
       <c r="AT12">
-        <f>AS12*(1+'[1]BM Power Utils'!AE$24)</f>
-        <v>200395196.8374683</v>
-      </c>
-      <c r="AU12">
-        <f>AT12*(1+'[1]BM Power Utils'!AF$24)</f>
-        <v>202782456.41060323</v>
-      </c>
-      <c r="AV12">
-        <f>AU12*(1+'[1]BM Power Utils'!AG$24)</f>
+        <f>AS12*(1+'[1]BM Power Utils'!AG$24)</f>
         <v>205198154.83037451</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:46">
       <c r="A13" t="s">
         <v>178</v>
       </c>
-      <c r="B13" t="str">
-        <f>A7</f>
-        <v>Company AL</v>
-      </c>
-      <c r="C13" t="str">
-        <f>D7</f>
-        <v>US1266501006</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" t="s">
         <v>193</v>
       </c>
+      <c r="E13">
+        <v>193680004.28137201</v>
+      </c>
+      <c r="F13">
+        <v>189828004.28137201</v>
+      </c>
       <c r="G13">
-        <v>193680004.28137201</v>
+        <v>203472004.28137201</v>
       </c>
       <c r="H13">
-        <v>189828004.28137201</v>
+        <v>205380004.28137201</v>
       </c>
       <c r="I13">
-        <v>203472004.28137201</v>
+        <v>205344004.28137201</v>
       </c>
       <c r="J13">
-        <v>205380004.28137201</v>
+        <v>197424004.28137201</v>
       </c>
       <c r="K13">
-        <v>205344004.28137201</v>
+        <v>200088004.28137201</v>
       </c>
       <c r="L13">
-        <v>197424004.28137201</v>
+        <v>193212004.28137201</v>
       </c>
       <c r="M13">
-        <v>200088004.28137201</v>
+        <v>233684004.28137201</v>
       </c>
       <c r="N13">
-        <v>193212004.28137201</v>
+        <v>288420004.28137201</v>
       </c>
       <c r="O13">
-        <v>233684004.28137201</v>
+        <v>288420004.28137201</v>
       </c>
       <c r="P13">
         <v>288420004.28137201</v>
       </c>
       <c r="Q13">
-        <v>288420004.28137201</v>
+        <f>P13*(1+'[1]BM Power Utils'!D$25)</f>
+        <v>295861623.30343771</v>
       </c>
       <c r="R13">
-        <v>288420004.28137201</v>
+        <f>Q13*(1+'[1]BM Power Utils'!E$25)</f>
+        <v>303495245.97590047</v>
       </c>
       <c r="S13">
-        <f>R13*(1+'[1]BM Power Utils'!D$25)</f>
-        <v>295861623.30343771</v>
+        <f>R13*(1+'[1]BM Power Utils'!F$25)</f>
+        <v>311325826.24784809</v>
       </c>
       <c r="T13">
-        <f>S13*(1+'[1]BM Power Utils'!E$25)</f>
-        <v>303495245.97590047</v>
+        <f>S13*(1+'[1]BM Power Utils'!G$25)</f>
+        <v>319358445.88683176</v>
       </c>
       <c r="U13">
-        <f>T13*(1+'[1]BM Power Utils'!F$25)</f>
-        <v>311325826.24784809</v>
+        <f>T13*(1+'[1]BM Power Utils'!H$25)</f>
+        <v>327598317.77675211</v>
       </c>
       <c r="V13">
-        <f>U13*(1+'[1]BM Power Utils'!G$25)</f>
-        <v>319358445.88683176</v>
+        <f>U13*(1+'[1]BM Power Utils'!I$25)</f>
+        <v>340709219.75097513</v>
       </c>
       <c r="W13">
-        <f>V13*(1+'[1]BM Power Utils'!H$25)</f>
-        <v>327598317.77675211</v>
+        <f>V13*(1+'[1]BM Power Utils'!J$25)</f>
+        <v>354344836.72295594</v>
       </c>
       <c r="X13">
-        <f>W13*(1+'[1]BM Power Utils'!I$25)</f>
-        <v>340709219.75097513</v>
+        <f>W13*(1+'[1]BM Power Utils'!K$25)</f>
+        <v>368526168.45529008</v>
       </c>
       <c r="Y13">
-        <f>X13*(1+'[1]BM Power Utils'!J$25)</f>
-        <v>354344836.72295594</v>
+        <f>X13*(1+'[1]BM Power Utils'!L$25)</f>
+        <v>383275055.14782178</v>
       </c>
       <c r="Z13">
-        <f>Y13*(1+'[1]BM Power Utils'!K$25)</f>
-        <v>368526168.45529008</v>
+        <f>Y13*(1+'[1]BM Power Utils'!M$25)</f>
+        <v>398614211.07301319</v>
       </c>
       <c r="AA13">
-        <f>Z13*(1+'[1]BM Power Utils'!L$25)</f>
-        <v>383275055.14782178</v>
+        <f>Z13*(1+'[1]BM Power Utils'!N$25)</f>
+        <v>413338335.92565936</v>
       </c>
       <c r="AB13">
-        <f>AA13*(1+'[1]BM Power Utils'!M$25)</f>
-        <v>398614211.07301319</v>
+        <f>AA13*(1+'[1]BM Power Utils'!O$25)</f>
+        <v>428606344.68072015</v>
       </c>
       <c r="AC13">
-        <f>AB13*(1+'[1]BM Power Utils'!N$25)</f>
-        <v>413338335.92565936</v>
+        <f>AB13*(1+'[1]BM Power Utils'!P$25)</f>
+        <v>444438327.47613353</v>
       </c>
       <c r="AD13">
-        <f>AC13*(1+'[1]BM Power Utils'!O$25)</f>
-        <v>428606344.68072015</v>
+        <f>AC13*(1+'[1]BM Power Utils'!Q$25)</f>
+        <v>460855116.54505408</v>
       </c>
       <c r="AE13">
-        <f>AD13*(1+'[1]BM Power Utils'!P$25)</f>
-        <v>444438327.47613353</v>
+        <f>AD13*(1+'[1]BM Power Utils'!R$25)</f>
+        <v>477878313.62757671</v>
       </c>
       <c r="AF13">
-        <f>AE13*(1+'[1]BM Power Utils'!Q$25)</f>
-        <v>460855116.54505408</v>
+        <f>AE13*(1+'[1]BM Power Utils'!S$25)</f>
+        <v>486815573.20181632</v>
       </c>
       <c r="AG13">
-        <f>AF13*(1+'[1]BM Power Utils'!R$25)</f>
-        <v>477878313.62757671</v>
+        <f>AF13*(1+'[1]BM Power Utils'!T$25)</f>
+        <v>495919977.01846987</v>
       </c>
       <c r="AH13">
-        <f>AG13*(1+'[1]BM Power Utils'!S$25)</f>
-        <v>486815573.20181632</v>
+        <f>AG13*(1+'[1]BM Power Utils'!U$25)</f>
+        <v>505194651.00193739</v>
       </c>
       <c r="AI13">
-        <f>AH13*(1+'[1]BM Power Utils'!T$25)</f>
-        <v>495919977.01846987</v>
+        <f>AH13*(1+'[1]BM Power Utils'!V$25)</f>
+        <v>514642779.5375219</v>
       </c>
       <c r="AJ13">
-        <f>AI13*(1+'[1]BM Power Utils'!U$25)</f>
-        <v>505194651.00193739</v>
+        <f>AI13*(1+'[1]BM Power Utils'!W$25)</f>
+        <v>524267606.56476283</v>
       </c>
       <c r="AK13">
-        <f>AJ13*(1+'[1]BM Power Utils'!V$25)</f>
-        <v>514642779.5375219</v>
+        <f>AJ13*(1+'[1]BM Power Utils'!X$25)</f>
+        <v>530582700.33480942</v>
       </c>
       <c r="AL13">
-        <f>AK13*(1+'[1]BM Power Utils'!W$25)</f>
-        <v>524267606.56476283</v>
+        <f>AK13*(1+'[1]BM Power Utils'!Y$25)</f>
+        <v>536973862.90793502</v>
       </c>
       <c r="AM13">
-        <f>AL13*(1+'[1]BM Power Utils'!X$25)</f>
-        <v>530582700.33480942</v>
+        <f>AL13*(1+'[1]BM Power Utils'!Z$25)</f>
+        <v>543442010.57501554</v>
       </c>
       <c r="AN13">
-        <f>AM13*(1+'[1]BM Power Utils'!Y$25)</f>
-        <v>536973862.90793502</v>
+        <f>AM13*(1+'[1]BM Power Utils'!AA$25)</f>
+        <v>549988070.66415811</v>
       </c>
       <c r="AO13">
-        <f>AN13*(1+'[1]BM Power Utils'!Z$25)</f>
-        <v>543442010.57501554</v>
+        <f>AN13*(1+'[1]BM Power Utils'!AB$25)</f>
+        <v>556612981.67365062</v>
       </c>
       <c r="AP13">
-        <f>AO13*(1+'[1]BM Power Utils'!AA$25)</f>
-        <v>549988070.66415811</v>
+        <f>AO13*(1+'[1]BM Power Utils'!AC$25)</f>
+        <v>560153097.46405613</v>
       </c>
       <c r="AQ13">
-        <f>AP13*(1+'[1]BM Power Utils'!AB$25)</f>
-        <v>556612981.67365062</v>
+        <f>AP13*(1+'[1]BM Power Utils'!AD$25)</f>
+        <v>563715728.75485802</v>
       </c>
       <c r="AR13">
-        <f>AQ13*(1+'[1]BM Power Utils'!AC$25)</f>
-        <v>560153097.46405613</v>
+        <f>AQ13*(1+'[1]BM Power Utils'!AE$25)</f>
+        <v>567301018.74695361</v>
       </c>
       <c r="AS13">
-        <f>AR13*(1+'[1]BM Power Utils'!AD$25)</f>
-        <v>563715728.75485802</v>
+        <f>AR13*(1+'[1]BM Power Utils'!AF$25)</f>
+        <v>570909111.5520128</v>
       </c>
       <c r="AT13">
-        <f>AS13*(1+'[1]BM Power Utils'!AE$25)</f>
-        <v>567301018.74695361</v>
-      </c>
-      <c r="AU13">
-        <f>AT13*(1+'[1]BM Power Utils'!AF$25)</f>
-        <v>570909111.5520128</v>
-      </c>
-      <c r="AV13">
-        <f>AU13*(1+'[1]BM Power Utils'!AG$25)</f>
+        <f>AS13*(1+'[1]BM Power Utils'!AG$25)</f>
         <v>574540152.19827044</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:46">
       <c r="A14" t="s">
         <v>179</v>
       </c>
-      <c r="B14" t="str">
-        <f>A8</f>
-        <v>Company AM</v>
-      </c>
-      <c r="C14" t="str">
-        <f>D8</f>
-        <v>FR0000120644</v>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" t="s">
         <v>193</v>
       </c>
+      <c r="E14">
+        <v>44323202.140496299</v>
+      </c>
+      <c r="F14">
+        <v>40827602.140496299</v>
+      </c>
       <c r="G14">
-        <v>44323202.140496299</v>
+        <v>40676402.140496299</v>
       </c>
       <c r="H14">
-        <v>40827602.140496299</v>
+        <v>39729602.140496299</v>
       </c>
       <c r="I14">
-        <v>40676402.140496299</v>
+        <v>38782802.140496299</v>
       </c>
       <c r="J14">
-        <v>39729602.140496299</v>
+        <v>52791723.222496301</v>
       </c>
       <c r="K14">
-        <v>38782802.140496299</v>
+        <v>59593083.650496297</v>
       </c>
       <c r="L14">
-        <v>52791723.222496301</v>
+        <v>64762513.956496298</v>
       </c>
       <c r="M14">
-        <v>59593083.650496297</v>
+        <v>60584801.540496297</v>
       </c>
       <c r="N14">
-        <v>64762513.956496298</v>
+        <v>46522116.892496303</v>
       </c>
       <c r="O14">
-        <v>60584801.540496297</v>
+        <v>47691749.886496298</v>
       </c>
       <c r="P14">
-        <v>46522116.892496303</v>
+        <f>O14*(1+'[1]BM Power Utils'!C$25)</f>
+        <v>44045949.40149568</v>
       </c>
       <c r="Q14">
-        <v>47691749.886496298</v>
+        <f>P14*(1+'[1]BM Power Utils'!D$24)</f>
+        <v>46686872.275082685</v>
       </c>
       <c r="R14">
-        <f>Q14*(1+'[1]BM Power Utils'!C$25)</f>
-        <v>44045949.40149568</v>
+        <f>Q14*(1+'[1]BM Power Utils'!E$24)</f>
+        <v>49486140.552026987</v>
       </c>
       <c r="S14">
-        <f>R14*(1+'[1]BM Power Utils'!D$24)</f>
-        <v>46686872.275082685</v>
+        <f>R14*(1+'[1]BM Power Utils'!F$24)</f>
+        <v>52453248.36296571</v>
       </c>
       <c r="T14">
-        <f>S14*(1+'[1]BM Power Utils'!E$24)</f>
-        <v>49486140.552026987</v>
+        <f>S14*(1+'[1]BM Power Utils'!G$24)</f>
+        <v>55598259.091034889</v>
       </c>
       <c r="U14">
-        <f>T14*(1+'[1]BM Power Utils'!F$24)</f>
-        <v>52453248.36296571</v>
+        <f>T14*(1+'[1]BM Power Utils'!H$24)</f>
+        <v>58931839.503315538</v>
       </c>
       <c r="V14">
-        <f>U14*(1+'[1]BM Power Utils'!G$24)</f>
-        <v>55598259.091034889</v>
+        <f>U14*(1+'[1]BM Power Utils'!I$24)</f>
+        <v>61795346.54563617</v>
       </c>
       <c r="W14">
-        <f>V14*(1+'[1]BM Power Utils'!H$24)</f>
-        <v>58931839.503315538</v>
+        <f>V14*(1+'[1]BM Power Utils'!J$24)</f>
+        <v>64797991.830552444</v>
       </c>
       <c r="X14">
-        <f>W14*(1+'[1]BM Power Utils'!I$24)</f>
-        <v>61795346.54563617</v>
+        <f>W14*(1+'[1]BM Power Utils'!K$24)</f>
+        <v>67946536.106428683</v>
       </c>
       <c r="Y14">
-        <f>X14*(1+'[1]BM Power Utils'!J$24)</f>
-        <v>64797991.830552444</v>
+        <f>X14*(1+'[1]BM Power Utils'!L$24)</f>
+        <v>71248068.627420247</v>
       </c>
       <c r="Z14">
-        <f>Y14*(1+'[1]BM Power Utils'!K$24)</f>
-        <v>67946536.106428683</v>
+        <f>Y14*(1+'[1]BM Power Utils'!M$24)</f>
+        <v>74710023.115619838</v>
       </c>
       <c r="AA14">
-        <f>Z14*(1+'[1]BM Power Utils'!L$24)</f>
-        <v>71248068.627420247</v>
+        <f>Z14*(1+'[1]BM Power Utils'!N$24)</f>
+        <v>78157390.378381208</v>
       </c>
       <c r="AB14">
-        <f>AA14*(1+'[1]BM Power Utils'!M$24)</f>
-        <v>74710023.115619838</v>
+        <f>AA14*(1+'[1]BM Power Utils'!O$24)</f>
+        <v>81763830.554638624</v>
       </c>
       <c r="AC14">
-        <f>AB14*(1+'[1]BM Power Utils'!N$24)</f>
-        <v>78157390.378381208</v>
+        <f>AB14*(1+'[1]BM Power Utils'!P$24)</f>
+        <v>85536683.794100374</v>
       </c>
       <c r="AD14">
-        <f>AC14*(1+'[1]BM Power Utils'!O$24)</f>
-        <v>81763830.554638624</v>
+        <f>AC14*(1+'[1]BM Power Utils'!Q$24)</f>
+        <v>89483628.945229664</v>
       </c>
       <c r="AE14">
-        <f>AD14*(1+'[1]BM Power Utils'!P$24)</f>
-        <v>85536683.794100374</v>
+        <f>AD14*(1+'[1]BM Power Utils'!R$24)</f>
+        <v>93612699.18392399</v>
       </c>
       <c r="AF14">
-        <f>AE14*(1+'[1]BM Power Utils'!Q$24)</f>
-        <v>89483628.945229664</v>
+        <f>AE14*(1+'[1]BM Power Utils'!S$24)</f>
+        <v>97365852.768280461</v>
       </c>
       <c r="AG14">
-        <f>AF14*(1+'[1]BM Power Utils'!R$24)</f>
-        <v>93612699.18392399</v>
+        <f>AF14*(1+'[1]BM Power Utils'!T$24)</f>
+        <v>101269479.11915863</v>
       </c>
       <c r="AH14">
-        <f>AG14*(1+'[1]BM Power Utils'!S$24)</f>
-        <v>97365852.768280461</v>
+        <f>AG14*(1+'[1]BM Power Utils'!U$24)</f>
+        <v>105329611.04415768</v>
       </c>
       <c r="AI14">
-        <f>AH14*(1+'[1]BM Power Utils'!T$24)</f>
-        <v>101269479.11915863</v>
+        <f>AH14*(1+'[1]BM Power Utils'!V$24)</f>
+        <v>109552523.2203418</v>
       </c>
       <c r="AJ14">
-        <f>AI14*(1+'[1]BM Power Utils'!U$24)</f>
-        <v>105329611.04415768</v>
+        <f>AI14*(1+'[1]BM Power Utils'!W$24)</f>
+        <v>113944741.89135659</v>
       </c>
       <c r="AK14">
-        <f>AJ14*(1+'[1]BM Power Utils'!V$24)</f>
-        <v>109552523.2203418</v>
+        <f>AJ14*(1+'[1]BM Power Utils'!X$24)</f>
+        <v>116889972.55125928</v>
       </c>
       <c r="AL14">
-        <f>AK14*(1+'[1]BM Power Utils'!W$24)</f>
-        <v>113944741.89135659</v>
+        <f>AK14*(1+'[1]BM Power Utils'!Y$24)</f>
+        <v>119911331.19649982</v>
       </c>
       <c r="AM14">
-        <f>AL14*(1+'[1]BM Power Utils'!X$24)</f>
-        <v>116889972.55125928</v>
+        <f>AL14*(1+'[1]BM Power Utils'!Z$24)</f>
+        <v>123010785.57453872</v>
       </c>
       <c r="AN14">
-        <f>AM14*(1+'[1]BM Power Utils'!Y$24)</f>
-        <v>119911331.19649982</v>
+        <f>AM14*(1+'[1]BM Power Utils'!AA$24)</f>
+        <v>126190354.29494783</v>
       </c>
       <c r="AO14">
-        <f>AN14*(1+'[1]BM Power Utils'!Z$24)</f>
-        <v>123010785.57453872</v>
+        <f>AN14*(1+'[1]BM Power Utils'!AB$24)</f>
+        <v>129452108.14408842</v>
       </c>
       <c r="AP14">
-        <f>AO14*(1+'[1]BM Power Utils'!AA$24)</f>
-        <v>126190354.29494783</v>
+        <f>AO14*(1+'[1]BM Power Utils'!AC$24)</f>
+        <v>130994239.83839303</v>
       </c>
       <c r="AQ14">
-        <f>AP14*(1+'[1]BM Power Utils'!AB$24)</f>
-        <v>129452108.14408842</v>
+        <f>AP14*(1+'[1]BM Power Utils'!AD$24)</f>
+        <v>132554742.57505976</v>
       </c>
       <c r="AR14">
-        <f>AQ14*(1+'[1]BM Power Utils'!AC$24)</f>
-        <v>130994239.83839303</v>
+        <f>AQ14*(1+'[1]BM Power Utils'!AE$24)</f>
+        <v>134133835.2038786</v>
       </c>
       <c r="AS14">
-        <f>AR14*(1+'[1]BM Power Utils'!AD$24)</f>
-        <v>132554742.57505976</v>
+        <f>AR14*(1+'[1]BM Power Utils'!AF$24)</f>
+        <v>135731739.18174425</v>
       </c>
       <c r="AT14">
-        <f>AS14*(1+'[1]BM Power Utils'!AE$24)</f>
-        <v>134133835.2038786</v>
-      </c>
-      <c r="AU14">
-        <f>AT14*(1+'[1]BM Power Utils'!AF$24)</f>
-        <v>135731739.18174425</v>
-      </c>
-      <c r="AV14">
-        <f>AU14*(1+'[1]BM Power Utils'!AG$24)</f>
+        <f>AS14*(1+'[1]BM Power Utils'!AG$24)</f>
         <v>137348678.6037139</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:46">
       <c r="A15" t="s">
         <v>180</v>
       </c>
-      <c r="B15" t="str">
-        <f>A8</f>
-        <v>Company AM</v>
-      </c>
-      <c r="C15" t="str">
-        <f>D8</f>
-        <v>FR0000120644</v>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" t="s">
-        <v>194</v>
+        <v>194</v>
+      </c>
+      <c r="F15">
+        <v>811080001.12938702</v>
+      </c>
+      <c r="G15">
+        <v>740520001.12938702</v>
       </c>
       <c r="H15">
-        <v>811080001.12938702</v>
+        <v>817560001.12938702</v>
       </c>
       <c r="I15">
-        <v>740520001.12938702</v>
+        <v>780120001.12938702</v>
       </c>
       <c r="J15">
-        <v>817560001.12938702</v>
+        <v>749880001.12938702</v>
       </c>
       <c r="K15">
-        <v>780120001.12938702</v>
+        <v>766800001.12938702</v>
       </c>
       <c r="L15">
-        <v>749880001.12938702</v>
+        <v>777960001.12938702</v>
       </c>
       <c r="M15">
-        <v>766800001.12938702</v>
+        <v>720720001.12938702</v>
       </c>
       <c r="N15">
-        <v>777960001.12938702</v>
+        <v>633600001.12938702</v>
       </c>
       <c r="O15">
-        <v>720720001.12938702</v>
+        <v>551394001.12938702</v>
       </c>
       <c r="P15">
-        <v>633600001.12938702</v>
+        <v>528390001.12938702</v>
       </c>
       <c r="Q15">
-        <v>551394001.12938702</v>
+        <f>P15*(1+'[1]BM Power Utils'!D$25)</f>
+        <v>542023164.65863299</v>
       </c>
       <c r="R15">
-        <v>528390001.12938702</v>
+        <f>Q15*(1+'[1]BM Power Utils'!E$25)</f>
+        <v>556008081.90656757</v>
       </c>
       <c r="S15">
-        <f>R15*(1+'[1]BM Power Utils'!D$25)</f>
-        <v>542023164.65863299</v>
+        <f>R15*(1+'[1]BM Power Utils'!F$25)</f>
+        <v>570353828.58612752</v>
       </c>
       <c r="T15">
-        <f>S15*(1+'[1]BM Power Utils'!E$25)</f>
-        <v>556008081.90656757</v>
+        <f>S15*(1+'[1]BM Power Utils'!G$25)</f>
+        <v>585069714.57569253</v>
       </c>
       <c r="U15">
-        <f>T15*(1+'[1]BM Power Utils'!F$25)</f>
-        <v>570353828.58612752</v>
+        <f>T15*(1+'[1]BM Power Utils'!H$25)</f>
+        <v>600165289.96086431</v>
       </c>
       <c r="V15">
-        <f>U15*(1+'[1]BM Power Utils'!G$25)</f>
-        <v>585069714.57569253</v>
+        <f>U15*(1+'[1]BM Power Utils'!I$25)</f>
+        <v>624184669.35941875</v>
       </c>
       <c r="W15">
-        <f>V15*(1+'[1]BM Power Utils'!H$25)</f>
-        <v>600165289.96086431</v>
+        <f>V15*(1+'[1]BM Power Utils'!J$25)</f>
+        <v>649165334.91753995</v>
       </c>
       <c r="X15">
-        <f>W15*(1+'[1]BM Power Utils'!I$25)</f>
-        <v>624184669.35941875</v>
+        <f>W15*(1+'[1]BM Power Utils'!K$25)</f>
+        <v>675145758.53182602</v>
       </c>
       <c r="Y15">
-        <f>X15*(1+'[1]BM Power Utils'!J$25)</f>
-        <v>649165334.91753995</v>
+        <f>X15*(1+'[1]BM Power Utils'!L$25)</f>
+        <v>702165951.79318285</v>
       </c>
       <c r="Z15">
-        <f>Y15*(1+'[1]BM Power Utils'!K$25)</f>
-        <v>675145758.53182602</v>
+        <f>Y15*(1+'[1]BM Power Utils'!M$25)</f>
+        <v>730267527.60735118</v>
       </c>
       <c r="AA15">
-        <f>Z15*(1+'[1]BM Power Utils'!L$25)</f>
-        <v>702165951.79318285</v>
+        <f>Z15*(1+'[1]BM Power Utils'!N$25)</f>
+        <v>757242356.78712261</v>
       </c>
       <c r="AB15">
-        <f>AA15*(1+'[1]BM Power Utils'!M$25)</f>
-        <v>730267527.60735118</v>
+        <f>AA15*(1+'[1]BM Power Utils'!O$25)</f>
+        <v>785213589.86241138</v>
       </c>
       <c r="AC15">
-        <f>AB15*(1+'[1]BM Power Utils'!N$25)</f>
-        <v>757242356.78712261</v>
+        <f>AB15*(1+'[1]BM Power Utils'!P$25)</f>
+        <v>814218032.28308296</v>
       </c>
       <c r="AD15">
-        <f>AC15*(1+'[1]BM Power Utils'!O$25)</f>
-        <v>785213589.86241138</v>
+        <f>AC15*(1+'[1]BM Power Utils'!Q$25)</f>
+        <v>844293849.0291549</v>
       </c>
       <c r="AE15">
-        <f>AD15*(1+'[1]BM Power Utils'!P$25)</f>
-        <v>814218032.28308296</v>
+        <f>AD15*(1+'[1]BM Power Utils'!R$25)</f>
+        <v>875480614.82950771</v>
       </c>
       <c r="AF15">
-        <f>AE15*(1+'[1]BM Power Utils'!Q$25)</f>
-        <v>844293849.0291549</v>
+        <f>AE15*(1+'[1]BM Power Utils'!S$25)</f>
+        <v>891853815.46201015</v>
       </c>
       <c r="AG15">
-        <f>AF15*(1+'[1]BM Power Utils'!R$25)</f>
-        <v>875480614.82950771</v>
+        <f>AF15*(1+'[1]BM Power Utils'!T$25)</f>
+        <v>908533226.98532069</v>
       </c>
       <c r="AH15">
-        <f>AG15*(1+'[1]BM Power Utils'!S$25)</f>
-        <v>891853815.46201015</v>
+        <f>AG15*(1+'[1]BM Power Utils'!U$25)</f>
+        <v>925524576.14228904</v>
       </c>
       <c r="AI15">
-        <f>AH15*(1+'[1]BM Power Utils'!T$25)</f>
-        <v>908533226.98532069</v>
+        <f>AH15*(1+'[1]BM Power Utils'!V$25)</f>
+        <v>942833696.7770623</v>
       </c>
       <c r="AJ15">
-        <f>AI15*(1+'[1]BM Power Utils'!U$25)</f>
-        <v>925524576.14228904</v>
+        <f>AI15*(1+'[1]BM Power Utils'!W$25)</f>
+        <v>960466531.83808875</v>
       </c>
       <c r="AK15">
-        <f>AJ15*(1+'[1]BM Power Utils'!V$25)</f>
-        <v>942833696.7770623</v>
+        <f>AJ15*(1+'[1]BM Power Utils'!X$25)</f>
+        <v>972035883.32118428</v>
       </c>
       <c r="AL15">
-        <f>AK15*(1+'[1]BM Power Utils'!W$25)</f>
-        <v>960466531.83808875</v>
+        <f>AK15*(1+'[1]BM Power Utils'!Y$25)</f>
+        <v>983744594.05241847</v>
       </c>
       <c r="AM15">
-        <f>AL15*(1+'[1]BM Power Utils'!X$25)</f>
-        <v>972035883.32118428</v>
+        <f>AL15*(1+'[1]BM Power Utils'!Z$25)</f>
+        <v>995594342.69114161</v>
       </c>
       <c r="AN15">
-        <f>AM15*(1+'[1]BM Power Utils'!Y$25)</f>
-        <v>983744594.05241847</v>
+        <f>AM15*(1+'[1]BM Power Utils'!AA$25)</f>
+        <v>1007586828.1170856</v>
       </c>
       <c r="AO15">
-        <f>AN15*(1+'[1]BM Power Utils'!Z$25)</f>
-        <v>995594342.69114161</v>
+        <f>AN15*(1+'[1]BM Power Utils'!AB$25)</f>
+        <v>1019723769.6739299</v>
       </c>
       <c r="AP15">
-        <f>AO15*(1+'[1]BM Power Utils'!AA$25)</f>
-        <v>1007586828.1170856</v>
+        <f>AO15*(1+'[1]BM Power Utils'!AC$25)</f>
+        <v>1026209317.6897523</v>
       </c>
       <c r="AQ15">
-        <f>AP15*(1+'[1]BM Power Utils'!AB$25)</f>
-        <v>1019723769.6739299</v>
+        <f>AP15*(1+'[1]BM Power Utils'!AD$25)</f>
+        <v>1032736114.4577531</v>
       </c>
       <c r="AR15">
-        <f>AQ15*(1+'[1]BM Power Utils'!AC$25)</f>
-        <v>1026209317.6897523</v>
+        <f>AQ15*(1+'[1]BM Power Utils'!AE$25)</f>
+        <v>1039304422.3242368</v>
       </c>
       <c r="AS15">
-        <f>AR15*(1+'[1]BM Power Utils'!AD$25)</f>
-        <v>1032736114.4577531</v>
+        <f>AR15*(1+'[1]BM Power Utils'!AF$25)</f>
+        <v>1045914505.3040576</v>
       </c>
       <c r="AT15">
-        <f>AS15*(1+'[1]BM Power Utils'!AE$25)</f>
-        <v>1039304422.3242368</v>
-      </c>
-      <c r="AU15">
-        <f>AT15*(1+'[1]BM Power Utils'!AF$25)</f>
-        <v>1045914505.3040576</v>
-      </c>
-      <c r="AV15">
-        <f>AU15*(1+'[1]BM Power Utils'!AG$25)</f>
+        <f>AS15*(1+'[1]BM Power Utils'!AG$25)</f>
         <v>1052566629.0912316</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:46">
       <c r="A16" t="s">
         <v>181</v>
       </c>
-      <c r="B16" t="str">
-        <f>A9</f>
-        <v>Company AN</v>
-      </c>
-      <c r="C16" t="str">
-        <f>D9</f>
-        <v>US24703L1035</v>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" t="s">
         <v>193</v>
       </c>
+      <c r="E16">
+        <v>257468657.55871701</v>
+      </c>
+      <c r="F16">
+        <v>268120405.55871701</v>
+      </c>
       <c r="G16">
-        <v>257468657.55871701</v>
+        <v>268997847.55871701</v>
       </c>
       <c r="H16">
-        <v>268120405.55871701</v>
+        <v>270255601.55871701</v>
       </c>
       <c r="I16">
-        <v>268997847.55871701</v>
+        <v>255369601.55871701</v>
       </c>
       <c r="J16">
-        <v>270255601.55871701</v>
+        <v>265032001.55871701</v>
       </c>
       <c r="K16">
-        <v>255369601.55871701</v>
+        <v>263804401.55871701</v>
       </c>
       <c r="L16">
-        <v>265032001.55871701</v>
+        <v>266875867.55871701</v>
       </c>
       <c r="M16">
-        <v>263804401.55871701</v>
+        <v>261049397.15871701</v>
       </c>
       <c r="N16">
-        <v>266875867.55871701</v>
+        <v>247737601.55871701</v>
       </c>
       <c r="O16">
-        <v>261049397.15871701</v>
+        <v>242884801.55871701</v>
       </c>
       <c r="P16">
-        <v>247737601.55871701</v>
+        <f>O16*(1+'[1]BM Power Utils'!C$26)</f>
+        <v>224471679.66002035</v>
       </c>
       <c r="Q16">
-        <v>242884801.55871701</v>
+        <f>P16*(1+'[1]BM Power Utils'!D$26)</f>
+        <v>228919179.84330204</v>
       </c>
       <c r="R16">
-        <f>Q16*(1+'[1]BM Power Utils'!C$26)</f>
-        <v>224471679.66002035</v>
+        <f>Q16*(1+'[1]BM Power Utils'!E$26)</f>
+        <v>233454799.19560429</v>
       </c>
       <c r="S16">
-        <f>R16*(1+'[1]BM Power Utils'!D$26)</f>
-        <v>228919179.84330204</v>
+        <f>R16*(1+'[1]BM Power Utils'!F$26)</f>
+        <v>238080283.63882229</v>
       </c>
       <c r="T16">
-        <f>S16*(1+'[1]BM Power Utils'!E$26)</f>
-        <v>233454799.19560429</v>
+        <f>S16*(1+'[1]BM Power Utils'!G$26)</f>
+        <v>242797413.68713459</v>
       </c>
       <c r="U16">
-        <f>T16*(1+'[1]BM Power Utils'!F$26)</f>
-        <v>238080283.63882229</v>
+        <f>T16*(1+'[1]BM Power Utils'!H$26)</f>
+        <v>247608005.13238662</v>
       </c>
       <c r="V16">
-        <f>U16*(1+'[1]BM Power Utils'!G$26)</f>
-        <v>242797413.68713459</v>
+        <f>U16*(1+'[1]BM Power Utils'!I$26)</f>
+        <v>255501189.05588439</v>
       </c>
       <c r="W16">
-        <f>V16*(1+'[1]BM Power Utils'!H$26)</f>
-        <v>247608005.13238662</v>
+        <f>V16*(1+'[1]BM Power Utils'!J$26)</f>
+        <v>263645989.85427621</v>
       </c>
       <c r="X16">
-        <f>W16*(1+'[1]BM Power Utils'!I$26)</f>
-        <v>255501189.05588439</v>
+        <f>W16*(1+'[1]BM Power Utils'!K$26)</f>
+        <v>272050428.50519866</v>
       </c>
       <c r="Y16">
-        <f>X16*(1+'[1]BM Power Utils'!J$26)</f>
-        <v>263645989.85427621</v>
+        <f>X16*(1+'[1]BM Power Utils'!L$26)</f>
+        <v>280722781.67693806</v>
       </c>
       <c r="Z16">
-        <f>Y16*(1+'[1]BM Power Utils'!K$26)</f>
-        <v>272050428.50519866</v>
+        <f>Y16*(1+'[1]BM Power Utils'!M$26)</f>
+        <v>289671589.87927091</v>
       </c>
       <c r="AA16">
-        <f>Z16*(1+'[1]BM Power Utils'!L$26)</f>
-        <v>280722781.67693806</v>
+        <f>Z16*(1+'[1]BM Power Utils'!N$26)</f>
+        <v>295897871.04506397</v>
       </c>
       <c r="AB16">
-        <f>AA16*(1+'[1]BM Power Utils'!M$26)</f>
-        <v>289671589.87927091</v>
+        <f>AA16*(1+'[1]BM Power Utils'!O$26)</f>
+        <v>302257981.61805457</v>
       </c>
       <c r="AC16">
-        <f>AB16*(1+'[1]BM Power Utils'!N$26)</f>
-        <v>295897871.04506397</v>
+        <f>AB16*(1+'[1]BM Power Utils'!P$26)</f>
+        <v>308754798.1644873</v>
       </c>
       <c r="AD16">
-        <f>AC16*(1+'[1]BM Power Utils'!O$26)</f>
-        <v>302257981.61805457</v>
+        <f>AC16*(1+'[1]BM Power Utils'!Q$26)</f>
+        <v>315391259.08031619</v>
       </c>
       <c r="AE16">
-        <f>AD16*(1+'[1]BM Power Utils'!P$26)</f>
-        <v>308754798.1644873</v>
+        <f>AD16*(1+'[1]BM Power Utils'!R$26)</f>
+        <v>322170365.9201895</v>
       </c>
       <c r="AF16">
-        <f>AE16*(1+'[1]BM Power Utils'!Q$26)</f>
-        <v>315391259.08031619</v>
+        <f>AE16*(1+'[1]BM Power Utils'!S$26)</f>
+        <v>333190903.8144626</v>
       </c>
       <c r="AG16">
-        <f>AF16*(1+'[1]BM Power Utils'!R$26)</f>
-        <v>322170365.9201895</v>
+        <f>AF16*(1+'[1]BM Power Utils'!T$26)</f>
+        <v>344588423.17049181</v>
       </c>
       <c r="AH16">
-        <f>AG16*(1+'[1]BM Power Utils'!S$26)</f>
-        <v>333190903.8144626</v>
+        <f>AG16*(1+'[1]BM Power Utils'!U$26)</f>
+        <v>356375819.45888591</v>
       </c>
       <c r="AI16">
-        <f>AH16*(1+'[1]BM Power Utils'!T$26)</f>
-        <v>344588423.17049181</v>
+        <f>AH16*(1+'[1]BM Power Utils'!V$26)</f>
+        <v>368566429.26786572</v>
       </c>
       <c r="AJ16">
-        <f>AI16*(1+'[1]BM Power Utils'!U$26)</f>
-        <v>356375819.45888591</v>
+        <f>AI16*(1+'[1]BM Power Utils'!W$26)</f>
+        <v>381174045.39265126</v>
       </c>
       <c r="AK16">
-        <f>AJ16*(1+'[1]BM Power Utils'!V$26)</f>
-        <v>368566429.26786572</v>
+        <f>AJ16*(1+'[1]BM Power Utils'!X$26)</f>
+        <v>386622158.17350197</v>
       </c>
       <c r="AL16">
-        <f>AK16*(1+'[1]BM Power Utils'!W$26)</f>
-        <v>381174045.39265126</v>
+        <f>AK16*(1+'[1]BM Power Utils'!Y$26)</f>
+        <v>392148140.71813029</v>
       </c>
       <c r="AM16">
-        <f>AL16*(1+'[1]BM Power Utils'!X$26)</f>
-        <v>386622158.17350197</v>
+        <f>AL16*(1+'[1]BM Power Utils'!Z$26)</f>
+        <v>397753106.01746619</v>
       </c>
       <c r="AN16">
-        <f>AM16*(1+'[1]BM Power Utils'!Y$26)</f>
-        <v>392148140.71813029</v>
+        <f>AM16*(1+'[1]BM Power Utils'!AA$26)</f>
+        <v>403438182.97039616</v>
       </c>
       <c r="AO16">
-        <f>AN16*(1+'[1]BM Power Utils'!Z$26)</f>
-        <v>397753106.01746619</v>
+        <f>AN16*(1+'[1]BM Power Utils'!AB$26)</f>
+        <v>409204516.61113513</v>
       </c>
       <c r="AP16">
-        <f>AO16*(1+'[1]BM Power Utils'!AA$26)</f>
-        <v>403438182.97039616</v>
+        <f>AO16*(1+'[1]BM Power Utils'!AC$26)</f>
+        <v>410525014.68348956</v>
       </c>
       <c r="AQ16">
-        <f>AP16*(1+'[1]BM Power Utils'!AB$26)</f>
-        <v>409204516.61113513</v>
+        <f>AP16*(1+'[1]BM Power Utils'!AD$26)</f>
+        <v>411849773.98730236</v>
       </c>
       <c r="AR16">
-        <f>AQ16*(1+'[1]BM Power Utils'!AC$26)</f>
-        <v>410525014.68348956</v>
+        <f>AQ16*(1+'[1]BM Power Utils'!AE$26)</f>
+        <v>413178808.27351642</v>
       </c>
       <c r="AS16">
-        <f>AR16*(1+'[1]BM Power Utils'!AD$26)</f>
-        <v>411849773.98730236</v>
+        <f>AR16*(1+'[1]BM Power Utils'!AF$26)</f>
+        <v>414512131.33744872</v>
       </c>
       <c r="AT16">
-        <f>AS16*(1+'[1]BM Power Utils'!AE$26)</f>
-        <v>413178808.27351642</v>
-      </c>
-      <c r="AU16">
-        <f>AT16*(1+'[1]BM Power Utils'!AF$26)</f>
-        <v>414512131.33744872</v>
-      </c>
-      <c r="AV16">
-        <f>AU16*(1+'[1]BM Power Utils'!AG$26)</f>
+        <f>AS16*(1+'[1]BM Power Utils'!AG$26)</f>
         <v>415849757.01893353</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:46">
       <c r="A17" t="s">
         <v>182</v>
       </c>
-      <c r="B17" t="str">
-        <f>A9</f>
-        <v>Company AN</v>
-      </c>
-      <c r="C17" t="str">
-        <f>D9</f>
-        <v>US24703L1035</v>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
         <v>194</v>
@@ -21448,31 +21327,33 @@
       <c r="I17" t="s">
         <v>194</v>
       </c>
-      <c r="J17" t="s">
-        <v>194</v>
-      </c>
-      <c r="K17" t="s">
-        <v>194</v>
+      <c r="J17">
+        <v>91200001.396088406</v>
+      </c>
+      <c r="K17">
+        <v>92479001.396088406</v>
       </c>
       <c r="L17">
-        <v>91200001.396088406</v>
+        <v>90800001.396088406</v>
       </c>
       <c r="M17">
-        <v>92479001.396088406</v>
+        <v>93100001.396088406</v>
       </c>
       <c r="N17">
-        <v>90800001.396088406</v>
+        <v>92500001.396088406</v>
       </c>
       <c r="O17">
-        <v>93100001.396088406</v>
+        <v>89800001.396088406</v>
       </c>
       <c r="P17">
-        <v>92500001.396088406</v>
+        <v>71500001.396088406</v>
       </c>
       <c r="Q17">
-        <v>89800001.396088406</v>
+        <f>P17*(1+[1]readme!$B$1)</f>
+        <v>71500001.396088406</v>
       </c>
       <c r="R17">
+        <f>Q17*(1+[1]readme!$B$1)</f>
         <v>71500001.396088406</v>
       </c>
       <c r="S17">
@@ -21587,35 +21468,25 @@
         <f>AS17*(1+[1]readme!$B$1)</f>
         <v>71500001.396088406</v>
       </c>
-      <c r="AU17">
-        <f>AT17*(1+[1]readme!$B$1)</f>
-        <v>71500001.396088406</v>
-      </c>
-      <c r="AV17">
-        <f>AU17*(1+[1]readme!$B$1)</f>
-        <v>71500001.396088406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:48">
+    </row>
+    <row r="18" spans="1:46">
       <c r="A18" t="s">
         <v>184</v>
       </c>
-      <c r="B18" t="str">
-        <f>A10</f>
-        <v>Company AO</v>
-      </c>
-      <c r="C18" t="str">
-        <f>D10</f>
-        <v>TW0002308004</v>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
         <v>194</v>
@@ -21647,11 +21518,13 @@
       <c r="P18" t="s">
         <v>194</v>
       </c>
-      <c r="Q18" t="s">
-        <v>194</v>
-      </c>
-      <c r="R18" t="s">
-        <v>194</v>
+      <c r="Q18" t="e">
+        <f>P18*(1+[1]readme!$B$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R18" t="e">
+        <f>Q18*(1+[1]readme!$B$1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S18" t="e">
         <f>R18*(1+[1]readme!$B$1)</f>
@@ -21765,35 +21638,25 @@
         <f>AS18*(1+[1]readme!$B$1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AU18" t="e">
-        <f>AT18*(1+[1]readme!$B$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV18" t="e">
-        <f>AU18*(1+[1]readme!$B$1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48">
+    </row>
+    <row r="19" spans="1:46">
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="str">
-        <f>A10</f>
-        <v>Company AO</v>
-      </c>
-      <c r="C19" t="str">
-        <f>D10</f>
-        <v>TW0002308004</v>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
         <v>194</v>
@@ -21825,11 +21688,13 @@
       <c r="P19" t="s">
         <v>194</v>
       </c>
-      <c r="Q19" t="s">
-        <v>194</v>
-      </c>
-      <c r="R19" t="s">
-        <v>194</v>
+      <c r="Q19" t="e">
+        <f>P19*(1+[1]readme!$B$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R19" t="e">
+        <f>Q19*(1+[1]readme!$B$1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S19" t="e">
         <f>R19*(1+[1]readme!$B$1)</f>
@@ -21943,35 +21808,25 @@
         <f>AS19*(1+[1]readme!$B$1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AU19" t="e">
-        <f>AT19*(1+[1]readme!$B$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV19" t="e">
-        <f>AU19*(1+[1]readme!$B$1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:48">
+    </row>
+    <row r="20" spans="1:46">
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="str">
-        <f>A11</f>
-        <v>Company AP</v>
-      </c>
-      <c r="C20" t="str">
-        <f>D11</f>
-        <v>FR0000120321</v>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
         <v>194</v>
@@ -21991,165 +21846,157 @@
       <c r="L20" t="s">
         <v>194</v>
       </c>
-      <c r="M20" t="s">
-        <v>194</v>
-      </c>
-      <c r="N20" t="s">
-        <v>194</v>
+      <c r="M20">
+        <v>16120000.4760821</v>
+      </c>
+      <c r="N20">
+        <v>15342000.4760821</v>
       </c>
       <c r="O20">
-        <v>16120000.4760821</v>
+        <v>12453000.4760821</v>
       </c>
       <c r="P20">
-        <v>15342000.4760821</v>
+        <v>12194000.4760821</v>
       </c>
       <c r="Q20">
-        <v>12453000.4760821</v>
+        <f>P20*(1+'[1]BM Steel'!D$24)</f>
+        <v>12376910.48322333</v>
       </c>
       <c r="R20">
-        <v>12194000.4760821</v>
+        <f>Q20*(1+'[1]BM Steel'!E$24)</f>
+        <v>12562564.140471678</v>
       </c>
       <c r="S20">
-        <f>R20*(1+'[1]BM Steel'!D$24)</f>
-        <v>12376910.48322333</v>
+        <f>R20*(1+'[1]BM Steel'!F$24)</f>
+        <v>12751002.602578752</v>
       </c>
       <c r="T20">
-        <f>S20*(1+'[1]BM Steel'!E$24)</f>
-        <v>12562564.140471678</v>
+        <f>S20*(1+'[1]BM Steel'!G$24)</f>
+        <v>12942267.641617432</v>
       </c>
       <c r="U20">
-        <f>T20*(1+'[1]BM Steel'!F$24)</f>
-        <v>12751002.602578752</v>
+        <f>T20*(1+'[1]BM Steel'!H$24)</f>
+        <v>13136401.656241693</v>
       </c>
       <c r="V20">
-        <f>U20*(1+'[1]BM Steel'!G$24)</f>
-        <v>12942267.641617432</v>
+        <f>U20*(1+'[1]BM Steel'!I$24)</f>
+        <v>13333447.681085316</v>
       </c>
       <c r="W20">
-        <f>V20*(1+'[1]BM Steel'!H$24)</f>
-        <v>13136401.656241693</v>
+        <f>V20*(1+'[1]BM Steel'!J$24)</f>
+        <v>13533449.396301595</v>
       </c>
       <c r="X20">
-        <f>W20*(1+'[1]BM Steel'!I$24)</f>
-        <v>13333447.681085316</v>
+        <f>W20*(1+'[1]BM Steel'!K$24)</f>
+        <v>13736451.137246119</v>
       </c>
       <c r="Y20">
-        <f>X20*(1+'[1]BM Steel'!J$24)</f>
-        <v>13533449.396301595</v>
+        <f>X20*(1+'[1]BM Steel'!L$24)</f>
+        <v>13942497.90430481</v>
       </c>
       <c r="Z20">
-        <f>Y20*(1+'[1]BM Steel'!K$24)</f>
-        <v>13736451.137246119</v>
+        <f>Y20*(1+'[1]BM Steel'!M$24)</f>
+        <v>14151635.37286938</v>
       </c>
       <c r="AA20">
-        <f>Z20*(1+'[1]BM Steel'!L$24)</f>
-        <v>13942497.90430481</v>
+        <f>Z20*(1+'[1]BM Steel'!N$24)</f>
+        <v>14363909.903462419</v>
       </c>
       <c r="AB20">
-        <f>AA20*(1+'[1]BM Steel'!M$24)</f>
-        <v>14151635.37286938</v>
+        <f>AA20*(1+'[1]BM Steel'!O$24)</f>
+        <v>14579368.552014355</v>
       </c>
       <c r="AC20">
-        <f>AB20*(1+'[1]BM Steel'!N$24)</f>
-        <v>14363909.903462419</v>
+        <f>AB20*(1+'[1]BM Steel'!P$24)</f>
+        <v>14798059.080294568</v>
       </c>
       <c r="AD20">
-        <f>AC20*(1+'[1]BM Steel'!O$24)</f>
-        <v>14579368.552014355</v>
+        <f>AC20*(1+'[1]BM Steel'!Q$24)</f>
+        <v>15020029.966498986</v>
       </c>
       <c r="AE20">
-        <f>AD20*(1+'[1]BM Steel'!P$24)</f>
-        <v>14798059.080294568</v>
+        <f>AD20*(1+'[1]BM Steel'!R$24)</f>
+        <v>15245330.41599647</v>
       </c>
       <c r="AF20">
-        <f>AE20*(1+'[1]BM Steel'!Q$24)</f>
-        <v>15020029.966498986</v>
+        <f>AE20*(1+'[1]BM Steel'!S$24)</f>
+        <v>15474010.372236416</v>
       </c>
       <c r="AG20">
-        <f>AF20*(1+'[1]BM Steel'!R$24)</f>
-        <v>15245330.41599647</v>
+        <f>AF20*(1+'[1]BM Steel'!T$24)</f>
+        <v>15706120.527819961</v>
       </c>
       <c r="AH20">
-        <f>AG20*(1+'[1]BM Steel'!S$24)</f>
-        <v>15474010.372236416</v>
+        <f>AG20*(1+'[1]BM Steel'!U$24)</f>
+        <v>15941712.33573726</v>
       </c>
       <c r="AI20">
-        <f>AH20*(1+'[1]BM Steel'!T$24)</f>
-        <v>15706120.527819961</v>
+        <f>AH20*(1+'[1]BM Steel'!V$24)</f>
+        <v>16180838.020773318</v>
       </c>
       <c r="AJ20">
-        <f>AI20*(1+'[1]BM Steel'!U$24)</f>
-        <v>15941712.33573726</v>
+        <f>AI20*(1+'[1]BM Steel'!W$24)</f>
+        <v>16423550.591084916</v>
       </c>
       <c r="AK20">
-        <f>AJ20*(1+'[1]BM Steel'!V$24)</f>
-        <v>16180838.020773318</v>
+        <f>AJ20*(1+'[1]BM Steel'!X$24)</f>
+        <v>16669903.849951189</v>
       </c>
       <c r="AL20">
-        <f>AK20*(1+'[1]BM Steel'!W$24)</f>
-        <v>16423550.591084916</v>
+        <f>AK20*(1+'[1]BM Steel'!Y$24)</f>
+        <v>16919952.407700457</v>
       </c>
       <c r="AM20">
-        <f>AL20*(1+'[1]BM Steel'!X$24)</f>
-        <v>16669903.849951189</v>
+        <f>AL20*(1+'[1]BM Steel'!Z$24)</f>
+        <v>17173751.693815961</v>
       </c>
       <c r="AN20">
-        <f>AM20*(1+'[1]BM Steel'!Y$24)</f>
-        <v>16919952.407700457</v>
+        <f>AM20*(1+'[1]BM Steel'!AA$24)</f>
+        <v>17431357.969223198</v>
       </c>
       <c r="AO20">
-        <f>AN20*(1+'[1]BM Steel'!Z$24)</f>
-        <v>17173751.693815961</v>
+        <f>AN20*(1+'[1]BM Steel'!AB$24)</f>
+        <v>17692828.338761542</v>
       </c>
       <c r="AP20">
-        <f>AO20*(1+'[1]BM Steel'!AA$24)</f>
-        <v>17431357.969223198</v>
+        <f>AO20*(1+'[1]BM Steel'!AC$24)</f>
+        <v>17958220.763842963</v>
       </c>
       <c r="AQ20">
-        <f>AP20*(1+'[1]BM Steel'!AB$24)</f>
-        <v>17692828.338761542</v>
+        <f>AP20*(1+'[1]BM Steel'!AD$24)</f>
+        <v>18227594.075300604</v>
       </c>
       <c r="AR20">
-        <f>AQ20*(1+'[1]BM Steel'!AC$24)</f>
-        <v>17958220.763842963</v>
+        <f>AQ20*(1+'[1]BM Steel'!AE$24)</f>
+        <v>18501007.986430112</v>
       </c>
       <c r="AS20">
-        <f>AR20*(1+'[1]BM Steel'!AD$24)</f>
-        <v>18227594.075300604</v>
+        <f>AR20*(1+'[1]BM Steel'!AF$24)</f>
+        <v>18778523.106226563</v>
       </c>
       <c r="AT20">
-        <f>AS20*(1+'[1]BM Steel'!AE$24)</f>
-        <v>18501007.986430112</v>
-      </c>
-      <c r="AU20">
-        <f>AT20*(1+'[1]BM Steel'!AF$24)</f>
-        <v>18778523.106226563</v>
-      </c>
-      <c r="AV20">
-        <f>AU20*(1+'[1]BM Steel'!AG$24)</f>
+        <f>AS20*(1+'[1]BM Steel'!AG$24)</f>
         <v>19060200.952819958</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:46">
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="str">
-        <f>A11</f>
-        <v>Company AP</v>
-      </c>
-      <c r="C21" t="str">
-        <f>D11</f>
-        <v>FR0000120321</v>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
         <v>194</v>
@@ -22160,175 +22007,167 @@
       <c r="I21" t="s">
         <v>194</v>
       </c>
-      <c r="J21" t="s">
-        <v>194</v>
-      </c>
-      <c r="K21" t="s">
-        <v>194</v>
+      <c r="J21">
+        <v>19374009.677026</v>
+      </c>
+      <c r="K21">
+        <v>21182009.677026</v>
       </c>
       <c r="L21">
-        <v>19374009.677026</v>
+        <v>22380009.677026</v>
       </c>
       <c r="M21">
-        <v>21182009.677026</v>
+        <v>23290009.677026</v>
       </c>
       <c r="N21">
-        <v>22380009.677026</v>
+        <v>23763009.677026</v>
       </c>
       <c r="O21">
-        <v>23290009.677026</v>
+        <v>23303009.677026</v>
       </c>
       <c r="P21">
-        <v>23763009.677026</v>
+        <f>O21*(1+'[1]BM Steel'!C$24)</f>
+        <v>23652554.822181389</v>
       </c>
       <c r="Q21">
-        <v>23303009.677026</v>
+        <f>P21*(1+'[1]BM Steel'!D$24)</f>
+        <v>24007343.144514106</v>
       </c>
       <c r="R21">
-        <f>Q21*(1+'[1]BM Steel'!C$24)</f>
-        <v>23652554.822181389</v>
+        <f>Q21*(1+'[1]BM Steel'!E$24)</f>
+        <v>24367453.291681815</v>
       </c>
       <c r="S21">
-        <f>R21*(1+'[1]BM Steel'!D$24)</f>
-        <v>24007343.144514106</v>
+        <f>R21*(1+'[1]BM Steel'!F$24)</f>
+        <v>24732965.09105704</v>
       </c>
       <c r="T21">
-        <f>S21*(1+'[1]BM Steel'!E$24)</f>
-        <v>24367453.291681815</v>
+        <f>S21*(1+'[1]BM Steel'!G$24)</f>
+        <v>25103959.567422893</v>
       </c>
       <c r="U21">
-        <f>T21*(1+'[1]BM Steel'!F$24)</f>
-        <v>24732965.09105704</v>
+        <f>T21*(1+'[1]BM Steel'!H$24)</f>
+        <v>25480518.960934233</v>
       </c>
       <c r="V21">
-        <f>U21*(1+'[1]BM Steel'!G$24)</f>
-        <v>25103959.567422893</v>
+        <f>U21*(1+'[1]BM Steel'!I$24)</f>
+        <v>25862726.745348245</v>
       </c>
       <c r="W21">
-        <f>V21*(1+'[1]BM Steel'!H$24)</f>
-        <v>25480518.960934233</v>
+        <f>V21*(1+'[1]BM Steel'!J$24)</f>
+        <v>26250667.646528468</v>
       </c>
       <c r="X21">
-        <f>W21*(1+'[1]BM Steel'!I$24)</f>
-        <v>25862726.745348245</v>
+        <f>W21*(1+'[1]BM Steel'!K$24)</f>
+        <v>26644427.661226392</v>
       </c>
       <c r="Y21">
-        <f>X21*(1+'[1]BM Steel'!J$24)</f>
-        <v>26250667.646528468</v>
+        <f>X21*(1+'[1]BM Steel'!L$24)</f>
+        <v>27044094.076144785</v>
       </c>
       <c r="Z21">
-        <f>Y21*(1+'[1]BM Steel'!K$24)</f>
-        <v>26644427.661226392</v>
+        <f>Y21*(1+'[1]BM Steel'!M$24)</f>
+        <v>27449755.487286955</v>
       </c>
       <c r="AA21">
-        <f>Z21*(1+'[1]BM Steel'!L$24)</f>
-        <v>27044094.076144785</v>
+        <f>Z21*(1+'[1]BM Steel'!N$24)</f>
+        <v>27861501.819596257</v>
       </c>
       <c r="AB21">
-        <f>AA21*(1+'[1]BM Steel'!M$24)</f>
-        <v>27449755.487286955</v>
+        <f>AA21*(1+'[1]BM Steel'!O$24)</f>
+        <v>28279424.3468902</v>
       </c>
       <c r="AC21">
-        <f>AB21*(1+'[1]BM Steel'!N$24)</f>
-        <v>27861501.819596257</v>
+        <f>AB21*(1+'[1]BM Steel'!P$24)</f>
+        <v>28703615.712093551</v>
       </c>
       <c r="AD21">
-        <f>AC21*(1+'[1]BM Steel'!O$24)</f>
-        <v>28279424.3468902</v>
+        <f>AC21*(1+'[1]BM Steel'!Q$24)</f>
+        <v>29134169.94777495</v>
       </c>
       <c r="AE21">
-        <f>AD21*(1+'[1]BM Steel'!P$24)</f>
-        <v>28703615.712093551</v>
+        <f>AD21*(1+'[1]BM Steel'!R$24)</f>
+        <v>29571182.496991571</v>
       </c>
       <c r="AF21">
-        <f>AE21*(1+'[1]BM Steel'!Q$24)</f>
-        <v>29134169.94777495</v>
+        <f>AE21*(1+'[1]BM Steel'!S$24)</f>
+        <v>30014750.23444644</v>
       </c>
       <c r="AG21">
-        <f>AF21*(1+'[1]BM Steel'!R$24)</f>
-        <v>29571182.496991571</v>
+        <f>AF21*(1+'[1]BM Steel'!T$24)</f>
+        <v>30464971.487963133</v>
       </c>
       <c r="AH21">
-        <f>AG21*(1+'[1]BM Steel'!S$24)</f>
-        <v>30014750.23444644</v>
+        <f>AG21*(1+'[1]BM Steel'!U$24)</f>
+        <v>30921946.060282577</v>
       </c>
       <c r="AI21">
-        <f>AH21*(1+'[1]BM Steel'!T$24)</f>
-        <v>30464971.487963133</v>
+        <f>AH21*(1+'[1]BM Steel'!V$24)</f>
+        <v>31385775.251186814</v>
       </c>
       <c r="AJ21">
-        <f>AI21*(1+'[1]BM Steel'!U$24)</f>
-        <v>30921946.060282577</v>
+        <f>AI21*(1+'[1]BM Steel'!W$24)</f>
+        <v>31856561.879954614</v>
       </c>
       <c r="AK21">
-        <f>AJ21*(1+'[1]BM Steel'!V$24)</f>
-        <v>31385775.251186814</v>
+        <f>AJ21*(1+'[1]BM Steel'!X$24)</f>
+        <v>32334410.308153931</v>
       </c>
       <c r="AL21">
-        <f>AK21*(1+'[1]BM Steel'!W$24)</f>
-        <v>31856561.879954614</v>
+        <f>AK21*(1+'[1]BM Steel'!Y$24)</f>
+        <v>32819426.462776236</v>
       </c>
       <c r="AM21">
-        <f>AL21*(1+'[1]BM Steel'!X$24)</f>
-        <v>32334410.308153931</v>
+        <f>AL21*(1+'[1]BM Steel'!Z$24)</f>
+        <v>33311717.859717876</v>
       </c>
       <c r="AN21">
-        <f>AM21*(1+'[1]BM Steel'!Y$24)</f>
-        <v>32819426.462776236</v>
+        <f>AM21*(1+'[1]BM Steel'!AA$24)</f>
+        <v>33811393.627613641</v>
       </c>
       <c r="AO21">
-        <f>AN21*(1+'[1]BM Steel'!Z$24)</f>
-        <v>33311717.859717876</v>
+        <f>AN21*(1+'[1]BM Steel'!AB$24)</f>
+        <v>34318564.532027841</v>
       </c>
       <c r="AP21">
-        <f>AO21*(1+'[1]BM Steel'!AA$24)</f>
-        <v>33811393.627613641</v>
+        <f>AO21*(1+'[1]BM Steel'!AC$24)</f>
+        <v>34833343.000008255</v>
       </c>
       <c r="AQ21">
-        <f>AP21*(1+'[1]BM Steel'!AB$24)</f>
-        <v>34318564.532027841</v>
+        <f>AP21*(1+'[1]BM Steel'!AD$24)</f>
+        <v>35355843.145008378</v>
       </c>
       <c r="AR21">
-        <f>AQ21*(1+'[1]BM Steel'!AC$24)</f>
-        <v>34833343.000008255</v>
+        <f>AQ21*(1+'[1]BM Steel'!AE$24)</f>
+        <v>35886180.792183504</v>
       </c>
       <c r="AS21">
-        <f>AR21*(1+'[1]BM Steel'!AD$24)</f>
-        <v>35355843.145008378</v>
+        <f>AR21*(1+'[1]BM Steel'!AF$24)</f>
+        <v>36424473.504066251</v>
       </c>
       <c r="AT21">
-        <f>AS21*(1+'[1]BM Steel'!AE$24)</f>
-        <v>35886180.792183504</v>
-      </c>
-      <c r="AU21">
-        <f>AT21*(1+'[1]BM Steel'!AF$24)</f>
-        <v>36424473.504066251</v>
-      </c>
-      <c r="AV21">
-        <f>AU21*(1+'[1]BM Steel'!AG$24)</f>
+        <f>AS21*(1+'[1]BM Steel'!AG$24)</f>
         <v>36970840.606627241</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:46">
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="str">
-        <f>A12</f>
-        <v>Company AQ</v>
-      </c>
-      <c r="C22" t="str">
-        <f>D12</f>
-        <v>CH0038863350</v>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="E22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
         <v>194</v>
@@ -22339,174 +22178,166 @@
       <c r="I22" t="s">
         <v>194</v>
       </c>
-      <c r="J22" t="s">
-        <v>194</v>
-      </c>
-      <c r="K22" t="s">
-        <v>194</v>
+      <c r="J22">
+        <v>31580000.2335485</v>
+      </c>
+      <c r="K22">
+        <v>31040000.2335485</v>
       </c>
       <c r="L22">
-        <v>31580000.2335485</v>
+        <v>29751000.2335485</v>
       </c>
       <c r="M22">
-        <v>31040000.2335485</v>
+        <v>30410000.2335485</v>
       </c>
       <c r="N22">
-        <v>29751000.2335485</v>
+        <v>29145000.2335485</v>
       </c>
       <c r="O22">
-        <v>30410000.2335485</v>
+        <v>27880000.2335485</v>
       </c>
       <c r="P22">
-        <v>29145000.2335485</v>
+        <v>28090000.2335485</v>
       </c>
       <c r="Q22">
-        <v>27880000.2335485</v>
+        <f>P22*(1+'[1]BM Steel'!D$24)</f>
+        <v>28511350.237051725</v>
       </c>
       <c r="R22">
-        <v>28090000.2335485</v>
+        <f>Q22*(1+'[1]BM Steel'!E$24)</f>
+        <v>28939020.4906075</v>
       </c>
       <c r="S22">
-        <f>R22*(1+'[1]BM Steel'!D$24)</f>
-        <v>28511350.237051725</v>
+        <f>R22*(1+'[1]BM Steel'!F$24)</f>
+        <v>29373105.797966611</v>
       </c>
       <c r="T22">
-        <f>S22*(1+'[1]BM Steel'!E$24)</f>
-        <v>28939020.4906075</v>
+        <f>S22*(1+'[1]BM Steel'!G$24)</f>
+        <v>29813702.384936105</v>
       </c>
       <c r="U22">
-        <f>T22*(1+'[1]BM Steel'!F$24)</f>
-        <v>29373105.797966611</v>
+        <f>T22*(1+'[1]BM Steel'!H$24)</f>
+        <v>30260907.920710143</v>
       </c>
       <c r="V22">
-        <f>U22*(1+'[1]BM Steel'!G$24)</f>
-        <v>29813702.384936105</v>
+        <f>U22*(1+'[1]BM Steel'!I$24)</f>
+        <v>30714821.539520793</v>
       </c>
       <c r="W22">
-        <f>V22*(1+'[1]BM Steel'!H$24)</f>
-        <v>30260907.920710143</v>
+        <f>V22*(1+'[1]BM Steel'!J$24)</f>
+        <v>31175543.8626136</v>
       </c>
       <c r="X22">
-        <f>W22*(1+'[1]BM Steel'!I$24)</f>
-        <v>30714821.539520793</v>
+        <f>W22*(1+'[1]BM Steel'!K$24)</f>
+        <v>31643177.020552799</v>
       </c>
       <c r="Y22">
-        <f>X22*(1+'[1]BM Steel'!J$24)</f>
-        <v>31175543.8626136</v>
+        <f>X22*(1+'[1]BM Steel'!L$24)</f>
+        <v>32117824.675861087</v>
       </c>
       <c r="Z22">
-        <f>Y22*(1+'[1]BM Steel'!K$24)</f>
-        <v>31643177.020552799</v>
+        <f>Y22*(1+'[1]BM Steel'!M$24)</f>
+        <v>32599592.045999002</v>
       </c>
       <c r="AA22">
-        <f>Z22*(1+'[1]BM Steel'!L$24)</f>
-        <v>32117824.675861087</v>
+        <f>Z22*(1+'[1]BM Steel'!N$24)</f>
+        <v>33088585.926688984</v>
       </c>
       <c r="AB22">
-        <f>AA22*(1+'[1]BM Steel'!M$24)</f>
-        <v>32599592.045999002</v>
+        <f>AA22*(1+'[1]BM Steel'!O$24)</f>
+        <v>33584914.715589315</v>
       </c>
       <c r="AC22">
-        <f>AB22*(1+'[1]BM Steel'!N$24)</f>
-        <v>33088585.926688984</v>
+        <f>AB22*(1+'[1]BM Steel'!P$24)</f>
+        <v>34088688.436323151</v>
       </c>
       <c r="AD22">
-        <f>AC22*(1+'[1]BM Steel'!O$24)</f>
-        <v>33584914.715589315</v>
+        <f>AC22*(1+'[1]BM Steel'!Q$24)</f>
+        <v>34600018.762867995</v>
       </c>
       <c r="AE22">
-        <f>AD22*(1+'[1]BM Steel'!P$24)</f>
-        <v>34088688.436323151</v>
+        <f>AD22*(1+'[1]BM Steel'!R$24)</f>
+        <v>35119019.044311009</v>
       </c>
       <c r="AF22">
-        <f>AE22*(1+'[1]BM Steel'!Q$24)</f>
-        <v>34600018.762867995</v>
+        <f>AE22*(1+'[1]BM Steel'!S$24)</f>
+        <v>35645804.329975672</v>
       </c>
       <c r="AG22">
-        <f>AF22*(1+'[1]BM Steel'!R$24)</f>
-        <v>35119019.044311009</v>
+        <f>AF22*(1+'[1]BM Steel'!T$24)</f>
+        <v>36180491.394925304</v>
       </c>
       <c r="AH22">
-        <f>AG22*(1+'[1]BM Steel'!S$24)</f>
-        <v>35645804.329975672</v>
+        <f>AG22*(1+'[1]BM Steel'!U$24)</f>
+        <v>36723198.765849181</v>
       </c>
       <c r="AI22">
-        <f>AH22*(1+'[1]BM Steel'!T$24)</f>
-        <v>36180491.394925304</v>
+        <f>AH22*(1+'[1]BM Steel'!V$24)</f>
+        <v>37274046.747336917</v>
       </c>
       <c r="AJ22">
-        <f>AI22*(1+'[1]BM Steel'!U$24)</f>
-        <v>36723198.765849181</v>
+        <f>AI22*(1+'[1]BM Steel'!W$24)</f>
+        <v>37833157.448546968</v>
       </c>
       <c r="AK22">
-        <f>AJ22*(1+'[1]BM Steel'!V$24)</f>
-        <v>37274046.747336917</v>
+        <f>AJ22*(1+'[1]BM Steel'!X$24)</f>
+        <v>38400654.810275167</v>
       </c>
       <c r="AL22">
-        <f>AK22*(1+'[1]BM Steel'!W$24)</f>
-        <v>37833157.448546968</v>
+        <f>AK22*(1+'[1]BM Steel'!Y$24)</f>
+        <v>38976664.632429294</v>
       </c>
       <c r="AM22">
-        <f>AL22*(1+'[1]BM Steel'!X$24)</f>
-        <v>38400654.810275167</v>
+        <f>AL22*(1+'[1]BM Steel'!Z$24)</f>
+        <v>39561314.601915732</v>
       </c>
       <c r="AN22">
-        <f>AM22*(1+'[1]BM Steel'!Y$24)</f>
-        <v>38976664.632429294</v>
+        <f>AM22*(1+'[1]BM Steel'!AA$24)</f>
+        <v>40154734.320944466</v>
       </c>
       <c r="AO22">
-        <f>AN22*(1+'[1]BM Steel'!Z$24)</f>
-        <v>39561314.601915732</v>
+        <f>AN22*(1+'[1]BM Steel'!AB$24)</f>
+        <v>40757055.335758626</v>
       </c>
       <c r="AP22">
-        <f>AO22*(1+'[1]BM Steel'!AA$24)</f>
-        <v>40154734.320944466</v>
+        <f>AO22*(1+'[1]BM Steel'!AC$24)</f>
+        <v>41368411.165794998</v>
       </c>
       <c r="AQ22">
-        <f>AP22*(1+'[1]BM Steel'!AB$24)</f>
-        <v>40757055.335758626</v>
+        <f>AP22*(1+'[1]BM Steel'!AD$24)</f>
+        <v>41988937.333281919</v>
       </c>
       <c r="AR22">
-        <f>AQ22*(1+'[1]BM Steel'!AC$24)</f>
-        <v>41368411.165794998</v>
+        <f>AQ22*(1+'[1]BM Steel'!AE$24)</f>
+        <v>42618771.393281147</v>
       </c>
       <c r="AS22">
-        <f>AR22*(1+'[1]BM Steel'!AD$24)</f>
-        <v>41988937.333281919</v>
+        <f>AR22*(1+'[1]BM Steel'!AF$24)</f>
+        <v>43258052.964180358</v>
       </c>
       <c r="AT22">
-        <f>AS22*(1+'[1]BM Steel'!AE$24)</f>
-        <v>42618771.393281147</v>
-      </c>
-      <c r="AU22">
-        <f>AT22*(1+'[1]BM Steel'!AF$24)</f>
-        <v>43258052.964180358</v>
-      </c>
-      <c r="AV22">
-        <f>AU22*(1+'[1]BM Steel'!AG$24)</f>
+        <f>AS22*(1+'[1]BM Steel'!AG$24)</f>
         <v>43906923.758643061</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:46">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="str">
-        <f>A12</f>
-        <v>Company AQ</v>
-      </c>
-      <c r="C23" t="str">
-        <f>D12</f>
-        <v>CH0038863350</v>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>192</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
         <v>194</v>
@@ -22517,14 +22348,14 @@
       <c r="I23" t="s">
         <v>194</v>
       </c>
-      <c r="J23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K23" t="s">
-        <v>194</v>
+      <c r="J23">
+        <v>12170001.0468216</v>
+      </c>
+      <c r="K23">
+        <v>12630001.0468216</v>
       </c>
       <c r="L23">
-        <v>12170001.0468216</v>
+        <v>12630001.0468216</v>
       </c>
       <c r="M23">
         <v>12630001.0468216</v>
@@ -22536,156 +22367,148 @@
         <v>12630001.0468216</v>
       </c>
       <c r="P23">
-        <v>12630001.0468216</v>
+        <f>O23*(1+'[1]BM Steel'!C$24)</f>
+        <v>12819451.062523922</v>
       </c>
       <c r="Q23">
-        <v>12630001.0468216</v>
+        <f>P23*(1+'[1]BM Steel'!D$24)</f>
+        <v>13011742.828461779</v>
       </c>
       <c r="R23">
-        <f>Q23*(1+'[1]BM Steel'!C$24)</f>
-        <v>12819451.062523922</v>
+        <f>Q23*(1+'[1]BM Steel'!E$24)</f>
+        <v>13206918.970888704</v>
       </c>
       <c r="S23">
-        <f>R23*(1+'[1]BM Steel'!D$24)</f>
-        <v>13011742.828461779</v>
+        <f>R23*(1+'[1]BM Steel'!F$24)</f>
+        <v>13405022.755452033</v>
       </c>
       <c r="T23">
-        <f>S23*(1+'[1]BM Steel'!E$24)</f>
-        <v>13206918.970888704</v>
+        <f>S23*(1+'[1]BM Steel'!G$24)</f>
+        <v>13606098.096783813</v>
       </c>
       <c r="U23">
-        <f>T23*(1+'[1]BM Steel'!F$24)</f>
-        <v>13405022.755452033</v>
+        <f>T23*(1+'[1]BM Steel'!H$24)</f>
+        <v>13810189.568235569</v>
       </c>
       <c r="V23">
-        <f>U23*(1+'[1]BM Steel'!G$24)</f>
-        <v>13606098.096783813</v>
+        <f>U23*(1+'[1]BM Steel'!I$24)</f>
+        <v>14017342.411759101</v>
       </c>
       <c r="W23">
-        <f>V23*(1+'[1]BM Steel'!H$24)</f>
-        <v>13810189.568235569</v>
+        <f>V23*(1+'[1]BM Steel'!J$24)</f>
+        <v>14227602.547935486</v>
       </c>
       <c r="X23">
-        <f>W23*(1+'[1]BM Steel'!I$24)</f>
-        <v>14017342.411759101</v>
+        <f>W23*(1+'[1]BM Steel'!K$24)</f>
+        <v>14441016.586154517</v>
       </c>
       <c r="Y23">
-        <f>X23*(1+'[1]BM Steel'!J$24)</f>
-        <v>14227602.547935486</v>
+        <f>X23*(1+'[1]BM Steel'!L$24)</f>
+        <v>14657631.834946834</v>
       </c>
       <c r="Z23">
-        <f>Y23*(1+'[1]BM Steel'!K$24)</f>
-        <v>14441016.586154517</v>
+        <f>Y23*(1+'[1]BM Steel'!M$24)</f>
+        <v>14877496.312471034</v>
       </c>
       <c r="AA23">
-        <f>Z23*(1+'[1]BM Steel'!L$24)</f>
-        <v>14657631.834946834</v>
+        <f>Z23*(1+'[1]BM Steel'!N$24)</f>
+        <v>15100658.757158099</v>
       </c>
       <c r="AB23">
-        <f>AA23*(1+'[1]BM Steel'!M$24)</f>
-        <v>14877496.312471034</v>
+        <f>AA23*(1+'[1]BM Steel'!O$24)</f>
+        <v>15327168.638515469</v>
       </c>
       <c r="AC23">
-        <f>AB23*(1+'[1]BM Steel'!N$24)</f>
-        <v>15100658.757158099</v>
+        <f>AB23*(1+'[1]BM Steel'!P$24)</f>
+        <v>15557076.168093199</v>
       </c>
       <c r="AD23">
-        <f>AC23*(1+'[1]BM Steel'!O$24)</f>
-        <v>15327168.638515469</v>
+        <f>AC23*(1+'[1]BM Steel'!Q$24)</f>
+        <v>15790432.310614595</v>
       </c>
       <c r="AE23">
-        <f>AD23*(1+'[1]BM Steel'!P$24)</f>
-        <v>15557076.168093199</v>
+        <f>AD23*(1+'[1]BM Steel'!R$24)</f>
+        <v>16027288.795273812</v>
       </c>
       <c r="AF23">
-        <f>AE23*(1+'[1]BM Steel'!Q$24)</f>
-        <v>15790432.310614595</v>
+        <f>AE23*(1+'[1]BM Steel'!S$24)</f>
+        <v>16267698.127202919</v>
       </c>
       <c r="AG23">
-        <f>AF23*(1+'[1]BM Steel'!R$24)</f>
-        <v>16027288.795273812</v>
+        <f>AF23*(1+'[1]BM Steel'!T$24)</f>
+        <v>16511713.599110961</v>
       </c>
       <c r="AH23">
-        <f>AG23*(1+'[1]BM Steel'!S$24)</f>
-        <v>16267698.127202919</v>
+        <f>AG23*(1+'[1]BM Steel'!U$24)</f>
+        <v>16759389.303097624</v>
       </c>
       <c r="AI23">
-        <f>AH23*(1+'[1]BM Steel'!T$24)</f>
-        <v>16511713.599110961</v>
+        <f>AH23*(1+'[1]BM Steel'!V$24)</f>
+        <v>17010780.142644089</v>
       </c>
       <c r="AJ23">
-        <f>AI23*(1+'[1]BM Steel'!U$24)</f>
-        <v>16759389.303097624</v>
+        <f>AI23*(1+'[1]BM Steel'!W$24)</f>
+        <v>17265941.844783749</v>
       </c>
       <c r="AK23">
-        <f>AJ23*(1+'[1]BM Steel'!V$24)</f>
-        <v>17010780.142644089</v>
+        <f>AJ23*(1+'[1]BM Steel'!X$24)</f>
+        <v>17524930.972455505</v>
       </c>
       <c r="AL23">
-        <f>AK23*(1+'[1]BM Steel'!W$24)</f>
-        <v>17265941.844783749</v>
+        <f>AK23*(1+'[1]BM Steel'!Y$24)</f>
+        <v>17787804.937042337</v>
       </c>
       <c r="AM23">
-        <f>AL23*(1+'[1]BM Steel'!X$24)</f>
-        <v>17524930.972455505</v>
+        <f>AL23*(1+'[1]BM Steel'!Z$24)</f>
+        <v>18054622.011097971</v>
       </c>
       <c r="AN23">
-        <f>AM23*(1+'[1]BM Steel'!Y$24)</f>
-        <v>17787804.937042337</v>
+        <f>AM23*(1+'[1]BM Steel'!AA$24)</f>
+        <v>18325441.341264438</v>
       </c>
       <c r="AO23">
-        <f>AN23*(1+'[1]BM Steel'!Z$24)</f>
-        <v>18054622.011097971</v>
+        <f>AN23*(1+'[1]BM Steel'!AB$24)</f>
+        <v>18600322.961383402</v>
       </c>
       <c r="AP23">
-        <f>AO23*(1+'[1]BM Steel'!AA$24)</f>
-        <v>18325441.341264438</v>
+        <f>AO23*(1+'[1]BM Steel'!AC$24)</f>
+        <v>18879327.805804152</v>
       </c>
       <c r="AQ23">
-        <f>AP23*(1+'[1]BM Steel'!AB$24)</f>
-        <v>18600322.961383402</v>
+        <f>AP23*(1+'[1]BM Steel'!AD$24)</f>
+        <v>19162517.722891212</v>
       </c>
       <c r="AR23">
-        <f>AQ23*(1+'[1]BM Steel'!AC$24)</f>
-        <v>18879327.805804152</v>
+        <f>AQ23*(1+'[1]BM Steel'!AE$24)</f>
+        <v>19449955.488734577</v>
       </c>
       <c r="AS23">
-        <f>AR23*(1+'[1]BM Steel'!AD$24)</f>
-        <v>19162517.722891212</v>
+        <f>AR23*(1+'[1]BM Steel'!AF$24)</f>
+        <v>19741704.821065594</v>
       </c>
       <c r="AT23">
-        <f>AS23*(1+'[1]BM Steel'!AE$24)</f>
-        <v>19449955.488734577</v>
-      </c>
-      <c r="AU23">
-        <f>AT23*(1+'[1]BM Steel'!AF$24)</f>
-        <v>19741704.821065594</v>
-      </c>
-      <c r="AV23">
-        <f>AU23*(1+'[1]BM Steel'!AG$24)</f>
+        <f>AS23*(1+'[1]BM Steel'!AG$24)</f>
         <v>20037830.393381577</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:46">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="str">
-        <f>A13</f>
-        <v>Company AR</v>
-      </c>
-      <c r="C24" t="str">
-        <f>D13</f>
-        <v>US8356993076</v>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>192</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
         <v>194</v>
@@ -22693,177 +22516,169 @@
       <c r="H24" t="s">
         <v>194</v>
       </c>
-      <c r="I24" t="s">
-        <v>194</v>
-      </c>
-      <c r="J24" t="s">
-        <v>194</v>
+      <c r="I24">
+        <v>23001000.829291299</v>
+      </c>
+      <c r="J24">
+        <v>25222000.829291299</v>
       </c>
       <c r="K24">
-        <v>23001000.829291299</v>
+        <v>23424000.829291299</v>
       </c>
       <c r="L24">
-        <v>25222000.829291299</v>
+        <v>24100000.829291299</v>
       </c>
       <c r="M24">
-        <v>23424000.829291299</v>
+        <v>24193000.829291299</v>
       </c>
       <c r="N24">
-        <v>24100000.829291299</v>
+        <v>24328000.829291299</v>
       </c>
       <c r="O24">
-        <v>24193000.829291299</v>
+        <v>23779000.829291299</v>
       </c>
       <c r="P24">
-        <v>24328000.829291299</v>
+        <v>22329000.829291299</v>
       </c>
       <c r="Q24">
-        <v>23779000.829291299</v>
+        <f>P24*(1+'[1]BM Steel'!D$24)</f>
+        <v>22663935.841730665</v>
       </c>
       <c r="R24">
-        <v>22329000.829291299</v>
+        <f>Q24*(1+'[1]BM Steel'!E$24)</f>
+        <v>23003894.879356623</v>
       </c>
       <c r="S24">
-        <f>R24*(1+'[1]BM Steel'!D$24)</f>
-        <v>22663935.841730665</v>
+        <f>R24*(1+'[1]BM Steel'!F$24)</f>
+        <v>23348953.302546971</v>
       </c>
       <c r="T24">
-        <f>S24*(1+'[1]BM Steel'!E$24)</f>
-        <v>23003894.879356623</v>
+        <f>S24*(1+'[1]BM Steel'!G$24)</f>
+        <v>23699187.602085173</v>
       </c>
       <c r="U24">
-        <f>T24*(1+'[1]BM Steel'!F$24)</f>
-        <v>23348953.302546971</v>
+        <f>T24*(1+'[1]BM Steel'!H$24)</f>
+        <v>24054675.41611645</v>
       </c>
       <c r="V24">
-        <f>U24*(1+'[1]BM Steel'!G$24)</f>
-        <v>23699187.602085173</v>
+        <f>U24*(1+'[1]BM Steel'!I$24)</f>
+        <v>24415495.547358196</v>
       </c>
       <c r="W24">
-        <f>V24*(1+'[1]BM Steel'!H$24)</f>
-        <v>24054675.41611645</v>
+        <f>V24*(1+'[1]BM Steel'!J$24)</f>
+        <v>24781727.980568565</v>
       </c>
       <c r="X24">
-        <f>W24*(1+'[1]BM Steel'!I$24)</f>
-        <v>24415495.547358196</v>
+        <f>W24*(1+'[1]BM Steel'!K$24)</f>
+        <v>25153453.900277093</v>
       </c>
       <c r="Y24">
-        <f>X24*(1+'[1]BM Steel'!J$24)</f>
-        <v>24781727.980568565</v>
+        <f>X24*(1+'[1]BM Steel'!L$24)</f>
+        <v>25530755.708781246</v>
       </c>
       <c r="Z24">
-        <f>Y24*(1+'[1]BM Steel'!K$24)</f>
-        <v>25153453.900277093</v>
+        <f>Y24*(1+'[1]BM Steel'!M$24)</f>
+        <v>25913717.044412963</v>
       </c>
       <c r="AA24">
-        <f>Z24*(1+'[1]BM Steel'!L$24)</f>
-        <v>25530755.708781246</v>
+        <f>Z24*(1+'[1]BM Steel'!N$24)</f>
+        <v>26302422.800079156</v>
       </c>
       <c r="AB24">
-        <f>AA24*(1+'[1]BM Steel'!M$24)</f>
-        <v>25913717.044412963</v>
+        <f>AA24*(1+'[1]BM Steel'!O$24)</f>
+        <v>26696959.142080341</v>
       </c>
       <c r="AC24">
-        <f>AB24*(1+'[1]BM Steel'!N$24)</f>
-        <v>26302422.800079156</v>
+        <f>AB24*(1+'[1]BM Steel'!P$24)</f>
+        <v>27097413.529211544</v>
       </c>
       <c r="AD24">
-        <f>AC24*(1+'[1]BM Steel'!O$24)</f>
-        <v>26696959.142080341</v>
+        <f>AC24*(1+'[1]BM Steel'!Q$24)</f>
+        <v>27503874.732149713</v>
       </c>
       <c r="AE24">
-        <f>AD24*(1+'[1]BM Steel'!P$24)</f>
-        <v>27097413.529211544</v>
+        <f>AD24*(1+'[1]BM Steel'!R$24)</f>
+        <v>27916432.853131957</v>
       </c>
       <c r="AF24">
-        <f>AE24*(1+'[1]BM Steel'!Q$24)</f>
-        <v>27503874.732149713</v>
+        <f>AE24*(1+'[1]BM Steel'!S$24)</f>
+        <v>28335179.345928933</v>
       </c>
       <c r="AG24">
-        <f>AF24*(1+'[1]BM Steel'!R$24)</f>
-        <v>27916432.853131957</v>
+        <f>AF24*(1+'[1]BM Steel'!T$24)</f>
+        <v>28760207.036117863</v>
       </c>
       <c r="AH24">
-        <f>AG24*(1+'[1]BM Steel'!S$24)</f>
-        <v>28335179.345928933</v>
+        <f>AG24*(1+'[1]BM Steel'!U$24)</f>
+        <v>29191610.141659629</v>
       </c>
       <c r="AI24">
-        <f>AH24*(1+'[1]BM Steel'!T$24)</f>
-        <v>28760207.036117863</v>
+        <f>AH24*(1+'[1]BM Steel'!V$24)</f>
+        <v>29629484.293784522</v>
       </c>
       <c r="AJ24">
-        <f>AI24*(1+'[1]BM Steel'!U$24)</f>
-        <v>29191610.141659629</v>
+        <f>AI24*(1+'[1]BM Steel'!W$24)</f>
+        <v>30073926.558191288</v>
       </c>
       <c r="AK24">
-        <f>AJ24*(1+'[1]BM Steel'!V$24)</f>
-        <v>29629484.293784522</v>
+        <f>AJ24*(1+'[1]BM Steel'!X$24)</f>
+        <v>30525035.456564154</v>
       </c>
       <c r="AL24">
-        <f>AK24*(1+'[1]BM Steel'!W$24)</f>
-        <v>30073926.558191288</v>
+        <f>AK24*(1+'[1]BM Steel'!Y$24)</f>
+        <v>30982910.988412615</v>
       </c>
       <c r="AM24">
-        <f>AL24*(1+'[1]BM Steel'!X$24)</f>
-        <v>30525035.456564154</v>
+        <f>AL24*(1+'[1]BM Steel'!Z$24)</f>
+        <v>31447654.653238799</v>
       </c>
       <c r="AN24">
-        <f>AM24*(1+'[1]BM Steel'!Y$24)</f>
-        <v>30982910.988412615</v>
+        <f>AM24*(1+'[1]BM Steel'!AA$24)</f>
+        <v>31919369.473037377</v>
       </c>
       <c r="AO24">
-        <f>AN24*(1+'[1]BM Steel'!Z$24)</f>
-        <v>31447654.653238799</v>
+        <f>AN24*(1+'[1]BM Steel'!AB$24)</f>
+        <v>32398160.015132934</v>
       </c>
       <c r="AP24">
-        <f>AO24*(1+'[1]BM Steel'!AA$24)</f>
-        <v>31919369.473037377</v>
+        <f>AO24*(1+'[1]BM Steel'!AC$24)</f>
+        <v>32884132.415359925</v>
       </c>
       <c r="AQ24">
-        <f>AP24*(1+'[1]BM Steel'!AB$24)</f>
-        <v>32398160.015132934</v>
+        <f>AP24*(1+'[1]BM Steel'!AD$24)</f>
+        <v>33377394.401590321</v>
       </c>
       <c r="AR24">
-        <f>AQ24*(1+'[1]BM Steel'!AC$24)</f>
-        <v>32884132.415359925</v>
+        <f>AQ24*(1+'[1]BM Steel'!AE$24)</f>
+        <v>33878055.317614175</v>
       </c>
       <c r="AS24">
-        <f>AR24*(1+'[1]BM Steel'!AD$24)</f>
-        <v>33377394.401590321</v>
+        <f>AR24*(1+'[1]BM Steel'!AF$24)</f>
+        <v>34386226.147378385</v>
       </c>
       <c r="AT24">
-        <f>AS24*(1+'[1]BM Steel'!AE$24)</f>
-        <v>33878055.317614175</v>
-      </c>
-      <c r="AU24">
-        <f>AT24*(1+'[1]BM Steel'!AF$24)</f>
-        <v>34386226.147378385</v>
-      </c>
-      <c r="AV24">
-        <f>AU24*(1+'[1]BM Steel'!AG$24)</f>
+        <f>AS24*(1+'[1]BM Steel'!AG$24)</f>
         <v>34902019.539589055</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:46">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="str">
-        <f>A13</f>
-        <v>Company AR</v>
-      </c>
-      <c r="C25" t="str">
-        <f>D13</f>
-        <v>US8356993076</v>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>192</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
         <v>194</v>
@@ -22871,177 +22686,169 @@
       <c r="H25" t="s">
         <v>194</v>
       </c>
-      <c r="I25" t="s">
-        <v>194</v>
-      </c>
-      <c r="J25" t="s">
-        <v>194</v>
+      <c r="I25">
+        <v>46030001.367614098</v>
+      </c>
+      <c r="J25">
+        <v>48160001.367614098</v>
       </c>
       <c r="K25">
-        <v>46030001.367614098</v>
+        <v>47320001.367614098</v>
       </c>
       <c r="L25">
-        <v>48160001.367614098</v>
+        <v>44530001.367614098</v>
       </c>
       <c r="M25">
-        <v>47320001.367614098</v>
+        <v>45170001.367614098</v>
       </c>
       <c r="N25">
-        <v>44530001.367614098</v>
+        <v>46505001.367614098</v>
       </c>
       <c r="O25">
-        <v>45170001.367614098</v>
+        <v>47840001.367614098</v>
       </c>
       <c r="P25">
-        <v>46505001.367614098</v>
+        <v>47050001.367614098</v>
       </c>
       <c r="Q25">
-        <v>47840001.367614098</v>
+        <f>P25*(1+'[1]BM Steel'!D$24)</f>
+        <v>47755751.388128303</v>
       </c>
       <c r="R25">
-        <v>47050001.367614098</v>
+        <f>Q25*(1+'[1]BM Steel'!E$24)</f>
+        <v>48472087.658950225</v>
       </c>
       <c r="S25">
-        <f>R25*(1+'[1]BM Steel'!D$24)</f>
-        <v>47755751.388128303</v>
+        <f>R25*(1+'[1]BM Steel'!F$24)</f>
+        <v>49199168.97383447</v>
       </c>
       <c r="T25">
-        <f>S25*(1+'[1]BM Steel'!E$24)</f>
-        <v>48472087.658950225</v>
+        <f>S25*(1+'[1]BM Steel'!G$24)</f>
+        <v>49937156.508441985</v>
       </c>
       <c r="U25">
-        <f>T25*(1+'[1]BM Steel'!F$24)</f>
-        <v>49199168.97383447</v>
+        <f>T25*(1+'[1]BM Steel'!H$24)</f>
+        <v>50686213.856068611</v>
       </c>
       <c r="V25">
-        <f>U25*(1+'[1]BM Steel'!G$24)</f>
-        <v>49937156.508441985</v>
+        <f>U25*(1+'[1]BM Steel'!I$24)</f>
+        <v>51446507.063909635</v>
       </c>
       <c r="W25">
-        <f>V25*(1+'[1]BM Steel'!H$24)</f>
-        <v>50686213.856068611</v>
+        <f>V25*(1+'[1]BM Steel'!J$24)</f>
+        <v>52218204.669868276</v>
       </c>
       <c r="X25">
-        <f>W25*(1+'[1]BM Steel'!I$24)</f>
-        <v>51446507.063909635</v>
+        <f>W25*(1+'[1]BM Steel'!K$24)</f>
+        <v>53001477.739916295</v>
       </c>
       <c r="Y25">
-        <f>X25*(1+'[1]BM Steel'!J$24)</f>
-        <v>52218204.669868276</v>
+        <f>X25*(1+'[1]BM Steel'!L$24)</f>
+        <v>53796499.906015031</v>
       </c>
       <c r="Z25">
-        <f>Y25*(1+'[1]BM Steel'!K$24)</f>
-        <v>53001477.739916295</v>
+        <f>Y25*(1+'[1]BM Steel'!M$24)</f>
+        <v>54603447.404605255</v>
       </c>
       <c r="AA25">
-        <f>Z25*(1+'[1]BM Steel'!L$24)</f>
-        <v>53796499.906015031</v>
+        <f>Z25*(1+'[1]BM Steel'!N$24)</f>
+        <v>55422499.115674324</v>
       </c>
       <c r="AB25">
-        <f>AA25*(1+'[1]BM Steel'!M$24)</f>
-        <v>54603447.404605255</v>
+        <f>AA25*(1+'[1]BM Steel'!O$24)</f>
+        <v>56253836.602409437</v>
       </c>
       <c r="AC25">
-        <f>AB25*(1+'[1]BM Steel'!N$24)</f>
-        <v>55422499.115674324</v>
+        <f>AB25*(1+'[1]BM Steel'!P$24)</f>
+        <v>57097644.151445575</v>
       </c>
       <c r="AD25">
-        <f>AC25*(1+'[1]BM Steel'!O$24)</f>
-        <v>56253836.602409437</v>
+        <f>AC25*(1+'[1]BM Steel'!Q$24)</f>
+        <v>57954108.813717254</v>
       </c>
       <c r="AE25">
-        <f>AD25*(1+'[1]BM Steel'!P$24)</f>
-        <v>57097644.151445575</v>
+        <f>AD25*(1+'[1]BM Steel'!R$24)</f>
+        <v>58823420.445923008</v>
       </c>
       <c r="AF25">
-        <f>AE25*(1+'[1]BM Steel'!Q$24)</f>
-        <v>57954108.813717254</v>
+        <f>AE25*(1+'[1]BM Steel'!S$24)</f>
+        <v>59705771.752611846</v>
       </c>
       <c r="AG25">
-        <f>AF25*(1+'[1]BM Steel'!R$24)</f>
-        <v>58823420.445923008</v>
+        <f>AF25*(1+'[1]BM Steel'!T$24)</f>
+        <v>60601358.328901015</v>
       </c>
       <c r="AH25">
-        <f>AG25*(1+'[1]BM Steel'!S$24)</f>
-        <v>59705771.752611846</v>
+        <f>AG25*(1+'[1]BM Steel'!U$24)</f>
+        <v>61510378.703834526</v>
       </c>
       <c r="AI25">
-        <f>AH25*(1+'[1]BM Steel'!T$24)</f>
-        <v>60601358.328901015</v>
+        <f>AH25*(1+'[1]BM Steel'!V$24)</f>
+        <v>62433034.384392038</v>
       </c>
       <c r="AJ25">
-        <f>AI25*(1+'[1]BM Steel'!U$24)</f>
-        <v>61510378.703834526</v>
+        <f>AI25*(1+'[1]BM Steel'!W$24)</f>
+        <v>63369529.900157914</v>
       </c>
       <c r="AK25">
-        <f>AJ25*(1+'[1]BM Steel'!V$24)</f>
-        <v>62433034.384392038</v>
+        <f>AJ25*(1+'[1]BM Steel'!X$24)</f>
+        <v>64320072.848660275</v>
       </c>
       <c r="AL25">
-        <f>AK25*(1+'[1]BM Steel'!W$24)</f>
-        <v>63369529.900157914</v>
+        <f>AK25*(1+'[1]BM Steel'!Y$24)</f>
+        <v>65284873.941390172</v>
       </c>
       <c r="AM25">
-        <f>AL25*(1+'[1]BM Steel'!X$24)</f>
-        <v>64320072.848660275</v>
+        <f>AL25*(1+'[1]BM Steel'!Z$24)</f>
+        <v>66264147.050511017</v>
       </c>
       <c r="AN25">
-        <f>AM25*(1+'[1]BM Steel'!Y$24)</f>
-        <v>65284873.941390172</v>
+        <f>AM25*(1+'[1]BM Steel'!AA$24)</f>
+        <v>67258109.25626868</v>
       </c>
       <c r="AO25">
-        <f>AN25*(1+'[1]BM Steel'!Z$24)</f>
-        <v>66264147.050511017</v>
+        <f>AN25*(1+'[1]BM Steel'!AB$24)</f>
+        <v>68266980.895112708</v>
       </c>
       <c r="AP25">
-        <f>AO25*(1+'[1]BM Steel'!AA$24)</f>
-        <v>67258109.25626868</v>
+        <f>AO25*(1+'[1]BM Steel'!AC$24)</f>
+        <v>69290985.608539388</v>
       </c>
       <c r="AQ25">
-        <f>AP25*(1+'[1]BM Steel'!AB$24)</f>
-        <v>68266980.895112708</v>
+        <f>AP25*(1+'[1]BM Steel'!AD$24)</f>
+        <v>70330350.392667472</v>
       </c>
       <c r="AR25">
-        <f>AQ25*(1+'[1]BM Steel'!AC$24)</f>
-        <v>69290985.608539388</v>
+        <f>AQ25*(1+'[1]BM Steel'!AE$24)</f>
+        <v>71385305.648557484</v>
       </c>
       <c r="AS25">
-        <f>AR25*(1+'[1]BM Steel'!AD$24)</f>
-        <v>70330350.392667472</v>
+        <f>AR25*(1+'[1]BM Steel'!AF$24)</f>
+        <v>72456085.233285844</v>
       </c>
       <c r="AT25">
-        <f>AS25*(1+'[1]BM Steel'!AE$24)</f>
-        <v>71385305.648557484</v>
-      </c>
-      <c r="AU25">
-        <f>AT25*(1+'[1]BM Steel'!AF$24)</f>
-        <v>72456085.233285844</v>
-      </c>
-      <c r="AV25">
-        <f>AU25*(1+'[1]BM Steel'!AG$24)</f>
+        <f>AS25*(1+'[1]BM Steel'!AG$24)</f>
         <v>73542926.51178512</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:46">
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="str">
-        <f>A14</f>
-        <v>Company AS</v>
-      </c>
-      <c r="C26" t="str">
-        <f>D14</f>
-        <v>JP3401400001</v>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
         <v>194</v>
@@ -23052,175 +22859,167 @@
       <c r="I26" t="s">
         <v>194</v>
       </c>
-      <c r="J26" t="s">
-        <v>194</v>
-      </c>
-      <c r="K26" t="s">
-        <v>194</v>
+      <c r="J26">
+        <v>15921004.6310296</v>
+      </c>
+      <c r="K26">
+        <v>15855004.6310296</v>
       </c>
       <c r="L26">
-        <v>15921004.6310296</v>
+        <v>16419004.6310296</v>
       </c>
       <c r="M26">
-        <v>15855004.6310296</v>
+        <v>16850004.631029598</v>
       </c>
       <c r="N26">
-        <v>16419004.6310296</v>
+        <v>17286004.631029598</v>
       </c>
       <c r="O26">
-        <v>16850004.631029598</v>
+        <v>15520004.6310296</v>
       </c>
       <c r="P26">
-        <v>17286004.631029598</v>
+        <f>O26*(1+'[1]BM Steel'!C$24)</f>
+        <v>15752804.700495042</v>
       </c>
       <c r="Q26">
-        <v>15520004.6310296</v>
+        <f>P26*(1+'[1]BM Steel'!D$24)</f>
+        <v>15989096.771002466</v>
       </c>
       <c r="R26">
-        <f>Q26*(1+'[1]BM Steel'!C$24)</f>
-        <v>15752804.700495042</v>
+        <f>Q26*(1+'[1]BM Steel'!E$24)</f>
+        <v>16228933.222567501</v>
       </c>
       <c r="S26">
-        <f>R26*(1+'[1]BM Steel'!D$24)</f>
-        <v>15989096.771002466</v>
+        <f>R26*(1+'[1]BM Steel'!F$24)</f>
+        <v>16472367.220906012</v>
       </c>
       <c r="T26">
-        <f>S26*(1+'[1]BM Steel'!E$24)</f>
-        <v>16228933.222567501</v>
+        <f>S26*(1+'[1]BM Steel'!G$24)</f>
+        <v>16719452.729219601</v>
       </c>
       <c r="U26">
-        <f>T26*(1+'[1]BM Steel'!F$24)</f>
-        <v>16472367.220906012</v>
+        <f>T26*(1+'[1]BM Steel'!H$24)</f>
+        <v>16970244.520157892</v>
       </c>
       <c r="V26">
-        <f>U26*(1+'[1]BM Steel'!G$24)</f>
-        <v>16719452.729219601</v>
+        <f>U26*(1+'[1]BM Steel'!I$24)</f>
+        <v>17224798.18796026</v>
       </c>
       <c r="W26">
-        <f>V26*(1+'[1]BM Steel'!H$24)</f>
-        <v>16970244.520157892</v>
+        <f>V26*(1+'[1]BM Steel'!J$24)</f>
+        <v>17483170.160779662</v>
       </c>
       <c r="X26">
-        <f>W26*(1+'[1]BM Steel'!I$24)</f>
-        <v>17224798.18796026</v>
+        <f>W26*(1+'[1]BM Steel'!K$24)</f>
+        <v>17745417.713191357</v>
       </c>
       <c r="Y26">
-        <f>X26*(1+'[1]BM Steel'!J$24)</f>
-        <v>17483170.160779662</v>
+        <f>X26*(1+'[1]BM Steel'!L$24)</f>
+        <v>18011598.978889227</v>
       </c>
       <c r="Z26">
-        <f>Y26*(1+'[1]BM Steel'!K$24)</f>
-        <v>17745417.713191357</v>
+        <f>Y26*(1+'[1]BM Steel'!M$24)</f>
+        <v>18281772.963572562</v>
       </c>
       <c r="AA26">
-        <f>Z26*(1+'[1]BM Steel'!L$24)</f>
-        <v>18011598.978889227</v>
+        <f>Z26*(1+'[1]BM Steel'!N$24)</f>
+        <v>18555999.55802615</v>
       </c>
       <c r="AB26">
-        <f>AA26*(1+'[1]BM Steel'!M$24)</f>
-        <v>18281772.963572562</v>
+        <f>AA26*(1+'[1]BM Steel'!O$24)</f>
+        <v>18834339.551396541</v>
       </c>
       <c r="AC26">
-        <f>AB26*(1+'[1]BM Steel'!N$24)</f>
-        <v>18555999.55802615</v>
+        <f>AB26*(1+'[1]BM Steel'!P$24)</f>
+        <v>19116854.644667488</v>
       </c>
       <c r="AD26">
-        <f>AC26*(1+'[1]BM Steel'!O$24)</f>
-        <v>18834339.551396541</v>
+        <f>AC26*(1+'[1]BM Steel'!Q$24)</f>
+        <v>19403607.464337498</v>
       </c>
       <c r="AE26">
-        <f>AD26*(1+'[1]BM Steel'!P$24)</f>
-        <v>19116854.644667488</v>
+        <f>AD26*(1+'[1]BM Steel'!R$24)</f>
+        <v>19694661.576302558</v>
       </c>
       <c r="AF26">
-        <f>AE26*(1+'[1]BM Steel'!Q$24)</f>
-        <v>19403607.464337498</v>
+        <f>AE26*(1+'[1]BM Steel'!S$24)</f>
+        <v>19990081.499947093</v>
       </c>
       <c r="AG26">
-        <f>AF26*(1+'[1]BM Steel'!R$24)</f>
-        <v>19694661.576302558</v>
+        <f>AF26*(1+'[1]BM Steel'!T$24)</f>
+        <v>20289932.722446296</v>
       </c>
       <c r="AH26">
-        <f>AG26*(1+'[1]BM Steel'!S$24)</f>
-        <v>19990081.499947093</v>
+        <f>AG26*(1+'[1]BM Steel'!U$24)</f>
+        <v>20594281.713282987</v>
       </c>
       <c r="AI26">
-        <f>AH26*(1+'[1]BM Steel'!T$24)</f>
-        <v>20289932.722446296</v>
+        <f>AH26*(1+'[1]BM Steel'!V$24)</f>
+        <v>20903195.93898223</v>
       </c>
       <c r="AJ26">
-        <f>AI26*(1+'[1]BM Steel'!U$24)</f>
-        <v>20594281.713282987</v>
+        <f>AI26*(1+'[1]BM Steel'!W$24)</f>
+        <v>21216743.878066961</v>
       </c>
       <c r="AK26">
-        <f>AJ26*(1+'[1]BM Steel'!V$24)</f>
-        <v>20903195.93898223</v>
+        <f>AJ26*(1+'[1]BM Steel'!X$24)</f>
+        <v>21534995.036237963</v>
       </c>
       <c r="AL26">
-        <f>AK26*(1+'[1]BM Steel'!W$24)</f>
-        <v>21216743.878066961</v>
+        <f>AK26*(1+'[1]BM Steel'!Y$24)</f>
+        <v>21858019.961781532</v>
       </c>
       <c r="AM26">
-        <f>AL26*(1+'[1]BM Steel'!X$24)</f>
-        <v>21534995.036237963</v>
+        <f>AL26*(1+'[1]BM Steel'!Z$24)</f>
+        <v>22185890.261208251</v>
       </c>
       <c r="AN26">
-        <f>AM26*(1+'[1]BM Steel'!Y$24)</f>
-        <v>21858019.961781532</v>
+        <f>AM26*(1+'[1]BM Steel'!AA$24)</f>
+        <v>22518678.615126371</v>
       </c>
       <c r="AO26">
-        <f>AN26*(1+'[1]BM Steel'!Z$24)</f>
-        <v>22185890.261208251</v>
+        <f>AN26*(1+'[1]BM Steel'!AB$24)</f>
+        <v>22856458.794353265</v>
       </c>
       <c r="AP26">
-        <f>AO26*(1+'[1]BM Steel'!AA$24)</f>
-        <v>22518678.615126371</v>
+        <f>AO26*(1+'[1]BM Steel'!AC$24)</f>
+        <v>23199305.676268563</v>
       </c>
       <c r="AQ26">
-        <f>AP26*(1+'[1]BM Steel'!AB$24)</f>
-        <v>22856458.794353265</v>
+        <f>AP26*(1+'[1]BM Steel'!AD$24)</f>
+        <v>23547295.261412587</v>
       </c>
       <c r="AR26">
-        <f>AQ26*(1+'[1]BM Steel'!AC$24)</f>
-        <v>23199305.676268563</v>
+        <f>AQ26*(1+'[1]BM Steel'!AE$24)</f>
+        <v>23900504.690333772</v>
       </c>
       <c r="AS26">
-        <f>AR26*(1+'[1]BM Steel'!AD$24)</f>
-        <v>23547295.261412587</v>
+        <f>AR26*(1+'[1]BM Steel'!AF$24)</f>
+        <v>24259012.260688778</v>
       </c>
       <c r="AT26">
-        <f>AS26*(1+'[1]BM Steel'!AE$24)</f>
-        <v>23900504.690333772</v>
-      </c>
-      <c r="AU26">
-        <f>AT26*(1+'[1]BM Steel'!AF$24)</f>
-        <v>24259012.260688778</v>
-      </c>
-      <c r="AV26">
-        <f>AU26*(1+'[1]BM Steel'!AG$24)</f>
+        <f>AS26*(1+'[1]BM Steel'!AG$24)</f>
         <v>24622897.444599107</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:46">
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="str">
-        <f>A14</f>
-        <v>Company AS</v>
-      </c>
-      <c r="C27" t="str">
-        <f>D14</f>
-        <v>JP3401400001</v>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G27" t="s">
         <v>194</v>
@@ -23252,153 +23051,145 @@
       <c r="P27" t="s">
         <v>194</v>
       </c>
-      <c r="Q27" t="s">
-        <v>194</v>
-      </c>
-      <c r="R27" t="s">
-        <v>194</v>
+      <c r="Q27" t="e">
+        <f>P27*(1+'[1]BM Steel'!D$24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R27" t="e">
+        <f>Q27*(1+'[1]BM Steel'!E$24)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S27" t="e">
-        <f>R27*(1+'[1]BM Steel'!D$24)</f>
+        <f>R27*(1+'[1]BM Steel'!F$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="T27" t="e">
-        <f>S27*(1+'[1]BM Steel'!E$24)</f>
+        <f>S27*(1+'[1]BM Steel'!G$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="U27" t="e">
-        <f>T27*(1+'[1]BM Steel'!F$24)</f>
+        <f>T27*(1+'[1]BM Steel'!H$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="V27" t="e">
-        <f>U27*(1+'[1]BM Steel'!G$24)</f>
+        <f>U27*(1+'[1]BM Steel'!I$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="W27" t="e">
-        <f>V27*(1+'[1]BM Steel'!H$24)</f>
+        <f>V27*(1+'[1]BM Steel'!J$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="X27" t="e">
-        <f>W27*(1+'[1]BM Steel'!I$24)</f>
+        <f>W27*(1+'[1]BM Steel'!K$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y27" t="e">
-        <f>X27*(1+'[1]BM Steel'!J$24)</f>
+        <f>X27*(1+'[1]BM Steel'!L$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z27" t="e">
-        <f>Y27*(1+'[1]BM Steel'!K$24)</f>
+        <f>Y27*(1+'[1]BM Steel'!M$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA27" t="e">
-        <f>Z27*(1+'[1]BM Steel'!L$24)</f>
+        <f>Z27*(1+'[1]BM Steel'!N$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AB27" t="e">
-        <f>AA27*(1+'[1]BM Steel'!M$24)</f>
+        <f>AA27*(1+'[1]BM Steel'!O$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AC27" t="e">
-        <f>AB27*(1+'[1]BM Steel'!N$24)</f>
+        <f>AB27*(1+'[1]BM Steel'!P$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AD27" t="e">
-        <f>AC27*(1+'[1]BM Steel'!O$24)</f>
+        <f>AC27*(1+'[1]BM Steel'!Q$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AE27" t="e">
-        <f>AD27*(1+'[1]BM Steel'!P$24)</f>
+        <f>AD27*(1+'[1]BM Steel'!R$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AF27" t="e">
-        <f>AE27*(1+'[1]BM Steel'!Q$24)</f>
+        <f>AE27*(1+'[1]BM Steel'!S$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG27" t="e">
-        <f>AF27*(1+'[1]BM Steel'!R$24)</f>
+        <f>AF27*(1+'[1]BM Steel'!T$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AH27" t="e">
-        <f>AG27*(1+'[1]BM Steel'!S$24)</f>
+        <f>AG27*(1+'[1]BM Steel'!U$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI27" t="e">
-        <f>AH27*(1+'[1]BM Steel'!T$24)</f>
+        <f>AH27*(1+'[1]BM Steel'!V$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AJ27" t="e">
-        <f>AI27*(1+'[1]BM Steel'!U$24)</f>
+        <f>AI27*(1+'[1]BM Steel'!W$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK27" t="e">
-        <f>AJ27*(1+'[1]BM Steel'!V$24)</f>
+        <f>AJ27*(1+'[1]BM Steel'!X$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AL27" t="e">
-        <f>AK27*(1+'[1]BM Steel'!W$24)</f>
+        <f>AK27*(1+'[1]BM Steel'!Y$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AM27" t="e">
-        <f>AL27*(1+'[1]BM Steel'!X$24)</f>
+        <f>AL27*(1+'[1]BM Steel'!Z$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AN27" t="e">
-        <f>AM27*(1+'[1]BM Steel'!Y$24)</f>
+        <f>AM27*(1+'[1]BM Steel'!AA$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AO27" t="e">
-        <f>AN27*(1+'[1]BM Steel'!Z$24)</f>
+        <f>AN27*(1+'[1]BM Steel'!AB$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AP27" t="e">
-        <f>AO27*(1+'[1]BM Steel'!AA$24)</f>
+        <f>AO27*(1+'[1]BM Steel'!AC$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ27" t="e">
-        <f>AP27*(1+'[1]BM Steel'!AB$24)</f>
+        <f>AP27*(1+'[1]BM Steel'!AD$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR27" t="e">
-        <f>AQ27*(1+'[1]BM Steel'!AC$24)</f>
+        <f>AQ27*(1+'[1]BM Steel'!AE$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AS27" t="e">
-        <f>AR27*(1+'[1]BM Steel'!AD$24)</f>
+        <f>AR27*(1+'[1]BM Steel'!AF$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AT27" t="e">
-        <f>AS27*(1+'[1]BM Steel'!AE$24)</f>
+        <f>AS27*(1+'[1]BM Steel'!AG$24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AU27" t="e">
-        <f>AT27*(1+'[1]BM Steel'!AF$24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV27" t="e">
-        <f>AU27*(1+'[1]BM Steel'!AG$24)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:48">
+    </row>
+    <row r="28" spans="1:46">
       <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="str">
-        <f>A15</f>
-        <v>Company AT</v>
-      </c>
-      <c r="C28" t="str">
-        <f>D15</f>
-        <v>US6541061031</v>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G28" t="s">
         <v>194</v>
@@ -23406,177 +23197,169 @@
       <c r="H28" t="s">
         <v>194</v>
       </c>
-      <c r="I28" t="s">
-        <v>194</v>
-      </c>
-      <c r="J28" t="s">
-        <v>194</v>
+      <c r="I28">
+        <v>15691492.922484901</v>
+      </c>
+      <c r="J28">
+        <v>11301980.922484901</v>
       </c>
       <c r="K28">
-        <v>15691492.922484901</v>
+        <v>11500001.922484901</v>
       </c>
       <c r="L28">
-        <v>11301980.922484901</v>
+        <v>11600001.922484901</v>
       </c>
       <c r="M28">
-        <v>11500001.922484901</v>
+        <v>3012108.9224849502</v>
       </c>
       <c r="N28">
-        <v>11600001.922484901</v>
+        <v>12039001.922484901</v>
       </c>
       <c r="O28">
-        <v>3012108.9224849502</v>
+        <v>11847001.922484901</v>
       </c>
       <c r="P28">
-        <v>12039001.922484901</v>
+        <v>11314001.922484901</v>
       </c>
       <c r="Q28">
-        <v>11847001.922484901</v>
+        <f>P28*(1+'[1]BM Steel'!D$24)</f>
+        <v>11483711.951322174</v>
       </c>
       <c r="R28">
-        <v>11314001.922484901</v>
+        <f>Q28*(1+'[1]BM Steel'!E$24)</f>
+        <v>11655967.630592005</v>
       </c>
       <c r="S28">
-        <f>R28*(1+'[1]BM Steel'!D$24)</f>
-        <v>11483711.951322174</v>
+        <f>R28*(1+'[1]BM Steel'!F$24)</f>
+        <v>11830807.145050885</v>
       </c>
       <c r="T28">
-        <f>S28*(1+'[1]BM Steel'!E$24)</f>
-        <v>11655967.630592005</v>
+        <f>S28*(1+'[1]BM Steel'!G$24)</f>
+        <v>12008269.252226647</v>
       </c>
       <c r="U28">
-        <f>T28*(1+'[1]BM Steel'!F$24)</f>
-        <v>11830807.145050885</v>
+        <f>T28*(1+'[1]BM Steel'!H$24)</f>
+        <v>12188393.291010046</v>
       </c>
       <c r="V28">
-        <f>U28*(1+'[1]BM Steel'!G$24)</f>
-        <v>12008269.252226647</v>
+        <f>U28*(1+'[1]BM Steel'!I$24)</f>
+        <v>12371219.190375196</v>
       </c>
       <c r="W28">
-        <f>V28*(1+'[1]BM Steel'!H$24)</f>
-        <v>12188393.291010046</v>
+        <f>V28*(1+'[1]BM Steel'!J$24)</f>
+        <v>12556787.478230823</v>
       </c>
       <c r="X28">
-        <f>W28*(1+'[1]BM Steel'!I$24)</f>
-        <v>12371219.190375196</v>
+        <f>W28*(1+'[1]BM Steel'!K$24)</f>
+        <v>12745139.290404284</v>
       </c>
       <c r="Y28">
-        <f>X28*(1+'[1]BM Steel'!J$24)</f>
-        <v>12556787.478230823</v>
+        <f>X28*(1+'[1]BM Steel'!L$24)</f>
+        <v>12936316.379760347</v>
       </c>
       <c r="Z28">
-        <f>Y28*(1+'[1]BM Steel'!K$24)</f>
-        <v>12745139.290404284</v>
+        <f>Y28*(1+'[1]BM Steel'!M$24)</f>
+        <v>13130361.12545675</v>
       </c>
       <c r="AA28">
-        <f>Z28*(1+'[1]BM Steel'!L$24)</f>
-        <v>12936316.379760347</v>
+        <f>Z28*(1+'[1]BM Steel'!N$24)</f>
+        <v>13327316.5423386</v>
       </c>
       <c r="AB28">
-        <f>AA28*(1+'[1]BM Steel'!M$24)</f>
-        <v>13130361.12545675</v>
+        <f>AA28*(1+'[1]BM Steel'!O$24)</f>
+        <v>13527226.290473677</v>
       </c>
       <c r="AC28">
-        <f>AB28*(1+'[1]BM Steel'!N$24)</f>
-        <v>13327316.5423386</v>
+        <f>AB28*(1+'[1]BM Steel'!P$24)</f>
+        <v>13730134.684830781</v>
       </c>
       <c r="AD28">
-        <f>AC28*(1+'[1]BM Steel'!O$24)</f>
-        <v>13527226.290473677</v>
+        <f>AC28*(1+'[1]BM Steel'!Q$24)</f>
+        <v>13936086.705103241</v>
       </c>
       <c r="AE28">
-        <f>AD28*(1+'[1]BM Steel'!P$24)</f>
-        <v>13730134.684830781</v>
+        <f>AD28*(1+'[1]BM Steel'!R$24)</f>
+        <v>14145128.005679788</v>
       </c>
       <c r="AF28">
-        <f>AE28*(1+'[1]BM Steel'!Q$24)</f>
-        <v>13936086.705103241</v>
+        <f>AE28*(1+'[1]BM Steel'!S$24)</f>
+        <v>14357304.925764984</v>
       </c>
       <c r="AG28">
-        <f>AF28*(1+'[1]BM Steel'!R$24)</f>
-        <v>14145128.005679788</v>
+        <f>AF28*(1+'[1]BM Steel'!T$24)</f>
+        <v>14572664.499651456</v>
       </c>
       <c r="AH28">
-        <f>AG28*(1+'[1]BM Steel'!S$24)</f>
-        <v>14357304.925764984</v>
+        <f>AG28*(1+'[1]BM Steel'!U$24)</f>
+        <v>14791254.467146227</v>
       </c>
       <c r="AI28">
-        <f>AH28*(1+'[1]BM Steel'!T$24)</f>
-        <v>14572664.499651456</v>
+        <f>AH28*(1+'[1]BM Steel'!V$24)</f>
+        <v>15013123.284153419</v>
       </c>
       <c r="AJ28">
-        <f>AI28*(1+'[1]BM Steel'!U$24)</f>
-        <v>14791254.467146227</v>
+        <f>AI28*(1+'[1]BM Steel'!W$24)</f>
+        <v>15238320.133415718</v>
       </c>
       <c r="AK28">
-        <f>AJ28*(1+'[1]BM Steel'!V$24)</f>
-        <v>15013123.284153419</v>
+        <f>AJ28*(1+'[1]BM Steel'!X$24)</f>
+        <v>15466894.935416952</v>
       </c>
       <c r="AL28">
-        <f>AK28*(1+'[1]BM Steel'!W$24)</f>
-        <v>15238320.133415718</v>
+        <f>AK28*(1+'[1]BM Steel'!Y$24)</f>
+        <v>15698898.359448204</v>
       </c>
       <c r="AM28">
-        <f>AL28*(1+'[1]BM Steel'!X$24)</f>
-        <v>15466894.935416952</v>
+        <f>AL28*(1+'[1]BM Steel'!Z$24)</f>
+        <v>15934381.834839925</v>
       </c>
       <c r="AN28">
-        <f>AM28*(1+'[1]BM Steel'!Y$24)</f>
-        <v>15698898.359448204</v>
+        <f>AM28*(1+'[1]BM Steel'!AA$24)</f>
+        <v>16173397.562362522</v>
       </c>
       <c r="AO28">
-        <f>AN28*(1+'[1]BM Steel'!Z$24)</f>
-        <v>15934381.834839925</v>
+        <f>AN28*(1+'[1]BM Steel'!AB$24)</f>
+        <v>16415998.525797958</v>
       </c>
       <c r="AP28">
-        <f>AO28*(1+'[1]BM Steel'!AA$24)</f>
-        <v>16173397.562362522</v>
+        <f>AO28*(1+'[1]BM Steel'!AC$24)</f>
+        <v>16662238.503684925</v>
       </c>
       <c r="AQ28">
-        <f>AP28*(1+'[1]BM Steel'!AB$24)</f>
-        <v>16415998.525797958</v>
+        <f>AP28*(1+'[1]BM Steel'!AD$24)</f>
+        <v>16912172.081240196</v>
       </c>
       <c r="AR28">
-        <f>AQ28*(1+'[1]BM Steel'!AC$24)</f>
-        <v>16662238.503684925</v>
+        <f>AQ28*(1+'[1]BM Steel'!AE$24)</f>
+        <v>17165854.662458796</v>
       </c>
       <c r="AS28">
-        <f>AR28*(1+'[1]BM Steel'!AD$24)</f>
-        <v>16912172.081240196</v>
+        <f>AR28*(1+'[1]BM Steel'!AF$24)</f>
+        <v>17423342.482395675</v>
       </c>
       <c r="AT28">
-        <f>AS28*(1+'[1]BM Steel'!AE$24)</f>
-        <v>17165854.662458796</v>
-      </c>
-      <c r="AU28">
-        <f>AT28*(1+'[1]BM Steel'!AF$24)</f>
-        <v>17423342.482395675</v>
-      </c>
-      <c r="AV28">
-        <f>AU28*(1+'[1]BM Steel'!AG$24)</f>
+        <f>AS28*(1+'[1]BM Steel'!AG$24)</f>
         <v>17684692.619631607</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:46">
       <c r="A29" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="str">
-        <f>A15</f>
-        <v>Company AT</v>
-      </c>
-      <c r="C29" t="str">
-        <f>D15</f>
-        <v>US6541061031</v>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G29" t="s">
         <v>194</v>
@@ -23596,165 +23379,157 @@
       <c r="L29" t="s">
         <v>194</v>
       </c>
-      <c r="M29" t="s">
-        <v>194</v>
-      </c>
-      <c r="N29" t="s">
-        <v>194</v>
+      <c r="M29">
+        <v>15393000.0778486</v>
+      </c>
+      <c r="N29">
+        <v>15419000.0778486</v>
       </c>
       <c r="O29">
-        <v>15393000.0778486</v>
+        <v>14618000.0778486</v>
       </c>
       <c r="P29">
-        <v>15419000.0778486</v>
+        <v>14473000.0778486</v>
       </c>
       <c r="Q29">
-        <v>14618000.0778486</v>
+        <f>P29*(1+'[1]BM Steel'!D$24)</f>
+        <v>14690095.079016328</v>
       </c>
       <c r="R29">
-        <v>14473000.0778486</v>
+        <f>Q29*(1+'[1]BM Steel'!E$24)</f>
+        <v>14910446.505201571</v>
       </c>
       <c r="S29">
-        <f>R29*(1+'[1]BM Steel'!D$24)</f>
-        <v>14690095.079016328</v>
+        <f>R29*(1+'[1]BM Steel'!F$24)</f>
+        <v>15134103.202779593</v>
       </c>
       <c r="T29">
-        <f>S29*(1+'[1]BM Steel'!E$24)</f>
-        <v>14910446.505201571</v>
+        <f>S29*(1+'[1]BM Steel'!G$24)</f>
+        <v>15361114.750821285</v>
       </c>
       <c r="U29">
-        <f>T29*(1+'[1]BM Steel'!F$24)</f>
-        <v>15134103.202779593</v>
+        <f>T29*(1+'[1]BM Steel'!H$24)</f>
+        <v>15591531.472083602</v>
       </c>
       <c r="V29">
-        <f>U29*(1+'[1]BM Steel'!G$24)</f>
-        <v>15361114.750821285</v>
+        <f>U29*(1+'[1]BM Steel'!I$24)</f>
+        <v>15825404.444164855</v>
       </c>
       <c r="W29">
-        <f>V29*(1+'[1]BM Steel'!H$24)</f>
-        <v>15591531.472083602</v>
+        <f>V29*(1+'[1]BM Steel'!J$24)</f>
+        <v>16062785.510827327</v>
       </c>
       <c r="X29">
-        <f>W29*(1+'[1]BM Steel'!I$24)</f>
-        <v>15825404.444164855</v>
+        <f>W29*(1+'[1]BM Steel'!K$24)</f>
+        <v>16303727.293489736</v>
       </c>
       <c r="Y29">
-        <f>X29*(1+'[1]BM Steel'!J$24)</f>
-        <v>16062785.510827327</v>
+        <f>X29*(1+'[1]BM Steel'!L$24)</f>
+        <v>16548283.20289208</v>
       </c>
       <c r="Z29">
-        <f>Y29*(1+'[1]BM Steel'!K$24)</f>
-        <v>16303727.293489736</v>
+        <f>Y29*(1+'[1]BM Steel'!M$24)</f>
+        <v>16796507.450935461</v>
       </c>
       <c r="AA29">
-        <f>Z29*(1+'[1]BM Steel'!L$24)</f>
-        <v>16548283.20289208</v>
+        <f>Z29*(1+'[1]BM Steel'!N$24)</f>
+        <v>17048455.062699489</v>
       </c>
       <c r="AB29">
-        <f>AA29*(1+'[1]BM Steel'!M$24)</f>
-        <v>16796507.450935461</v>
+        <f>AA29*(1+'[1]BM Steel'!O$24)</f>
+        <v>17304181.888639979</v>
       </c>
       <c r="AC29">
-        <f>AB29*(1+'[1]BM Steel'!N$24)</f>
-        <v>17048455.062699489</v>
+        <f>AB29*(1+'[1]BM Steel'!P$24)</f>
+        <v>17563744.616969578</v>
       </c>
       <c r="AD29">
-        <f>AC29*(1+'[1]BM Steel'!O$24)</f>
-        <v>17304181.888639979</v>
+        <f>AC29*(1+'[1]BM Steel'!Q$24)</f>
+        <v>17827200.786224119</v>
       </c>
       <c r="AE29">
-        <f>AD29*(1+'[1]BM Steel'!P$24)</f>
-        <v>17563744.616969578</v>
+        <f>AD29*(1+'[1]BM Steel'!R$24)</f>
+        <v>18094608.798017479</v>
       </c>
       <c r="AF29">
-        <f>AE29*(1+'[1]BM Steel'!Q$24)</f>
-        <v>17827200.786224119</v>
+        <f>AE29*(1+'[1]BM Steel'!S$24)</f>
+        <v>18366027.92998774</v>
       </c>
       <c r="AG29">
-        <f>AF29*(1+'[1]BM Steel'!R$24)</f>
-        <v>18094608.798017479</v>
+        <f>AF29*(1+'[1]BM Steel'!T$24)</f>
+        <v>18641518.348937552</v>
       </c>
       <c r="AH29">
-        <f>AG29*(1+'[1]BM Steel'!S$24)</f>
-        <v>18366027.92998774</v>
+        <f>AG29*(1+'[1]BM Steel'!U$24)</f>
+        <v>18921141.124171615</v>
       </c>
       <c r="AI29">
-        <f>AH29*(1+'[1]BM Steel'!T$24)</f>
-        <v>18641518.348937552</v>
+        <f>AH29*(1+'[1]BM Steel'!V$24)</f>
+        <v>19204958.241034187</v>
       </c>
       <c r="AJ29">
-        <f>AI29*(1+'[1]BM Steel'!U$24)</f>
-        <v>18921141.124171615</v>
+        <f>AI29*(1+'[1]BM Steel'!W$24)</f>
+        <v>19493032.614649698</v>
       </c>
       <c r="AK29">
-        <f>AJ29*(1+'[1]BM Steel'!V$24)</f>
-        <v>19204958.241034187</v>
+        <f>AJ29*(1+'[1]BM Steel'!X$24)</f>
+        <v>19785428.103869442</v>
       </c>
       <c r="AL29">
-        <f>AK29*(1+'[1]BM Steel'!W$24)</f>
-        <v>19493032.614649698</v>
+        <f>AK29*(1+'[1]BM Steel'!Y$24)</f>
+        <v>20082209.525427483</v>
       </c>
       <c r="AM29">
-        <f>AL29*(1+'[1]BM Steel'!X$24)</f>
-        <v>19785428.103869442</v>
+        <f>AL29*(1+'[1]BM Steel'!Z$24)</f>
+        <v>20383442.668308895</v>
       </c>
       <c r="AN29">
-        <f>AM29*(1+'[1]BM Steel'!Y$24)</f>
-        <v>20082209.525427483</v>
+        <f>AM29*(1+'[1]BM Steel'!AA$24)</f>
+        <v>20689194.308333527</v>
       </c>
       <c r="AO29">
-        <f>AN29*(1+'[1]BM Steel'!Z$24)</f>
-        <v>20383442.668308895</v>
+        <f>AN29*(1+'[1]BM Steel'!AB$24)</f>
+        <v>20999532.222958528</v>
       </c>
       <c r="AP29">
-        <f>AO29*(1+'[1]BM Steel'!AA$24)</f>
-        <v>20689194.308333527</v>
+        <f>AO29*(1+'[1]BM Steel'!AC$24)</f>
+        <v>21314525.206302904</v>
       </c>
       <c r="AQ29">
-        <f>AP29*(1+'[1]BM Steel'!AB$24)</f>
-        <v>20999532.222958528</v>
+        <f>AP29*(1+'[1]BM Steel'!AD$24)</f>
+        <v>21634243.084397446</v>
       </c>
       <c r="AR29">
-        <f>AQ29*(1+'[1]BM Steel'!AC$24)</f>
-        <v>21314525.206302904</v>
+        <f>AQ29*(1+'[1]BM Steel'!AE$24)</f>
+        <v>21958756.730663408</v>
       </c>
       <c r="AS29">
-        <f>AR29*(1+'[1]BM Steel'!AD$24)</f>
-        <v>21634243.084397446</v>
+        <f>AR29*(1+'[1]BM Steel'!AF$24)</f>
+        <v>22288138.081623357</v>
       </c>
       <c r="AT29">
-        <f>AS29*(1+'[1]BM Steel'!AE$24)</f>
-        <v>21958756.730663408</v>
-      </c>
-      <c r="AU29">
-        <f>AT29*(1+'[1]BM Steel'!AF$24)</f>
-        <v>22288138.081623357</v>
-      </c>
-      <c r="AV29">
-        <f>AU29*(1+'[1]BM Steel'!AG$24)</f>
+        <f>AS29*(1+'[1]BM Steel'!AG$24)</f>
         <v>22622460.152847704</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:46">
       <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="str">
-        <f>A16</f>
-        <v>Company AU</v>
-      </c>
-      <c r="C30" t="str">
-        <f>D16</f>
-        <v>GB0031274896</v>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>192</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G30" t="s">
         <v>194</v>
@@ -23765,174 +23540,166 @@
       <c r="I30" t="s">
         <v>194</v>
       </c>
-      <c r="J30" t="s">
-        <v>194</v>
-      </c>
-      <c r="K30" t="s">
-        <v>194</v>
+      <c r="J30">
+        <v>9155004.3464471791</v>
+      </c>
+      <c r="K30">
+        <v>9331004.3464471791</v>
       </c>
       <c r="L30">
-        <v>9155004.3464471791</v>
+        <v>20808004.3464472</v>
       </c>
       <c r="M30">
-        <v>9331004.3464471791</v>
+        <v>21911004.3464472</v>
       </c>
       <c r="N30">
-        <v>20808004.3464472</v>
+        <v>25390004.3464472</v>
       </c>
       <c r="O30">
-        <v>21911004.3464472</v>
+        <v>27110004.3464472</v>
       </c>
       <c r="P30">
-        <v>25390004.3464472</v>
+        <v>30630004.3464472</v>
       </c>
       <c r="Q30">
-        <v>27110004.3464472</v>
+        <f>P30*(1+'[1]BM Steel'!D$24)</f>
+        <v>31089454.411643904</v>
       </c>
       <c r="R30">
-        <v>30630004.3464472</v>
+        <f>Q30*(1+'[1]BM Steel'!E$24)</f>
+        <v>31555796.22781856</v>
       </c>
       <c r="S30">
-        <f>R30*(1+'[1]BM Steel'!D$24)</f>
-        <v>31089454.411643904</v>
+        <f>R30*(1+'[1]BM Steel'!F$24)</f>
+        <v>32029133.171235833</v>
       </c>
       <c r="T30">
-        <f>S30*(1+'[1]BM Steel'!E$24)</f>
-        <v>31555796.22781856</v>
+        <f>S30*(1+'[1]BM Steel'!G$24)</f>
+        <v>32509570.168804366</v>
       </c>
       <c r="U30">
-        <f>T30*(1+'[1]BM Steel'!F$24)</f>
-        <v>32029133.171235833</v>
+        <f>T30*(1+'[1]BM Steel'!H$24)</f>
+        <v>32997213.721336428</v>
       </c>
       <c r="V30">
-        <f>U30*(1+'[1]BM Steel'!G$24)</f>
-        <v>32509570.168804366</v>
+        <f>U30*(1+'[1]BM Steel'!I$24)</f>
+        <v>33492171.927156471</v>
       </c>
       <c r="W30">
-        <f>V30*(1+'[1]BM Steel'!H$24)</f>
-        <v>32997213.721336428</v>
+        <f>V30*(1+'[1]BM Steel'!J$24)</f>
+        <v>33994554.506063811</v>
       </c>
       <c r="X30">
-        <f>W30*(1+'[1]BM Steel'!I$24)</f>
-        <v>33492171.927156471</v>
+        <f>W30*(1+'[1]BM Steel'!K$24)</f>
+        <v>34504472.823654763</v>
       </c>
       <c r="Y30">
-        <f>X30*(1+'[1]BM Steel'!J$24)</f>
-        <v>33994554.506063811</v>
+        <f>X30*(1+'[1]BM Steel'!L$24)</f>
+        <v>35022039.916009583</v>
       </c>
       <c r="Z30">
-        <f>Y30*(1+'[1]BM Steel'!K$24)</f>
-        <v>34504472.823654763</v>
+        <f>Y30*(1+'[1]BM Steel'!M$24)</f>
+        <v>35547370.514749721</v>
       </c>
       <c r="AA30">
-        <f>Z30*(1+'[1]BM Steel'!L$24)</f>
-        <v>35022039.916009583</v>
+        <f>Z30*(1+'[1]BM Steel'!N$24)</f>
+        <v>36080581.072470963</v>
       </c>
       <c r="AB30">
-        <f>AA30*(1+'[1]BM Steel'!M$24)</f>
-        <v>35547370.514749721</v>
+        <f>AA30*(1+'[1]BM Steel'!O$24)</f>
+        <v>36621789.788558021</v>
       </c>
       <c r="AC30">
-        <f>AB30*(1+'[1]BM Steel'!N$24)</f>
-        <v>36080581.072470963</v>
+        <f>AB30*(1+'[1]BM Steel'!P$24)</f>
+        <v>37171116.635386385</v>
       </c>
       <c r="AD30">
-        <f>AC30*(1+'[1]BM Steel'!O$24)</f>
-        <v>36621789.788558021</v>
+        <f>AC30*(1+'[1]BM Steel'!Q$24)</f>
+        <v>37728683.384917177</v>
       </c>
       <c r="AE30">
-        <f>AD30*(1+'[1]BM Steel'!P$24)</f>
-        <v>37171116.635386385</v>
+        <f>AD30*(1+'[1]BM Steel'!R$24)</f>
+        <v>38294613.635690935</v>
       </c>
       <c r="AF30">
-        <f>AE30*(1+'[1]BM Steel'!Q$24)</f>
-        <v>37728683.384917177</v>
+        <f>AE30*(1+'[1]BM Steel'!S$24)</f>
+        <v>38869032.840226293</v>
       </c>
       <c r="AG30">
-        <f>AF30*(1+'[1]BM Steel'!R$24)</f>
-        <v>38294613.635690935</v>
+        <f>AF30*(1+'[1]BM Steel'!T$24)</f>
+        <v>39452068.332829684</v>
       </c>
       <c r="AH30">
-        <f>AG30*(1+'[1]BM Steel'!S$24)</f>
-        <v>38869032.840226293</v>
+        <f>AG30*(1+'[1]BM Steel'!U$24)</f>
+        <v>40043849.357822128</v>
       </c>
       <c r="AI30">
-        <f>AH30*(1+'[1]BM Steel'!T$24)</f>
-        <v>39452068.332829684</v>
+        <f>AH30*(1+'[1]BM Steel'!V$24)</f>
+        <v>40644507.098189458</v>
       </c>
       <c r="AJ30">
-        <f>AI30*(1+'[1]BM Steel'!U$24)</f>
-        <v>40043849.357822128</v>
+        <f>AI30*(1+'[1]BM Steel'!W$24)</f>
+        <v>41254174.704662293</v>
       </c>
       <c r="AK30">
-        <f>AJ30*(1+'[1]BM Steel'!V$24)</f>
-        <v>40644507.098189458</v>
+        <f>AJ30*(1+'[1]BM Steel'!X$24)</f>
+        <v>41872987.325232223</v>
       </c>
       <c r="AL30">
-        <f>AK30*(1+'[1]BM Steel'!W$24)</f>
-        <v>41254174.704662293</v>
+        <f>AK30*(1+'[1]BM Steel'!Y$24)</f>
+        <v>42501082.135110699</v>
       </c>
       <c r="AM30">
-        <f>AL30*(1+'[1]BM Steel'!X$24)</f>
-        <v>41872987.325232223</v>
+        <f>AL30*(1+'[1]BM Steel'!Z$24)</f>
+        <v>43138598.367137358</v>
       </c>
       <c r="AN30">
-        <f>AM30*(1+'[1]BM Steel'!Y$24)</f>
-        <v>42501082.135110699</v>
+        <f>AM30*(1+'[1]BM Steel'!AA$24)</f>
+        <v>43785677.342644416</v>
       </c>
       <c r="AO30">
-        <f>AN30*(1+'[1]BM Steel'!Z$24)</f>
-        <v>43138598.367137358</v>
+        <f>AN30*(1+'[1]BM Steel'!AB$24)</f>
+        <v>44442462.502784081</v>
       </c>
       <c r="AP30">
-        <f>AO30*(1+'[1]BM Steel'!AA$24)</f>
-        <v>43785677.342644416</v>
+        <f>AO30*(1+'[1]BM Steel'!AC$24)</f>
+        <v>45109099.440325841</v>
       </c>
       <c r="AQ30">
-        <f>AP30*(1+'[1]BM Steel'!AB$24)</f>
-        <v>44442462.502784081</v>
+        <f>AP30*(1+'[1]BM Steel'!AD$24)</f>
+        <v>45785735.931930721</v>
       </c>
       <c r="AR30">
-        <f>AQ30*(1+'[1]BM Steel'!AC$24)</f>
-        <v>45109099.440325841</v>
+        <f>AQ30*(1+'[1]BM Steel'!AE$24)</f>
+        <v>46472521.970909677</v>
       </c>
       <c r="AS30">
-        <f>AR30*(1+'[1]BM Steel'!AD$24)</f>
-        <v>45785735.931930721</v>
+        <f>AR30*(1+'[1]BM Steel'!AF$24)</f>
+        <v>47169609.800473318</v>
       </c>
       <c r="AT30">
-        <f>AS30*(1+'[1]BM Steel'!AE$24)</f>
-        <v>46472521.970909677</v>
-      </c>
-      <c r="AU30">
-        <f>AT30*(1+'[1]BM Steel'!AF$24)</f>
-        <v>47169609.800473318</v>
-      </c>
-      <c r="AV30">
-        <f>AU30*(1+'[1]BM Steel'!AG$24)</f>
+        <f>AS30*(1+'[1]BM Steel'!AG$24)</f>
         <v>47877153.94748041</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:46">
       <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="str">
-        <f>A16</f>
-        <v>Company AU</v>
-      </c>
-      <c r="C31" t="str">
-        <f>D16</f>
-        <v>GB0031274896</v>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>192</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G31" t="s">
         <v>194</v>
@@ -23964,751 +23731,285 @@
       <c r="P31" t="s">
         <v>194</v>
       </c>
-      <c r="Q31" t="s">
-        <v>194</v>
-      </c>
-      <c r="R31" t="s">
-        <v>194</v>
+      <c r="Q31" t="e">
+        <f>P31*(1+'[1]BM Steel'!D$24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R31" t="e">
+        <f>Q31*(1+'[1]BM Steel'!E$24)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S31" t="e">
-        <f>R31*(1+'[1]BM Steel'!D$24)</f>
+        <f>R31*(1+'[1]BM Steel'!F$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="T31" t="e">
-        <f>S31*(1+'[1]BM Steel'!E$24)</f>
+        <f>S31*(1+'[1]BM Steel'!G$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="U31" t="e">
-        <f>T31*(1+'[1]BM Steel'!F$24)</f>
+        <f>T31*(1+'[1]BM Steel'!H$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="V31" t="e">
-        <f>U31*(1+'[1]BM Steel'!G$24)</f>
+        <f>U31*(1+'[1]BM Steel'!I$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="W31" t="e">
-        <f>V31*(1+'[1]BM Steel'!H$24)</f>
+        <f>V31*(1+'[1]BM Steel'!J$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="X31" t="e">
-        <f>W31*(1+'[1]BM Steel'!I$24)</f>
+        <f>W31*(1+'[1]BM Steel'!K$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y31" t="e">
-        <f>X31*(1+'[1]BM Steel'!J$24)</f>
+        <f>X31*(1+'[1]BM Steel'!L$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z31" t="e">
-        <f>Y31*(1+'[1]BM Steel'!K$24)</f>
+        <f>Y31*(1+'[1]BM Steel'!M$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA31" t="e">
-        <f>Z31*(1+'[1]BM Steel'!L$24)</f>
+        <f>Z31*(1+'[1]BM Steel'!N$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AB31" t="e">
-        <f>AA31*(1+'[1]BM Steel'!M$24)</f>
+        <f>AA31*(1+'[1]BM Steel'!O$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AC31" t="e">
-        <f>AB31*(1+'[1]BM Steel'!N$24)</f>
+        <f>AB31*(1+'[1]BM Steel'!P$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AD31" t="e">
-        <f>AC31*(1+'[1]BM Steel'!O$24)</f>
+        <f>AC31*(1+'[1]BM Steel'!Q$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AE31" t="e">
-        <f>AD31*(1+'[1]BM Steel'!P$24)</f>
+        <f>AD31*(1+'[1]BM Steel'!R$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AF31" t="e">
-        <f>AE31*(1+'[1]BM Steel'!Q$24)</f>
+        <f>AE31*(1+'[1]BM Steel'!S$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG31" t="e">
-        <f>AF31*(1+'[1]BM Steel'!R$24)</f>
+        <f>AF31*(1+'[1]BM Steel'!T$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AH31" t="e">
-        <f>AG31*(1+'[1]BM Steel'!S$24)</f>
+        <f>AG31*(1+'[1]BM Steel'!U$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI31" t="e">
-        <f>AH31*(1+'[1]BM Steel'!T$24)</f>
+        <f>AH31*(1+'[1]BM Steel'!V$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AJ31" t="e">
-        <f>AI31*(1+'[1]BM Steel'!U$24)</f>
+        <f>AI31*(1+'[1]BM Steel'!W$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK31" t="e">
-        <f>AJ31*(1+'[1]BM Steel'!V$24)</f>
+        <f>AJ31*(1+'[1]BM Steel'!X$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AL31" t="e">
-        <f>AK31*(1+'[1]BM Steel'!W$24)</f>
+        <f>AK31*(1+'[1]BM Steel'!Y$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AM31" t="e">
-        <f>AL31*(1+'[1]BM Steel'!X$24)</f>
+        <f>AL31*(1+'[1]BM Steel'!Z$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AN31" t="e">
-        <f>AM31*(1+'[1]BM Steel'!Y$24)</f>
+        <f>AM31*(1+'[1]BM Steel'!AA$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AO31" t="e">
-        <f>AN31*(1+'[1]BM Steel'!Z$24)</f>
+        <f>AN31*(1+'[1]BM Steel'!AB$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AP31" t="e">
-        <f>AO31*(1+'[1]BM Steel'!AA$24)</f>
+        <f>AO31*(1+'[1]BM Steel'!AC$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ31" t="e">
-        <f>AP31*(1+'[1]BM Steel'!AB$24)</f>
+        <f>AP31*(1+'[1]BM Steel'!AD$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR31" t="e">
-        <f>AQ31*(1+'[1]BM Steel'!AC$24)</f>
+        <f>AQ31*(1+'[1]BM Steel'!AE$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AS31" t="e">
-        <f>AR31*(1+'[1]BM Steel'!AD$24)</f>
+        <f>AR31*(1+'[1]BM Steel'!AF$24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AT31" t="e">
-        <f>AS31*(1+'[1]BM Steel'!AE$24)</f>
+        <f>AS31*(1+'[1]BM Steel'!AG$24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AU31" t="e">
-        <f>AT31*(1+'[1]BM Steel'!AF$24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV31" t="e">
-        <f>AU31*(1+'[1]BM Steel'!AG$24)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:48">
+    </row>
+    <row r="32" spans="1:46">
       <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="B32" t="str">
-        <f>A17</f>
-        <v>Company AV</v>
-      </c>
-      <c r="C32" t="str">
-        <f>D17</f>
-        <v>US6293775085</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" t="str">
-        <f>A17</f>
-        <v>Company AV</v>
-      </c>
-      <c r="C33" t="str">
-        <f>D17</f>
-        <v>US6293775085</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>75</v>
       </c>
-      <c r="B34" t="str">
-        <f>A18</f>
-        <v>Company AW</v>
-      </c>
-      <c r="C34" t="str">
-        <f>D18</f>
-        <v>US7134481081</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="str">
-        <f>A18</f>
-        <v>Company AW</v>
-      </c>
-      <c r="C35" t="str">
-        <f>D18</f>
-        <v>US7134481081</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>81</v>
       </c>
-      <c r="B36" t="str">
-        <f>A19</f>
-        <v>Company A</v>
-      </c>
-      <c r="C36" t="str">
-        <f>D19</f>
-        <v>JP0000000001</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>83</v>
       </c>
-      <c r="B37" t="str">
-        <f>A19</f>
-        <v>Company A</v>
-      </c>
-      <c r="C37" t="str">
-        <f>D19</f>
-        <v>JP0000000001</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>85</v>
       </c>
-      <c r="B38" t="str">
-        <f>A20</f>
-        <v>Company B</v>
-      </c>
-      <c r="C38" t="str">
-        <f>D20</f>
-        <v>NL0000000002</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>88</v>
       </c>
-      <c r="B39" t="str">
-        <f>A20</f>
-        <v>Company B</v>
-      </c>
-      <c r="C39" t="str">
-        <f>D20</f>
-        <v>NL0000000002</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>90</v>
       </c>
-      <c r="B40" t="str">
-        <f>A21</f>
-        <v>Company C</v>
-      </c>
-      <c r="C40" t="str">
-        <f>D21</f>
-        <v>IT0000000003</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>92</v>
       </c>
-      <c r="B41" t="str">
-        <f>A21</f>
-        <v>Company C</v>
-      </c>
-      <c r="C41" t="str">
-        <f>D21</f>
-        <v>IT0000000003</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B41" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>94</v>
       </c>
-      <c r="B42" t="str">
-        <f>A22</f>
-        <v>Company D</v>
-      </c>
-      <c r="C42" t="str">
-        <f>D22</f>
-        <v>SE0000000004</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B42" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>97</v>
       </c>
-      <c r="B43" t="str">
-        <f>A22</f>
-        <v>Company D</v>
-      </c>
-      <c r="C43" t="str">
-        <f>D22</f>
-        <v>SE0000000004</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B43" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>100</v>
       </c>
-      <c r="B44" t="str">
-        <f>A23</f>
-        <v>Company E</v>
-      </c>
-      <c r="C44" t="str">
-        <f>D23</f>
-        <v>SE0000000005</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>102</v>
       </c>
-      <c r="B45" t="str">
-        <f>A23</f>
-        <v>Company E</v>
-      </c>
-      <c r="C45" t="str">
-        <f>D23</f>
-        <v>SE0000000005</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>105</v>
       </c>
-      <c r="B46" t="str">
-        <f>A24</f>
-        <v>Company F</v>
-      </c>
-      <c r="C46" t="str">
-        <f>D24</f>
-        <v>NL0000000006</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B46" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>108</v>
       </c>
-      <c r="B47" t="str">
-        <f>A24</f>
-        <v>Company F</v>
-      </c>
-      <c r="C47" t="str">
-        <f>D24</f>
-        <v>NL0000000006</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B47" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>112</v>
       </c>
-      <c r="B48" t="str">
-        <f>A25</f>
-        <v>Company G</v>
-      </c>
-      <c r="C48" t="str">
-        <f>D25</f>
-        <v>CN0000000007</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B48" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>115</v>
       </c>
-      <c r="B49" t="str">
-        <f>A25</f>
-        <v>Company G</v>
-      </c>
-      <c r="C49" t="str">
-        <f>D25</f>
-        <v>CN0000000007</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B49" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>118</v>
       </c>
-      <c r="B50" t="str">
-        <f>A26</f>
-        <v>Company H</v>
-      </c>
-      <c r="C50" t="str">
-        <f>D26</f>
-        <v>CN0000000008</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="B50" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>183</v>
       </c>
-      <c r="B51" t="str">
-        <f>A26</f>
-        <v>Company H</v>
-      </c>
-      <c r="C51" t="str">
-        <f>D26</f>
-        <v>CN0000000008</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="B51" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="B52" t="str">
-        <f>A27</f>
-        <v>Company I</v>
-      </c>
-      <c r="C52" t="str">
-        <f>D27</f>
-        <v>CN0000000009</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="B53" t="str">
-        <f>A27</f>
-        <v>Company I</v>
-      </c>
-      <c r="C53" t="str">
-        <f>D27</f>
-        <v>CN0000000009</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="B54" t="str">
-        <f>A28</f>
-        <v>Company J</v>
-      </c>
-      <c r="C54" t="str">
-        <f>D28</f>
-        <v>BR0000000010</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="B55" t="str">
-        <f>A28</f>
-        <v>Company J</v>
-      </c>
-      <c r="C55" t="str">
-        <f>D28</f>
-        <v>BR0000000010</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="B56" t="str">
-        <f>A29</f>
-        <v>Company K</v>
-      </c>
-      <c r="C56" t="str">
-        <f>D29</f>
-        <v>BR0000000011</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="B57" t="str">
-        <f>A29</f>
-        <v>Company K</v>
-      </c>
-      <c r="C57" t="str">
-        <f>D29</f>
-        <v>BR0000000011</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="B58" t="str">
-        <f>A30</f>
-        <v>Company L</v>
-      </c>
-      <c r="C58" t="str">
-        <f>D30</f>
-        <v>BR0000000012</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="B59" t="str">
-        <f>A30</f>
-        <v>Company L</v>
-      </c>
-      <c r="C59" t="str">
-        <f>D30</f>
-        <v>BR0000000012</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="B60" t="str">
-        <f>A31</f>
-        <v>Company M</v>
-      </c>
-      <c r="C60" t="str">
-        <f>D31</f>
-        <v>AR0000000013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="B61" t="str">
-        <f>A31</f>
-        <v>Company M</v>
-      </c>
-      <c r="C61" t="str">
-        <f>D31</f>
-        <v>AR0000000013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="B62" t="str">
-        <f>A32</f>
-        <v>Company N</v>
-      </c>
-      <c r="C62" t="str">
-        <f>D32</f>
-        <v>FR0000000014</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="B63" t="str">
-        <f>A33</f>
-        <v>Company O</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" ref="C63:C81" si="0">D33</f>
-        <v>FR0000000015</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="B64" t="str">
-        <f t="shared" ref="B64:B80" si="1">A34</f>
-        <v>Company P</v>
-      </c>
-      <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>FR0000000016</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" t="str">
-        <f t="shared" si="1"/>
-        <v>Company Q</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v>CA0000000017</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" t="str">
-        <f t="shared" si="1"/>
-        <v>Company R</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" si="0"/>
-        <v>CA0000000018</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" t="str">
-        <f t="shared" si="1"/>
-        <v>Company S</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" si="0"/>
-        <v>CA0000000019</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" t="str">
-        <f t="shared" si="1"/>
-        <v>Company T</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" si="0"/>
-        <v>CA0000000020</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" t="str">
-        <f t="shared" si="1"/>
-        <v>Company U</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="0"/>
-        <v>US0000000021</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" t="str">
-        <f t="shared" si="1"/>
-        <v>Company V</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="0"/>
-        <v>US0000000022</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" t="str">
-        <f t="shared" si="1"/>
-        <v>Company W</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" si="0"/>
-        <v>US0000000023</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" t="str">
-        <f t="shared" si="1"/>
-        <v>Company X</v>
-      </c>
-      <c r="C72" t="str">
-        <f t="shared" si="0"/>
-        <v>FI0000000024</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" t="str">
-        <f t="shared" si="1"/>
-        <v>Company Y</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" si="0"/>
-        <v>DK0000000025</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" t="str">
-        <f t="shared" si="1"/>
-        <v>Company Z</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" si="0"/>
-        <v>JP0000000026</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="B75" t="str">
-        <f t="shared" si="1"/>
-        <v>Company AA</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" si="0"/>
-        <v>SP0000000027</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" t="str">
-        <f t="shared" si="1"/>
-        <v>Company AB</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" si="0"/>
-        <v>RU0000000028</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" t="str">
-        <f t="shared" si="1"/>
-        <v>Company AC</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" si="0"/>
-        <v>ZA0000000029</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" t="str">
-        <f t="shared" si="1"/>
-        <v>Company AD</v>
-      </c>
-      <c r="C78" t="str">
-        <f t="shared" si="0"/>
-        <v>KE0000000030</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" t="str">
-        <f t="shared" si="1"/>
-        <v>Company AE</v>
-      </c>
-      <c r="C79" t="str">
-        <f t="shared" si="0"/>
-        <v>TH0000000031</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="B80" t="str">
-        <f t="shared" si="1"/>
-        <v>Company AF</v>
-      </c>
-      <c r="C80" t="str">
-        <f t="shared" si="0"/>
-        <v>ID0000000032</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" t="str">
-        <f>A51</f>
-        <v>Company AX</v>
-      </c>
-      <c r="C81" t="str">
-        <f t="shared" si="0"/>
-        <v>AU0000000033</v>
       </c>
     </row>
   </sheetData>
@@ -24720,7 +24021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="184">
   <si>
     <t>company_name</t>
   </si>
@@ -5173,8 +5173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7399,7 +7399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -12414,8 +12414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21475,6 +21475,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21482,8 +21483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26561,100 +26562,160 @@
       <c r="A32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>111</v>
+      </c>
+      <c r="B51" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -26668,7 +26729,7 @@
   <dimension ref="A1:AR81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -679,6 +679,7 @@
       <sheetName val="Target EI in Wh"/>
       <sheetName val="Projected production"/>
       <sheetName val="Trajectory cumulative"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="BM Power Utils"/>
       <sheetName val="BM Steel"/>
     </sheetNames>
@@ -4465,7 +4466,8 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
         <row r="24">
           <cell r="C24">
             <v>-7.6398544753241149E-2</v>
@@ -4752,7 +4754,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9">
+      <sheetData sheetId="10">
         <row r="24">
           <cell r="C24">
             <v>1.4999999999999999E-2</v>
@@ -12414,7 +12416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -21483,8 +21485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B51"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26728,8 +26730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
